--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO28"/>
+  <dimension ref="A1:DO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:DO28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:DO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10341,6 +10341,4275 @@
         <v>5</v>
       </c>
     </row>
+    <row r="29" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>4</v>
+      </c>
+      <c r="AD29">
+        <v>5</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>5</v>
+      </c>
+      <c r="AL29">
+        <v>5</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>4</v>
+      </c>
+      <c r="AT29">
+        <v>4</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>5</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>2</v>
+      </c>
+      <c r="BD29">
+        <v>5</v>
+      </c>
+      <c r="BE29">
+        <v>5</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BG29">
+        <v>4</v>
+      </c>
+      <c r="BH29">
+        <v>3</v>
+      </c>
+      <c r="BI29">
+        <v>4</v>
+      </c>
+      <c r="BJ29">
+        <v>1</v>
+      </c>
+      <c r="BK29">
+        <v>1</v>
+      </c>
+      <c r="BL29">
+        <v>3</v>
+      </c>
+      <c r="BM29">
+        <v>2</v>
+      </c>
+      <c r="BN29">
+        <v>3</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>3</v>
+      </c>
+      <c r="BQ29">
+        <v>5</v>
+      </c>
+      <c r="BR29">
+        <v>3</v>
+      </c>
+      <c r="BS29">
+        <v>4</v>
+      </c>
+      <c r="BT29">
+        <v>4</v>
+      </c>
+      <c r="BU29">
+        <v>4</v>
+      </c>
+      <c r="BV29">
+        <v>1</v>
+      </c>
+      <c r="BW29">
+        <v>2</v>
+      </c>
+      <c r="BX29">
+        <v>2</v>
+      </c>
+      <c r="BY29">
+        <v>2</v>
+      </c>
+      <c r="BZ29">
+        <v>1</v>
+      </c>
+      <c r="CA29">
+        <v>4</v>
+      </c>
+      <c r="CB29">
+        <v>5</v>
+      </c>
+      <c r="CC29">
+        <v>4</v>
+      </c>
+      <c r="CD29">
+        <v>4</v>
+      </c>
+      <c r="CE29">
+        <v>5</v>
+      </c>
+      <c r="CF29">
+        <v>4</v>
+      </c>
+      <c r="CG29">
+        <v>2</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>2</v>
+      </c>
+      <c r="CJ29">
+        <v>2</v>
+      </c>
+      <c r="CK29">
+        <v>1</v>
+      </c>
+      <c r="CL29">
+        <v>1</v>
+      </c>
+      <c r="CM29">
+        <v>5</v>
+      </c>
+      <c r="CN29">
+        <v>5</v>
+      </c>
+      <c r="CO29">
+        <v>5</v>
+      </c>
+      <c r="CP29">
+        <v>3</v>
+      </c>
+      <c r="CQ29">
+        <v>3</v>
+      </c>
+      <c r="CR29">
+        <v>1</v>
+      </c>
+      <c r="CS29">
+        <v>1</v>
+      </c>
+      <c r="CT29">
+        <v>1</v>
+      </c>
+      <c r="CU29">
+        <v>4</v>
+      </c>
+      <c r="CV29">
+        <v>5</v>
+      </c>
+      <c r="CW29">
+        <v>4</v>
+      </c>
+      <c r="CX29">
+        <v>4</v>
+      </c>
+      <c r="CY29">
+        <v>3</v>
+      </c>
+      <c r="CZ29">
+        <v>3</v>
+      </c>
+      <c r="DA29">
+        <v>2</v>
+      </c>
+      <c r="DB29">
+        <v>2</v>
+      </c>
+      <c r="DC29">
+        <v>3</v>
+      </c>
+      <c r="DD29">
+        <v>4</v>
+      </c>
+      <c r="DE29">
+        <v>4</v>
+      </c>
+      <c r="DF29">
+        <v>4</v>
+      </c>
+      <c r="DG29">
+        <v>2</v>
+      </c>
+      <c r="DH29">
+        <v>2</v>
+      </c>
+      <c r="DI29">
+        <v>2</v>
+      </c>
+      <c r="DJ29">
+        <v>1</v>
+      </c>
+      <c r="DK29">
+        <v>4</v>
+      </c>
+      <c r="DL29">
+        <v>5</v>
+      </c>
+      <c r="DM29">
+        <v>5</v>
+      </c>
+      <c r="DN29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>3</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>5</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30">
+        <v>4</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>4</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>4</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>2</v>
+      </c>
+      <c r="AZ30">
+        <v>2</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
+        <v>5</v>
+      </c>
+      <c r="BE30">
+        <v>5</v>
+      </c>
+      <c r="BF30">
+        <v>3</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>3</v>
+      </c>
+      <c r="BJ30">
+        <v>3</v>
+      </c>
+      <c r="BK30">
+        <v>3</v>
+      </c>
+      <c r="BL30">
+        <v>2</v>
+      </c>
+      <c r="BM30">
+        <v>3</v>
+      </c>
+      <c r="BN30">
+        <v>3</v>
+      </c>
+      <c r="BO30">
+        <v>2</v>
+      </c>
+      <c r="BP30">
+        <v>4</v>
+      </c>
+      <c r="BQ30">
+        <v>4</v>
+      </c>
+      <c r="BR30">
+        <v>4</v>
+      </c>
+      <c r="BS30">
+        <v>5</v>
+      </c>
+      <c r="BT30">
+        <v>4</v>
+      </c>
+      <c r="BU30">
+        <v>1</v>
+      </c>
+      <c r="BV30">
+        <v>1</v>
+      </c>
+      <c r="BW30">
+        <v>1</v>
+      </c>
+      <c r="BX30">
+        <v>2</v>
+      </c>
+      <c r="BY30">
+        <v>2</v>
+      </c>
+      <c r="BZ30">
+        <v>3</v>
+      </c>
+      <c r="CA30">
+        <v>4</v>
+      </c>
+      <c r="CB30">
+        <v>3</v>
+      </c>
+      <c r="CC30">
+        <v>4</v>
+      </c>
+      <c r="CD30">
+        <v>4</v>
+      </c>
+      <c r="CE30">
+        <v>4</v>
+      </c>
+      <c r="CF30">
+        <v>5</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH30">
+        <v>3</v>
+      </c>
+      <c r="CI30">
+        <v>4</v>
+      </c>
+      <c r="CJ30">
+        <v>2</v>
+      </c>
+      <c r="CK30">
+        <v>2</v>
+      </c>
+      <c r="CL30">
+        <v>4</v>
+      </c>
+      <c r="CM30">
+        <v>5</v>
+      </c>
+      <c r="CN30">
+        <v>5</v>
+      </c>
+      <c r="CO30">
+        <v>3</v>
+      </c>
+      <c r="CP30">
+        <v>4</v>
+      </c>
+      <c r="CQ30">
+        <v>1</v>
+      </c>
+      <c r="CR30">
+        <v>1</v>
+      </c>
+      <c r="CS30">
+        <v>3</v>
+      </c>
+      <c r="CT30">
+        <v>5</v>
+      </c>
+      <c r="CU30">
+        <v>5</v>
+      </c>
+      <c r="CV30">
+        <v>5</v>
+      </c>
+      <c r="CW30">
+        <v>3</v>
+      </c>
+      <c r="CX30">
+        <v>4</v>
+      </c>
+      <c r="CY30">
+        <v>4</v>
+      </c>
+      <c r="CZ30">
+        <v>5</v>
+      </c>
+      <c r="DA30">
+        <v>4</v>
+      </c>
+      <c r="DB30">
+        <v>5</v>
+      </c>
+      <c r="DC30">
+        <v>3</v>
+      </c>
+      <c r="DD30">
+        <v>5</v>
+      </c>
+      <c r="DE30">
+        <v>5</v>
+      </c>
+      <c r="DF30">
+        <v>2</v>
+      </c>
+      <c r="DG30">
+        <v>2</v>
+      </c>
+      <c r="DH30">
+        <v>2</v>
+      </c>
+      <c r="DI30">
+        <v>1</v>
+      </c>
+      <c r="DJ30">
+        <v>4</v>
+      </c>
+      <c r="DK30">
+        <v>5</v>
+      </c>
+      <c r="DL30">
+        <v>4</v>
+      </c>
+      <c r="DM30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>5</v>
+      </c>
+      <c r="AD31">
+        <v>5</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>5</v>
+      </c>
+      <c r="AL31">
+        <v>4</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>5</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
+      <c r="AT31">
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31">
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BD31">
+        <v>5</v>
+      </c>
+      <c r="BE31">
+        <v>5</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>5</v>
+      </c>
+      <c r="BH31">
+        <v>5</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>1</v>
+      </c>
+      <c r="BK31">
+        <v>3</v>
+      </c>
+      <c r="BL31">
+        <v>3</v>
+      </c>
+      <c r="BM31">
+        <v>2</v>
+      </c>
+      <c r="BN31">
+        <v>4</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>2</v>
+      </c>
+      <c r="BQ31">
+        <v>4</v>
+      </c>
+      <c r="BR31">
+        <v>4</v>
+      </c>
+      <c r="BS31">
+        <v>5</v>
+      </c>
+      <c r="BT31">
+        <v>3</v>
+      </c>
+      <c r="BU31">
+        <v>5</v>
+      </c>
+      <c r="BV31">
+        <v>1</v>
+      </c>
+      <c r="BW31">
+        <v>4</v>
+      </c>
+      <c r="BX31">
+        <v>3</v>
+      </c>
+      <c r="BY31">
+        <v>4</v>
+      </c>
+      <c r="BZ31">
+        <v>3</v>
+      </c>
+      <c r="CA31">
+        <v>5</v>
+      </c>
+      <c r="CB31">
+        <v>5</v>
+      </c>
+      <c r="CC31">
+        <v>5</v>
+      </c>
+      <c r="CD31">
+        <v>5</v>
+      </c>
+      <c r="CE31">
+        <v>5</v>
+      </c>
+      <c r="CF31">
+        <v>5</v>
+      </c>
+      <c r="CG31">
+        <v>1</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI31">
+        <v>1</v>
+      </c>
+      <c r="CJ31">
+        <v>1</v>
+      </c>
+      <c r="CK31">
+        <v>1</v>
+      </c>
+      <c r="CL31">
+        <v>1</v>
+      </c>
+      <c r="CM31">
+        <v>5</v>
+      </c>
+      <c r="CN31">
+        <v>5</v>
+      </c>
+      <c r="CO31">
+        <v>5</v>
+      </c>
+      <c r="CP31">
+        <v>5</v>
+      </c>
+      <c r="CQ31">
+        <v>3</v>
+      </c>
+      <c r="CR31">
+        <v>1</v>
+      </c>
+      <c r="CS31">
+        <v>1</v>
+      </c>
+      <c r="CT31">
+        <v>5</v>
+      </c>
+      <c r="CU31">
+        <v>5</v>
+      </c>
+      <c r="CV31">
+        <v>5</v>
+      </c>
+      <c r="CW31">
+        <v>5</v>
+      </c>
+      <c r="CX31">
+        <v>5</v>
+      </c>
+      <c r="CY31">
+        <v>3</v>
+      </c>
+      <c r="CZ31">
+        <v>3</v>
+      </c>
+      <c r="DA31">
+        <v>4</v>
+      </c>
+      <c r="DB31">
+        <v>4</v>
+      </c>
+      <c r="DC31">
+        <v>3</v>
+      </c>
+      <c r="DD31">
+        <v>3</v>
+      </c>
+      <c r="DE31">
+        <v>3</v>
+      </c>
+      <c r="DF31">
+        <v>5</v>
+      </c>
+      <c r="DG31">
+        <v>1</v>
+      </c>
+      <c r="DH31">
+        <v>1</v>
+      </c>
+      <c r="DI31">
+        <v>1</v>
+      </c>
+      <c r="DJ31">
+        <v>1</v>
+      </c>
+      <c r="DK31">
+        <v>5</v>
+      </c>
+      <c r="DL31">
+        <v>5</v>
+      </c>
+      <c r="DM31">
+        <v>5</v>
+      </c>
+      <c r="DN31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>4</v>
+      </c>
+      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>5</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>4</v>
+      </c>
+      <c r="AS32">
+        <v>5</v>
+      </c>
+      <c r="AT32">
+        <v>5</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>4</v>
+      </c>
+      <c r="AZ32">
+        <v>2</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>5</v>
+      </c>
+      <c r="BE32">
+        <v>5</v>
+      </c>
+      <c r="BF32">
+        <v>5</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+      <c r="BH32">
+        <v>2</v>
+      </c>
+      <c r="BI32">
+        <v>2</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
+        <v>2</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>4</v>
+      </c>
+      <c r="BO32">
+        <v>5</v>
+      </c>
+      <c r="BP32">
+        <v>5</v>
+      </c>
+      <c r="BQ32">
+        <v>5</v>
+      </c>
+      <c r="BR32">
+        <v>4</v>
+      </c>
+      <c r="BS32">
+        <v>4</v>
+      </c>
+      <c r="BT32">
+        <v>4</v>
+      </c>
+      <c r="BU32">
+        <v>4</v>
+      </c>
+      <c r="BV32">
+        <v>1</v>
+      </c>
+      <c r="BW32">
+        <v>4</v>
+      </c>
+      <c r="BX32">
+        <v>3</v>
+      </c>
+      <c r="BY32">
+        <v>4</v>
+      </c>
+      <c r="BZ32">
+        <v>3</v>
+      </c>
+      <c r="CA32">
+        <v>5</v>
+      </c>
+      <c r="CB32">
+        <v>5</v>
+      </c>
+      <c r="CC32">
+        <v>5</v>
+      </c>
+      <c r="CD32">
+        <v>5</v>
+      </c>
+      <c r="CE32">
+        <v>5</v>
+      </c>
+      <c r="CF32">
+        <v>4</v>
+      </c>
+      <c r="CG32">
+        <v>1</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI32">
+        <v>4</v>
+      </c>
+      <c r="CJ32">
+        <v>5</v>
+      </c>
+      <c r="CK32">
+        <v>1</v>
+      </c>
+      <c r="CL32">
+        <v>2</v>
+      </c>
+      <c r="CM32">
+        <v>5</v>
+      </c>
+      <c r="CN32">
+        <v>5</v>
+      </c>
+      <c r="CO32">
+        <v>4</v>
+      </c>
+      <c r="CP32">
+        <v>2</v>
+      </c>
+      <c r="CQ32">
+        <v>2</v>
+      </c>
+      <c r="CR32">
+        <v>1</v>
+      </c>
+      <c r="CS32">
+        <v>1</v>
+      </c>
+      <c r="CT32">
+        <v>4</v>
+      </c>
+      <c r="CU32">
+        <v>4</v>
+      </c>
+      <c r="CV32">
+        <v>5</v>
+      </c>
+      <c r="CW32">
+        <v>4</v>
+      </c>
+      <c r="CX32">
+        <v>4</v>
+      </c>
+      <c r="CY32">
+        <v>2</v>
+      </c>
+      <c r="CZ32">
+        <v>4</v>
+      </c>
+      <c r="DA32">
+        <v>2</v>
+      </c>
+      <c r="DB32">
+        <v>4</v>
+      </c>
+      <c r="DC32">
+        <v>1</v>
+      </c>
+      <c r="DD32">
+        <v>4</v>
+      </c>
+      <c r="DE32">
+        <v>5</v>
+      </c>
+      <c r="DF32">
+        <v>4</v>
+      </c>
+      <c r="DG32">
+        <v>1</v>
+      </c>
+      <c r="DH32">
+        <v>1</v>
+      </c>
+      <c r="DI32">
+        <v>4</v>
+      </c>
+      <c r="DJ32">
+        <v>1</v>
+      </c>
+      <c r="DK32">
+        <v>4</v>
+      </c>
+      <c r="DL32">
+        <v>4</v>
+      </c>
+      <c r="DM32">
+        <v>5</v>
+      </c>
+      <c r="DN32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>5</v>
+      </c>
+      <c r="AL33">
+        <v>5</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AN33">
+        <v>5</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>4</v>
+      </c>
+      <c r="AT33">
+        <v>5</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
+        <v>4</v>
+      </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
+      <c r="BC33">
+        <v>2</v>
+      </c>
+      <c r="BD33">
+        <v>4</v>
+      </c>
+      <c r="BE33">
+        <v>4</v>
+      </c>
+      <c r="BF33">
+        <v>5</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>1</v>
+      </c>
+      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
+        <v>3</v>
+      </c>
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BN33">
+        <v>2</v>
+      </c>
+      <c r="BO33">
+        <v>2</v>
+      </c>
+      <c r="BP33">
+        <v>1</v>
+      </c>
+      <c r="BQ33">
+        <v>4</v>
+      </c>
+      <c r="BR33">
+        <v>4</v>
+      </c>
+      <c r="BS33">
+        <v>4</v>
+      </c>
+      <c r="BT33">
+        <v>4</v>
+      </c>
+      <c r="BU33">
+        <v>5</v>
+      </c>
+      <c r="BV33">
+        <v>1</v>
+      </c>
+      <c r="BW33">
+        <v>1</v>
+      </c>
+      <c r="BX33">
+        <v>2</v>
+      </c>
+      <c r="BY33">
+        <v>1</v>
+      </c>
+      <c r="BZ33">
+        <v>1</v>
+      </c>
+      <c r="CA33">
+        <v>4</v>
+      </c>
+      <c r="CB33">
+        <v>5</v>
+      </c>
+      <c r="CC33">
+        <v>4</v>
+      </c>
+      <c r="CD33">
+        <v>4</v>
+      </c>
+      <c r="CE33">
+        <v>5</v>
+      </c>
+      <c r="CF33">
+        <v>4</v>
+      </c>
+      <c r="CG33">
+        <v>1</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI33">
+        <v>2</v>
+      </c>
+      <c r="CJ33">
+        <v>2</v>
+      </c>
+      <c r="CK33">
+        <v>3</v>
+      </c>
+      <c r="CL33">
+        <v>3</v>
+      </c>
+      <c r="CM33">
+        <v>4</v>
+      </c>
+      <c r="CN33">
+        <v>4</v>
+      </c>
+      <c r="CO33">
+        <v>5</v>
+      </c>
+      <c r="CP33">
+        <v>5</v>
+      </c>
+      <c r="CQ33">
+        <v>4</v>
+      </c>
+      <c r="CR33">
+        <v>2</v>
+      </c>
+      <c r="CS33">
+        <v>1</v>
+      </c>
+      <c r="CT33">
+        <v>2</v>
+      </c>
+      <c r="CU33">
+        <v>4</v>
+      </c>
+      <c r="CV33">
+        <v>5</v>
+      </c>
+      <c r="CW33">
+        <v>3</v>
+      </c>
+      <c r="CX33">
+        <v>4</v>
+      </c>
+      <c r="CY33">
+        <v>3</v>
+      </c>
+      <c r="CZ33">
+        <v>4</v>
+      </c>
+      <c r="DA33">
+        <v>2</v>
+      </c>
+      <c r="DB33">
+        <v>3</v>
+      </c>
+      <c r="DC33">
+        <v>4</v>
+      </c>
+      <c r="DD33">
+        <v>2</v>
+      </c>
+      <c r="DE33">
+        <v>3</v>
+      </c>
+      <c r="DF33">
+        <v>4</v>
+      </c>
+      <c r="DG33">
+        <v>1</v>
+      </c>
+      <c r="DH33">
+        <v>1</v>
+      </c>
+      <c r="DI33">
+        <v>1</v>
+      </c>
+      <c r="DJ33">
+        <v>1</v>
+      </c>
+      <c r="DK33">
+        <v>4</v>
+      </c>
+      <c r="DL33">
+        <v>5</v>
+      </c>
+      <c r="DM33">
+        <v>4</v>
+      </c>
+      <c r="DN33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>4</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>3</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>5</v>
+      </c>
+      <c r="AL34">
+        <v>5</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>2</v>
+      </c>
+      <c r="AS34">
+        <v>4</v>
+      </c>
+      <c r="AT34">
+        <v>4</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>2</v>
+      </c>
+      <c r="BD34">
+        <v>4</v>
+      </c>
+      <c r="BE34">
+        <v>4</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>4</v>
+      </c>
+      <c r="BH34">
+        <v>2</v>
+      </c>
+      <c r="BI34">
+        <v>2</v>
+      </c>
+      <c r="BJ34">
+        <v>1</v>
+      </c>
+      <c r="BK34">
+        <v>4</v>
+      </c>
+      <c r="BL34">
+        <v>4</v>
+      </c>
+      <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BN34">
+        <v>4</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
+      <c r="BQ34">
+        <v>2</v>
+      </c>
+      <c r="BR34">
+        <v>2</v>
+      </c>
+      <c r="BS34">
+        <v>4</v>
+      </c>
+      <c r="BT34">
+        <v>4</v>
+      </c>
+      <c r="BU34">
+        <v>4</v>
+      </c>
+      <c r="BV34">
+        <v>1</v>
+      </c>
+      <c r="BW34">
+        <v>2</v>
+      </c>
+      <c r="BX34">
+        <v>3</v>
+      </c>
+      <c r="BY34">
+        <v>3</v>
+      </c>
+      <c r="BZ34">
+        <v>2</v>
+      </c>
+      <c r="CA34">
+        <v>4</v>
+      </c>
+      <c r="CB34">
+        <v>5</v>
+      </c>
+      <c r="CC34">
+        <v>5</v>
+      </c>
+      <c r="CD34">
+        <v>3</v>
+      </c>
+      <c r="CE34">
+        <v>5</v>
+      </c>
+      <c r="CF34">
+        <v>5</v>
+      </c>
+      <c r="CG34">
+        <v>4</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>3</v>
+      </c>
+      <c r="CJ34">
+        <v>3</v>
+      </c>
+      <c r="CK34">
+        <v>2</v>
+      </c>
+      <c r="CL34">
+        <v>2</v>
+      </c>
+      <c r="CM34">
+        <v>5</v>
+      </c>
+      <c r="CN34">
+        <v>5</v>
+      </c>
+      <c r="CO34">
+        <v>5</v>
+      </c>
+      <c r="CP34">
+        <v>5</v>
+      </c>
+      <c r="CQ34">
+        <v>3</v>
+      </c>
+      <c r="CR34">
+        <v>1</v>
+      </c>
+      <c r="CS34">
+        <v>1</v>
+      </c>
+      <c r="CT34">
+        <v>2</v>
+      </c>
+      <c r="CU34">
+        <v>3</v>
+      </c>
+      <c r="CV34">
+        <v>4</v>
+      </c>
+      <c r="CW34">
+        <v>5</v>
+      </c>
+      <c r="CX34">
+        <v>3</v>
+      </c>
+      <c r="CY34">
+        <v>4</v>
+      </c>
+      <c r="CZ34">
+        <v>5</v>
+      </c>
+      <c r="DA34">
+        <v>5</v>
+      </c>
+      <c r="DB34">
+        <v>5</v>
+      </c>
+      <c r="DC34">
+        <v>2</v>
+      </c>
+      <c r="DD34">
+        <v>1</v>
+      </c>
+      <c r="DE34">
+        <v>1</v>
+      </c>
+      <c r="DF34">
+        <v>2</v>
+      </c>
+      <c r="DG34">
+        <v>1</v>
+      </c>
+      <c r="DH34">
+        <v>1</v>
+      </c>
+      <c r="DI34">
+        <v>1</v>
+      </c>
+      <c r="DJ34">
+        <v>1</v>
+      </c>
+      <c r="DK34">
+        <v>3</v>
+      </c>
+      <c r="DL34">
+        <v>4</v>
+      </c>
+      <c r="DM34">
+        <v>4</v>
+      </c>
+      <c r="DN34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <v>4</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>5</v>
+      </c>
+      <c r="AL35">
+        <v>4</v>
+      </c>
+      <c r="AM35">
+        <v>4</v>
+      </c>
+      <c r="AN35">
+        <v>5</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>5</v>
+      </c>
+      <c r="AT35">
+        <v>4</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <v>2</v>
+      </c>
+      <c r="AZ35">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>1</v>
+      </c>
+      <c r="BC35">
+        <v>2</v>
+      </c>
+      <c r="BD35">
+        <v>5</v>
+      </c>
+      <c r="BE35">
+        <v>5</v>
+      </c>
+      <c r="BF35">
+        <v>5</v>
+      </c>
+      <c r="BG35">
+        <v>5</v>
+      </c>
+      <c r="BH35">
+        <v>2</v>
+      </c>
+      <c r="BI35">
+        <v>4</v>
+      </c>
+      <c r="BJ35">
+        <v>2</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>2</v>
+      </c>
+      <c r="BM35">
+        <v>2</v>
+      </c>
+      <c r="BN35">
+        <v>2</v>
+      </c>
+      <c r="BO35">
+        <v>3</v>
+      </c>
+      <c r="BP35">
+        <v>3</v>
+      </c>
+      <c r="BQ35">
+        <v>3</v>
+      </c>
+      <c r="BR35">
+        <v>4</v>
+      </c>
+      <c r="BS35">
+        <v>4</v>
+      </c>
+      <c r="BT35">
+        <v>4</v>
+      </c>
+      <c r="BU35">
+        <v>4</v>
+      </c>
+      <c r="BV35">
+        <v>1</v>
+      </c>
+      <c r="BW35">
+        <v>2</v>
+      </c>
+      <c r="BX35">
+        <v>2</v>
+      </c>
+      <c r="BY35">
+        <v>2</v>
+      </c>
+      <c r="BZ35">
+        <v>2</v>
+      </c>
+      <c r="CA35">
+        <v>5</v>
+      </c>
+      <c r="CB35">
+        <v>5</v>
+      </c>
+      <c r="CC35">
+        <v>5</v>
+      </c>
+      <c r="CD35">
+        <v>4</v>
+      </c>
+      <c r="CE35">
+        <v>5</v>
+      </c>
+      <c r="CF35">
+        <v>5</v>
+      </c>
+      <c r="CG35">
+        <v>2</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI35">
+        <v>2</v>
+      </c>
+      <c r="CJ35">
+        <v>2</v>
+      </c>
+      <c r="CK35">
+        <v>1</v>
+      </c>
+      <c r="CL35">
+        <v>1</v>
+      </c>
+      <c r="CM35">
+        <v>5</v>
+      </c>
+      <c r="CN35">
+        <v>5</v>
+      </c>
+      <c r="CO35">
+        <v>5</v>
+      </c>
+      <c r="CP35">
+        <v>2</v>
+      </c>
+      <c r="CQ35">
+        <v>3</v>
+      </c>
+      <c r="CR35">
+        <v>2</v>
+      </c>
+      <c r="CS35">
+        <v>2</v>
+      </c>
+      <c r="CT35">
+        <v>3</v>
+      </c>
+      <c r="CU35">
+        <v>4</v>
+      </c>
+      <c r="CV35">
+        <v>5</v>
+      </c>
+      <c r="CW35">
+        <v>4</v>
+      </c>
+      <c r="CX35">
+        <v>4</v>
+      </c>
+      <c r="CY35">
+        <v>4</v>
+      </c>
+      <c r="CZ35">
+        <v>4</v>
+      </c>
+      <c r="DA35">
+        <v>4</v>
+      </c>
+      <c r="DB35">
+        <v>4</v>
+      </c>
+      <c r="DC35">
+        <v>4</v>
+      </c>
+      <c r="DD35">
+        <v>2</v>
+      </c>
+      <c r="DE35">
+        <v>3</v>
+      </c>
+      <c r="DF35">
+        <v>2</v>
+      </c>
+      <c r="DG35">
+        <v>1</v>
+      </c>
+      <c r="DH35">
+        <v>1</v>
+      </c>
+      <c r="DI35">
+        <v>1</v>
+      </c>
+      <c r="DJ35">
+        <v>2</v>
+      </c>
+      <c r="DK35">
+        <v>4</v>
+      </c>
+      <c r="DL35">
+        <v>5</v>
+      </c>
+      <c r="DM35">
+        <v>5</v>
+      </c>
+      <c r="DN35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>4</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>4</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>3</v>
+      </c>
+      <c r="AI36">
+        <v>3</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>3</v>
+      </c>
+      <c r="AL36">
+        <v>5</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>5</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <v>5</v>
+      </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>1</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>2</v>
+      </c>
+      <c r="BD36">
+        <v>5</v>
+      </c>
+      <c r="BE36">
+        <v>5</v>
+      </c>
+      <c r="BF36">
+        <v>5</v>
+      </c>
+      <c r="BG36">
+        <v>5</v>
+      </c>
+      <c r="BH36">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>3</v>
+      </c>
+      <c r="BJ36">
+        <v>3</v>
+      </c>
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
+        <v>3</v>
+      </c>
+      <c r="BM36">
+        <v>3</v>
+      </c>
+      <c r="BN36">
+        <v>2</v>
+      </c>
+      <c r="BO36">
+        <v>2</v>
+      </c>
+      <c r="BP36">
+        <v>3</v>
+      </c>
+      <c r="BQ36">
+        <v>3</v>
+      </c>
+      <c r="BR36">
+        <v>3</v>
+      </c>
+      <c r="BS36">
+        <v>3</v>
+      </c>
+      <c r="BT36">
+        <v>5</v>
+      </c>
+      <c r="BU36">
+        <v>4</v>
+      </c>
+      <c r="BV36">
+        <v>1</v>
+      </c>
+      <c r="BW36">
+        <v>1</v>
+      </c>
+      <c r="BX36">
+        <v>1</v>
+      </c>
+      <c r="BY36">
+        <v>3</v>
+      </c>
+      <c r="BZ36">
+        <v>2</v>
+      </c>
+      <c r="CA36">
+        <v>3</v>
+      </c>
+      <c r="CB36">
+        <v>5</v>
+      </c>
+      <c r="CC36">
+        <v>5</v>
+      </c>
+      <c r="CD36">
+        <v>5</v>
+      </c>
+      <c r="CE36">
+        <v>1</v>
+      </c>
+      <c r="CF36">
+        <v>4</v>
+      </c>
+      <c r="CG36">
+        <v>2</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>1</v>
+      </c>
+      <c r="CJ36">
+        <v>1</v>
+      </c>
+      <c r="CK36">
+        <v>1</v>
+      </c>
+      <c r="CL36">
+        <v>2</v>
+      </c>
+      <c r="CM36">
+        <v>5</v>
+      </c>
+      <c r="CN36">
+        <v>5</v>
+      </c>
+      <c r="CO36">
+        <v>5</v>
+      </c>
+      <c r="CP36">
+        <v>4</v>
+      </c>
+      <c r="CQ36">
+        <v>2</v>
+      </c>
+      <c r="CR36">
+        <v>1</v>
+      </c>
+      <c r="CS36">
+        <v>1</v>
+      </c>
+      <c r="CT36">
+        <v>3</v>
+      </c>
+      <c r="CU36">
+        <v>3</v>
+      </c>
+      <c r="CV36">
+        <v>5</v>
+      </c>
+      <c r="CW36">
+        <v>5</v>
+      </c>
+      <c r="CX36">
+        <v>3</v>
+      </c>
+      <c r="CY36">
+        <v>3</v>
+      </c>
+      <c r="CZ36">
+        <v>2</v>
+      </c>
+      <c r="DA36">
+        <v>3</v>
+      </c>
+      <c r="DB36">
+        <v>2</v>
+      </c>
+      <c r="DC36">
+        <v>5</v>
+      </c>
+      <c r="DD36">
+        <v>4</v>
+      </c>
+      <c r="DE36">
+        <v>4</v>
+      </c>
+      <c r="DF36">
+        <v>4</v>
+      </c>
+      <c r="DG36">
+        <v>1</v>
+      </c>
+      <c r="DH36">
+        <v>1</v>
+      </c>
+      <c r="DI36">
+        <v>1</v>
+      </c>
+      <c r="DJ36">
+        <v>1</v>
+      </c>
+      <c r="DK36">
+        <v>4</v>
+      </c>
+      <c r="DL36">
+        <v>4</v>
+      </c>
+      <c r="DM36">
+        <v>4</v>
+      </c>
+      <c r="DN36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>3</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>5</v>
+      </c>
+      <c r="AL37">
+        <v>5</v>
+      </c>
+      <c r="AM37">
+        <v>3</v>
+      </c>
+      <c r="AN37">
+        <v>4</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>3</v>
+      </c>
+      <c r="AS37">
+        <v>3</v>
+      </c>
+      <c r="AT37">
+        <v>3</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37">
+        <v>2</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>2</v>
+      </c>
+      <c r="BC37">
+        <v>3</v>
+      </c>
+      <c r="BD37">
+        <v>5</v>
+      </c>
+      <c r="BE37">
+        <v>5</v>
+      </c>
+      <c r="BF37">
+        <v>1</v>
+      </c>
+      <c r="BG37">
+        <v>5</v>
+      </c>
+      <c r="BH37">
+        <v>2</v>
+      </c>
+      <c r="BI37">
+        <v>3</v>
+      </c>
+      <c r="BJ37">
+        <v>2</v>
+      </c>
+      <c r="BK37">
+        <v>2</v>
+      </c>
+      <c r="BL37">
+        <v>3</v>
+      </c>
+      <c r="BM37">
+        <v>2</v>
+      </c>
+      <c r="BN37">
+        <v>3</v>
+      </c>
+      <c r="BO37">
+        <v>3</v>
+      </c>
+      <c r="BP37">
+        <v>2</v>
+      </c>
+      <c r="BQ37">
+        <v>4</v>
+      </c>
+      <c r="BR37">
+        <v>3</v>
+      </c>
+      <c r="BS37">
+        <v>2</v>
+      </c>
+      <c r="BT37">
+        <v>3</v>
+      </c>
+      <c r="BU37">
+        <v>4</v>
+      </c>
+      <c r="BV37">
+        <v>2</v>
+      </c>
+      <c r="BW37">
+        <v>2</v>
+      </c>
+      <c r="BX37">
+        <v>3</v>
+      </c>
+      <c r="BY37">
+        <v>3</v>
+      </c>
+      <c r="BZ37">
+        <v>2</v>
+      </c>
+      <c r="CA37">
+        <v>4</v>
+      </c>
+      <c r="CB37">
+        <v>5</v>
+      </c>
+      <c r="CC37">
+        <v>3</v>
+      </c>
+      <c r="CD37">
+        <v>3</v>
+      </c>
+      <c r="CE37">
+        <v>5</v>
+      </c>
+      <c r="CF37">
+        <v>5</v>
+      </c>
+      <c r="CG37">
+        <v>5</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>2</v>
+      </c>
+      <c r="CJ37">
+        <v>4</v>
+      </c>
+      <c r="CK37">
+        <v>1</v>
+      </c>
+      <c r="CL37">
+        <v>1</v>
+      </c>
+      <c r="CM37">
+        <v>5</v>
+      </c>
+      <c r="CN37">
+        <v>5</v>
+      </c>
+      <c r="CO37">
+        <v>5</v>
+      </c>
+      <c r="CP37">
+        <v>5</v>
+      </c>
+      <c r="CQ37">
+        <v>3</v>
+      </c>
+      <c r="CR37">
+        <v>1</v>
+      </c>
+      <c r="CS37">
+        <v>1</v>
+      </c>
+      <c r="CT37">
+        <v>3</v>
+      </c>
+      <c r="CU37">
+        <v>3</v>
+      </c>
+      <c r="CV37">
+        <v>1</v>
+      </c>
+      <c r="CW37">
+        <v>4</v>
+      </c>
+      <c r="CX37">
+        <v>4</v>
+      </c>
+      <c r="CY37">
+        <v>3</v>
+      </c>
+      <c r="CZ37">
+        <v>3</v>
+      </c>
+      <c r="DA37">
+        <v>3</v>
+      </c>
+      <c r="DB37">
+        <v>2</v>
+      </c>
+      <c r="DC37">
+        <v>4</v>
+      </c>
+      <c r="DD37">
+        <v>3</v>
+      </c>
+      <c r="DE37">
+        <v>3</v>
+      </c>
+      <c r="DF37">
+        <v>4</v>
+      </c>
+      <c r="DG37">
+        <v>1</v>
+      </c>
+      <c r="DH37">
+        <v>1</v>
+      </c>
+      <c r="DI37">
+        <v>2</v>
+      </c>
+      <c r="DJ37">
+        <v>1</v>
+      </c>
+      <c r="DK37">
+        <v>4</v>
+      </c>
+      <c r="DL37">
+        <v>4</v>
+      </c>
+      <c r="DM37">
+        <v>4</v>
+      </c>
+      <c r="DN37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>5</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>5</v>
+      </c>
+      <c r="AE38">
+        <v>2</v>
+      </c>
+      <c r="AF38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>5</v>
+      </c>
+      <c r="AL38">
+        <v>5</v>
+      </c>
+      <c r="AM38">
+        <v>4</v>
+      </c>
+      <c r="AN38">
+        <v>5</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
+        <v>3</v>
+      </c>
+      <c r="AT38">
+        <v>3</v>
+      </c>
+      <c r="AU38">
+        <v>5</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+      <c r="AY38">
+        <v>2</v>
+      </c>
+      <c r="AZ38">
+        <v>2</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
+      <c r="BC38">
+        <v>3</v>
+      </c>
+      <c r="BD38">
+        <v>4</v>
+      </c>
+      <c r="BE38">
+        <v>4</v>
+      </c>
+      <c r="BF38">
+        <v>3</v>
+      </c>
+      <c r="BG38">
+        <v>5</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
+        <v>2</v>
+      </c>
+      <c r="BJ38">
+        <v>4</v>
+      </c>
+      <c r="BK38">
+        <v>5</v>
+      </c>
+      <c r="BL38">
+        <v>5</v>
+      </c>
+      <c r="BM38">
+        <v>5</v>
+      </c>
+      <c r="BN38">
+        <v>5</v>
+      </c>
+      <c r="BO38">
+        <v>4</v>
+      </c>
+      <c r="BP38">
+        <v>2</v>
+      </c>
+      <c r="BQ38">
+        <v>2</v>
+      </c>
+      <c r="BR38">
+        <v>2</v>
+      </c>
+      <c r="BS38">
+        <v>2</v>
+      </c>
+      <c r="BT38">
+        <v>1</v>
+      </c>
+      <c r="BU38">
+        <v>4</v>
+      </c>
+      <c r="BV38">
+        <v>1</v>
+      </c>
+      <c r="BW38">
+        <v>4</v>
+      </c>
+      <c r="BX38">
+        <v>4</v>
+      </c>
+      <c r="BY38">
+        <v>1</v>
+      </c>
+      <c r="BZ38">
+        <v>2</v>
+      </c>
+      <c r="CA38">
+        <v>3</v>
+      </c>
+      <c r="CB38">
+        <v>4</v>
+      </c>
+      <c r="CC38">
+        <v>4</v>
+      </c>
+      <c r="CD38">
+        <v>4</v>
+      </c>
+      <c r="CE38">
+        <v>5</v>
+      </c>
+      <c r="CF38">
+        <v>5</v>
+      </c>
+      <c r="CG38">
+        <v>1</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI38">
+        <v>2</v>
+      </c>
+      <c r="CJ38">
+        <v>2</v>
+      </c>
+      <c r="CK38">
+        <v>1</v>
+      </c>
+      <c r="CL38">
+        <v>1</v>
+      </c>
+      <c r="CM38">
+        <v>4</v>
+      </c>
+      <c r="CN38">
+        <v>5</v>
+      </c>
+      <c r="CO38">
+        <v>5</v>
+      </c>
+      <c r="CP38">
+        <v>4</v>
+      </c>
+      <c r="CQ38">
+        <v>4</v>
+      </c>
+      <c r="CR38">
+        <v>1</v>
+      </c>
+      <c r="CS38">
+        <v>1</v>
+      </c>
+      <c r="CT38">
+        <v>4</v>
+      </c>
+      <c r="CU38">
+        <v>3</v>
+      </c>
+      <c r="CV38">
+        <v>5</v>
+      </c>
+      <c r="CW38">
+        <v>5</v>
+      </c>
+      <c r="CX38">
+        <v>3</v>
+      </c>
+      <c r="CY38">
+        <v>4</v>
+      </c>
+      <c r="CZ38">
+        <v>3</v>
+      </c>
+      <c r="DA38">
+        <v>5</v>
+      </c>
+      <c r="DB38">
+        <v>5</v>
+      </c>
+      <c r="DC38">
+        <v>2</v>
+      </c>
+      <c r="DD38">
+        <v>4</v>
+      </c>
+      <c r="DE38">
+        <v>3</v>
+      </c>
+      <c r="DF38">
+        <v>4</v>
+      </c>
+      <c r="DG38">
+        <v>1</v>
+      </c>
+      <c r="DH38">
+        <v>1</v>
+      </c>
+      <c r="DI38">
+        <v>1</v>
+      </c>
+      <c r="DJ38">
+        <v>1</v>
+      </c>
+      <c r="DK38">
+        <v>4</v>
+      </c>
+      <c r="DL38">
+        <v>5</v>
+      </c>
+      <c r="DM38">
+        <v>5</v>
+      </c>
+      <c r="DN38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <v>4</v>
+      </c>
+      <c r="AE39">
+        <v>4</v>
+      </c>
+      <c r="AF39">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>5</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>5</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>1</v>
+      </c>
+      <c r="BD39">
+        <v>4</v>
+      </c>
+      <c r="BE39">
+        <v>4</v>
+      </c>
+      <c r="BF39">
+        <v>3</v>
+      </c>
+      <c r="BG39">
+        <v>4</v>
+      </c>
+      <c r="BH39">
+        <v>2</v>
+      </c>
+      <c r="BI39">
+        <v>1</v>
+      </c>
+      <c r="BJ39">
+        <v>1</v>
+      </c>
+      <c r="BK39">
+        <v>1</v>
+      </c>
+      <c r="BL39">
+        <v>1</v>
+      </c>
+      <c r="BM39">
+        <v>2</v>
+      </c>
+      <c r="BN39">
+        <v>2</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>2</v>
+      </c>
+      <c r="BQ39">
+        <v>2</v>
+      </c>
+      <c r="BR39">
+        <v>2</v>
+      </c>
+      <c r="BS39">
+        <v>1</v>
+      </c>
+      <c r="BT39">
+        <v>4</v>
+      </c>
+      <c r="BU39">
+        <v>2</v>
+      </c>
+      <c r="BV39">
+        <v>1</v>
+      </c>
+      <c r="BW39">
+        <v>2</v>
+      </c>
+      <c r="BX39">
+        <v>1</v>
+      </c>
+      <c r="BY39">
+        <v>2</v>
+      </c>
+      <c r="BZ39">
+        <v>2</v>
+      </c>
+      <c r="CA39">
+        <v>2</v>
+      </c>
+      <c r="CB39">
+        <v>4</v>
+      </c>
+      <c r="CC39">
+        <v>4</v>
+      </c>
+      <c r="CD39">
+        <v>3</v>
+      </c>
+      <c r="CE39">
+        <v>4</v>
+      </c>
+      <c r="CF39">
+        <v>4</v>
+      </c>
+      <c r="CG39">
+        <v>4</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>4</v>
+      </c>
+      <c r="CJ39">
+        <v>2</v>
+      </c>
+      <c r="CK39">
+        <v>1</v>
+      </c>
+      <c r="CL39">
+        <v>1</v>
+      </c>
+      <c r="CM39">
+        <v>2</v>
+      </c>
+      <c r="CN39">
+        <v>4</v>
+      </c>
+      <c r="CO39">
+        <v>4</v>
+      </c>
+      <c r="CP39">
+        <v>4</v>
+      </c>
+      <c r="CQ39">
+        <v>1</v>
+      </c>
+      <c r="CR39">
+        <v>1</v>
+      </c>
+      <c r="CS39">
+        <v>1</v>
+      </c>
+      <c r="CT39">
+        <v>3</v>
+      </c>
+      <c r="CU39">
+        <v>2</v>
+      </c>
+      <c r="CV39">
+        <v>4</v>
+      </c>
+      <c r="CW39">
+        <v>4</v>
+      </c>
+      <c r="CX39">
+        <v>2</v>
+      </c>
+      <c r="CY39">
+        <v>1</v>
+      </c>
+      <c r="CZ39">
+        <v>1</v>
+      </c>
+      <c r="DA39">
+        <v>1</v>
+      </c>
+      <c r="DB39">
+        <v>1</v>
+      </c>
+      <c r="DC39">
+        <v>4</v>
+      </c>
+      <c r="DD39">
+        <v>4</v>
+      </c>
+      <c r="DE39">
+        <v>4</v>
+      </c>
+      <c r="DF39">
+        <v>4</v>
+      </c>
+      <c r="DG39">
+        <v>1</v>
+      </c>
+      <c r="DH39">
+        <v>2</v>
+      </c>
+      <c r="DI39">
+        <v>1</v>
+      </c>
+      <c r="DJ39">
+        <v>1</v>
+      </c>
+      <c r="DK39">
+        <v>4</v>
+      </c>
+      <c r="DL39">
+        <v>4</v>
+      </c>
+      <c r="DM39">
+        <v>4</v>
+      </c>
+      <c r="DN39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>4</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>5</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1</v>
+      </c>
+      <c r="AS40">
+        <v>5</v>
+      </c>
+      <c r="AT40">
+        <v>2</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40">
+        <v>1</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
+        <v>3</v>
+      </c>
+      <c r="BD40">
+        <v>5</v>
+      </c>
+      <c r="BE40">
+        <v>5</v>
+      </c>
+      <c r="BF40">
+        <v>5</v>
+      </c>
+      <c r="BG40">
+        <v>5</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>4</v>
+      </c>
+      <c r="BJ40">
+        <v>2</v>
+      </c>
+      <c r="BK40">
+        <v>2</v>
+      </c>
+      <c r="BL40">
+        <v>2</v>
+      </c>
+      <c r="BM40">
+        <v>2</v>
+      </c>
+      <c r="BN40">
+        <v>3</v>
+      </c>
+      <c r="BO40">
+        <v>2</v>
+      </c>
+      <c r="BP40">
+        <v>4</v>
+      </c>
+      <c r="BQ40">
+        <v>3</v>
+      </c>
+      <c r="BR40">
+        <v>4</v>
+      </c>
+      <c r="BS40">
+        <v>4</v>
+      </c>
+      <c r="BT40">
+        <v>3</v>
+      </c>
+      <c r="BU40">
+        <v>4</v>
+      </c>
+      <c r="BV40">
+        <v>1</v>
+      </c>
+      <c r="BW40">
+        <v>3</v>
+      </c>
+      <c r="BX40">
+        <v>2</v>
+      </c>
+      <c r="BY40">
+        <v>2</v>
+      </c>
+      <c r="BZ40">
+        <v>2</v>
+      </c>
+      <c r="CA40">
+        <v>2</v>
+      </c>
+      <c r="CB40">
+        <v>5</v>
+      </c>
+      <c r="CC40">
+        <v>4</v>
+      </c>
+      <c r="CD40">
+        <v>4</v>
+      </c>
+      <c r="CE40">
+        <v>4</v>
+      </c>
+      <c r="CF40">
+        <v>4</v>
+      </c>
+      <c r="CG40">
+        <v>2</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>1</v>
+      </c>
+      <c r="CJ40">
+        <v>2</v>
+      </c>
+      <c r="CK40">
+        <v>1</v>
+      </c>
+      <c r="CL40">
+        <v>1</v>
+      </c>
+      <c r="CM40">
+        <v>4</v>
+      </c>
+      <c r="CN40">
+        <v>5</v>
+      </c>
+      <c r="CO40">
+        <v>5</v>
+      </c>
+      <c r="CP40">
+        <v>4</v>
+      </c>
+      <c r="CQ40">
+        <v>3</v>
+      </c>
+      <c r="CR40">
+        <v>1</v>
+      </c>
+      <c r="CS40">
+        <v>1</v>
+      </c>
+      <c r="CT40">
+        <v>3</v>
+      </c>
+      <c r="CU40">
+        <v>4</v>
+      </c>
+      <c r="CV40">
+        <v>4</v>
+      </c>
+      <c r="CW40">
+        <v>4</v>
+      </c>
+      <c r="CX40">
+        <v>4</v>
+      </c>
+      <c r="CY40">
+        <v>2</v>
+      </c>
+      <c r="CZ40">
+        <v>2</v>
+      </c>
+      <c r="DA40">
+        <v>2</v>
+      </c>
+      <c r="DB40">
+        <v>2</v>
+      </c>
+      <c r="DC40">
+        <v>5</v>
+      </c>
+      <c r="DD40">
+        <v>4</v>
+      </c>
+      <c r="DE40">
+        <v>4</v>
+      </c>
+      <c r="DF40">
+        <v>4</v>
+      </c>
+      <c r="DG40">
+        <v>1</v>
+      </c>
+      <c r="DH40">
+        <v>1</v>
+      </c>
+      <c r="DI40">
+        <v>1</v>
+      </c>
+      <c r="DJ40">
+        <v>1</v>
+      </c>
+      <c r="DK40">
+        <v>4</v>
+      </c>
+      <c r="DL40">
+        <v>4</v>
+      </c>
+      <c r="DM40">
+        <v>4</v>
+      </c>
+      <c r="DN40">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO40"/>
+  <dimension ref="A1:DN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:DO40"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="DO6" sqref="DO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,7 +370,7 @@
     <col min="87" max="118" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2505,11 +2505,8 @@
       <c r="DN6">
         <v>3</v>
       </c>
-      <c r="DO6">
-        <v>4</v>
-      </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3221,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4645,7 +4642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5357,7 +5354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -10789,79 +10786,79 @@
         <v>2</v>
       </c>
       <c r="AE30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG30">
         <v>1</v>
       </c>
       <c r="AH30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM30">
         <v>4</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU30">
         <v>4</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30" t="s">
         <v>0</v>
       </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
       <c r="AX30">
         <v>1</v>
       </c>
       <c r="AY30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
         <v>2</v>
       </c>
       <c r="BA30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD30">
         <v>5</v>
@@ -10870,16 +10867,16 @@
         <v>5</v>
       </c>
       <c r="BF30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG30">
         <v>3</v>
       </c>
       <c r="BH30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ30">
         <v>3</v>
@@ -10888,19 +10885,19 @@
         <v>3</v>
       </c>
       <c r="BL30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN30">
         <v>3</v>
       </c>
       <c r="BO30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ30">
         <v>4</v>
@@ -10909,13 +10906,13 @@
         <v>4</v>
       </c>
       <c r="BS30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV30">
         <v>1</v>
@@ -10924,22 +10921,22 @@
         <v>1</v>
       </c>
       <c r="BX30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY30">
         <v>2</v>
       </c>
       <c r="BZ30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD30">
         <v>4</v>
@@ -10948,49 +10945,49 @@
         <v>4</v>
       </c>
       <c r="CF30">
-        <v>5</v>
-      </c>
-      <c r="CG30" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG30">
+        <v>5</v>
+      </c>
+      <c r="CH30" t="s">
         <v>0</v>
       </c>
-      <c r="CH30">
-        <v>3</v>
-      </c>
       <c r="CI30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK30">
         <v>2</v>
       </c>
       <c r="CL30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN30">
         <v>5</v>
       </c>
       <c r="CO30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CP30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CQ30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR30">
         <v>1</v>
       </c>
       <c r="CS30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU30">
         <v>5</v>
@@ -10999,34 +10996,34 @@
         <v>5</v>
       </c>
       <c r="CW30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CX30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY30">
         <v>4</v>
       </c>
       <c r="CZ30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DA30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DC30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DD30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DE30">
         <v>5</v>
       </c>
       <c r="DF30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DG30">
         <v>2</v>
@@ -11035,18 +11032,21 @@
         <v>2</v>
       </c>
       <c r="DI30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DK30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DL30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DM30">
+        <v>4</v>
+      </c>
+      <c r="DN30">
         <v>4</v>
       </c>
     </row>
@@ -14608,6 +14608,2142 @@
       </c>
       <c r="DN40">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>5</v>
+      </c>
+      <c r="AD41">
+        <v>5</v>
+      </c>
+      <c r="AE41">
+        <v>5</v>
+      </c>
+      <c r="AF41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>2</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>5</v>
+      </c>
+      <c r="AM41">
+        <v>3</v>
+      </c>
+      <c r="AN41">
+        <v>5</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>5</v>
+      </c>
+      <c r="AT41">
+        <v>5</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+      <c r="BC41">
+        <v>2</v>
+      </c>
+      <c r="BD41">
+        <v>5</v>
+      </c>
+      <c r="BE41">
+        <v>5</v>
+      </c>
+      <c r="BF41">
+        <v>5</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>3</v>
+      </c>
+      <c r="BI41">
+        <v>3</v>
+      </c>
+      <c r="BJ41">
+        <v>2</v>
+      </c>
+      <c r="BK41">
+        <v>3</v>
+      </c>
+      <c r="BL41">
+        <v>1</v>
+      </c>
+      <c r="BM41">
+        <v>3</v>
+      </c>
+      <c r="BN41">
+        <v>2</v>
+      </c>
+      <c r="BO41">
+        <v>2</v>
+      </c>
+      <c r="BP41">
+        <v>3</v>
+      </c>
+      <c r="BQ41">
+        <v>2</v>
+      </c>
+      <c r="BR41">
+        <v>4</v>
+      </c>
+      <c r="BS41">
+        <v>4</v>
+      </c>
+      <c r="BT41">
+        <v>4</v>
+      </c>
+      <c r="BU41">
+        <v>4</v>
+      </c>
+      <c r="BV41">
+        <v>1</v>
+      </c>
+      <c r="BW41">
+        <v>1</v>
+      </c>
+      <c r="BX41">
+        <v>1</v>
+      </c>
+      <c r="BY41">
+        <v>1</v>
+      </c>
+      <c r="BZ41">
+        <v>1</v>
+      </c>
+      <c r="CA41">
+        <v>4</v>
+      </c>
+      <c r="CB41">
+        <v>4</v>
+      </c>
+      <c r="CC41">
+        <v>4</v>
+      </c>
+      <c r="CD41">
+        <v>4</v>
+      </c>
+      <c r="CE41">
+        <v>4</v>
+      </c>
+      <c r="CF41">
+        <v>4</v>
+      </c>
+      <c r="CG41">
+        <v>2</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI41">
+        <v>1</v>
+      </c>
+      <c r="CJ41">
+        <v>2</v>
+      </c>
+      <c r="CK41">
+        <v>1</v>
+      </c>
+      <c r="CL41">
+        <v>1</v>
+      </c>
+      <c r="CM41">
+        <v>4</v>
+      </c>
+      <c r="CN41">
+        <v>4</v>
+      </c>
+      <c r="CO41">
+        <v>4</v>
+      </c>
+      <c r="CP41">
+        <v>3</v>
+      </c>
+      <c r="CQ41">
+        <v>1</v>
+      </c>
+      <c r="CR41">
+        <v>1</v>
+      </c>
+      <c r="CS41">
+        <v>1</v>
+      </c>
+      <c r="CT41">
+        <v>1</v>
+      </c>
+      <c r="CU41">
+        <v>4</v>
+      </c>
+      <c r="CV41">
+        <v>4</v>
+      </c>
+      <c r="CW41">
+        <v>4</v>
+      </c>
+      <c r="CX41">
+        <v>3</v>
+      </c>
+      <c r="CY41">
+        <v>3</v>
+      </c>
+      <c r="CZ41">
+        <v>3</v>
+      </c>
+      <c r="DA41">
+        <v>1</v>
+      </c>
+      <c r="DB41">
+        <v>1</v>
+      </c>
+      <c r="DC41">
+        <v>3</v>
+      </c>
+      <c r="DD41">
+        <v>3</v>
+      </c>
+      <c r="DE41">
+        <v>4</v>
+      </c>
+      <c r="DF41">
+        <v>4</v>
+      </c>
+      <c r="DG41">
+        <v>1</v>
+      </c>
+      <c r="DH41">
+        <v>1</v>
+      </c>
+      <c r="DI41">
+        <v>1</v>
+      </c>
+      <c r="DJ41">
+        <v>1</v>
+      </c>
+      <c r="DK41">
+        <v>4</v>
+      </c>
+      <c r="DL41">
+        <v>4</v>
+      </c>
+      <c r="DM41">
+        <v>4</v>
+      </c>
+      <c r="DN41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>4</v>
+      </c>
+      <c r="AE42">
+        <v>3</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>5</v>
+      </c>
+      <c r="AL42">
+        <v>5</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>5</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>5</v>
+      </c>
+      <c r="AT42">
+        <v>4</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42">
+        <v>1</v>
+      </c>
+      <c r="BA42">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>2</v>
+      </c>
+      <c r="BD42">
+        <v>5</v>
+      </c>
+      <c r="BE42">
+        <v>5</v>
+      </c>
+      <c r="BF42">
+        <v>4</v>
+      </c>
+      <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>2</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>2</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+      <c r="BL42">
+        <v>2</v>
+      </c>
+      <c r="BM42">
+        <v>2</v>
+      </c>
+      <c r="BN42">
+        <v>2</v>
+      </c>
+      <c r="BO42">
+        <v>1</v>
+      </c>
+      <c r="BP42">
+        <v>2</v>
+      </c>
+      <c r="BQ42">
+        <v>5</v>
+      </c>
+      <c r="BR42">
+        <v>4</v>
+      </c>
+      <c r="BS42">
+        <v>2</v>
+      </c>
+      <c r="BT42">
+        <v>4</v>
+      </c>
+      <c r="BU42">
+        <v>4</v>
+      </c>
+      <c r="BV42">
+        <v>2</v>
+      </c>
+      <c r="BW42">
+        <v>1</v>
+      </c>
+      <c r="BX42">
+        <v>2</v>
+      </c>
+      <c r="BY42">
+        <v>2</v>
+      </c>
+      <c r="BZ42">
+        <v>2</v>
+      </c>
+      <c r="CA42">
+        <v>3</v>
+      </c>
+      <c r="CB42">
+        <v>5</v>
+      </c>
+      <c r="CC42">
+        <v>4</v>
+      </c>
+      <c r="CD42">
+        <v>4</v>
+      </c>
+      <c r="CE42">
+        <v>5</v>
+      </c>
+      <c r="CF42">
+        <v>5</v>
+      </c>
+      <c r="CG42">
+        <v>4</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI42">
+        <v>1</v>
+      </c>
+      <c r="CJ42">
+        <v>1</v>
+      </c>
+      <c r="CK42">
+        <v>1</v>
+      </c>
+      <c r="CL42">
+        <v>2</v>
+      </c>
+      <c r="CM42">
+        <v>4</v>
+      </c>
+      <c r="CN42">
+        <v>5</v>
+      </c>
+      <c r="CO42">
+        <v>5</v>
+      </c>
+      <c r="CP42">
+        <v>4</v>
+      </c>
+      <c r="CQ42">
+        <v>2</v>
+      </c>
+      <c r="CR42">
+        <v>1</v>
+      </c>
+      <c r="CS42">
+        <v>1</v>
+      </c>
+      <c r="CT42">
+        <v>3</v>
+      </c>
+      <c r="CU42">
+        <v>4</v>
+      </c>
+      <c r="CV42">
+        <v>5</v>
+      </c>
+      <c r="CW42">
+        <v>4</v>
+      </c>
+      <c r="CX42">
+        <v>4</v>
+      </c>
+      <c r="CY42">
+        <v>2</v>
+      </c>
+      <c r="CZ42">
+        <v>3</v>
+      </c>
+      <c r="DA42">
+        <v>2</v>
+      </c>
+      <c r="DB42">
+        <v>2</v>
+      </c>
+      <c r="DC42">
+        <v>4</v>
+      </c>
+      <c r="DD42">
+        <v>3</v>
+      </c>
+      <c r="DE42">
+        <v>4</v>
+      </c>
+      <c r="DF42">
+        <v>4</v>
+      </c>
+      <c r="DG42">
+        <v>1</v>
+      </c>
+      <c r="DH42">
+        <v>1</v>
+      </c>
+      <c r="DI42">
+        <v>2</v>
+      </c>
+      <c r="DJ42">
+        <v>1</v>
+      </c>
+      <c r="DK42">
+        <v>4</v>
+      </c>
+      <c r="DL42">
+        <v>5</v>
+      </c>
+      <c r="DM42">
+        <v>4</v>
+      </c>
+      <c r="DN42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <v>4</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>5</v>
+      </c>
+      <c r="AL43">
+        <v>5</v>
+      </c>
+      <c r="AM43">
+        <v>3</v>
+      </c>
+      <c r="AN43">
+        <v>5</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>4</v>
+      </c>
+      <c r="AT43">
+        <v>4</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43">
+        <v>1</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>1</v>
+      </c>
+      <c r="BC43">
+        <v>3</v>
+      </c>
+      <c r="BD43">
+        <v>5</v>
+      </c>
+      <c r="BE43">
+        <v>5</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
+        <v>2</v>
+      </c>
+      <c r="BK43">
+        <v>3</v>
+      </c>
+      <c r="BL43">
+        <v>3</v>
+      </c>
+      <c r="BM43">
+        <v>2</v>
+      </c>
+      <c r="BN43">
+        <v>3</v>
+      </c>
+      <c r="BO43">
+        <v>3</v>
+      </c>
+      <c r="BP43">
+        <v>2</v>
+      </c>
+      <c r="BQ43">
+        <v>4</v>
+      </c>
+      <c r="BR43">
+        <v>4</v>
+      </c>
+      <c r="BS43">
+        <v>4</v>
+      </c>
+      <c r="BT43">
+        <v>4</v>
+      </c>
+      <c r="BU43">
+        <v>4</v>
+      </c>
+      <c r="BV43">
+        <v>2</v>
+      </c>
+      <c r="BW43">
+        <v>2</v>
+      </c>
+      <c r="BX43">
+        <v>3</v>
+      </c>
+      <c r="BY43">
+        <v>2</v>
+      </c>
+      <c r="BZ43">
+        <v>2</v>
+      </c>
+      <c r="CA43">
+        <v>4</v>
+      </c>
+      <c r="CB43">
+        <v>4</v>
+      </c>
+      <c r="CC43">
+        <v>4</v>
+      </c>
+      <c r="CD43">
+        <v>4</v>
+      </c>
+      <c r="CE43">
+        <v>4</v>
+      </c>
+      <c r="CF43">
+        <v>4</v>
+      </c>
+      <c r="CG43">
+        <v>2</v>
+      </c>
+      <c r="CH43" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI43">
+        <v>2</v>
+      </c>
+      <c r="CJ43">
+        <v>2</v>
+      </c>
+      <c r="CK43">
+        <v>2</v>
+      </c>
+      <c r="CL43">
+        <v>2</v>
+      </c>
+      <c r="CM43">
+        <v>4</v>
+      </c>
+      <c r="CN43">
+        <v>4</v>
+      </c>
+      <c r="CO43">
+        <v>5</v>
+      </c>
+      <c r="CP43">
+        <v>4</v>
+      </c>
+      <c r="CQ43">
+        <v>2</v>
+      </c>
+      <c r="CR43">
+        <v>2</v>
+      </c>
+      <c r="CS43">
+        <v>2</v>
+      </c>
+      <c r="CT43">
+        <v>2</v>
+      </c>
+      <c r="CU43">
+        <v>4</v>
+      </c>
+      <c r="CV43">
+        <v>5</v>
+      </c>
+      <c r="CW43">
+        <v>5</v>
+      </c>
+      <c r="CX43">
+        <v>4</v>
+      </c>
+      <c r="CY43">
+        <v>2</v>
+      </c>
+      <c r="CZ43">
+        <v>3</v>
+      </c>
+      <c r="DA43">
+        <v>2</v>
+      </c>
+      <c r="DB43">
+        <v>2</v>
+      </c>
+      <c r="DC43">
+        <v>4</v>
+      </c>
+      <c r="DD43">
+        <v>3</v>
+      </c>
+      <c r="DE43">
+        <v>4</v>
+      </c>
+      <c r="DF43">
+        <v>4</v>
+      </c>
+      <c r="DG43">
+        <v>1</v>
+      </c>
+      <c r="DH43">
+        <v>1</v>
+      </c>
+      <c r="DI43">
+        <v>2</v>
+      </c>
+      <c r="DJ43">
+        <v>1</v>
+      </c>
+      <c r="DK43">
+        <v>4</v>
+      </c>
+      <c r="DL43">
+        <v>5</v>
+      </c>
+      <c r="DM43">
+        <v>4</v>
+      </c>
+      <c r="DN43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>4</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>4</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AF44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>2</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>5</v>
+      </c>
+      <c r="AL44">
+        <v>5</v>
+      </c>
+      <c r="AM44">
+        <v>2</v>
+      </c>
+      <c r="AN44">
+        <v>5</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <v>2</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44">
+        <v>1</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>3</v>
+      </c>
+      <c r="BD44">
+        <v>4</v>
+      </c>
+      <c r="BE44">
+        <v>4</v>
+      </c>
+      <c r="BF44">
+        <v>1</v>
+      </c>
+      <c r="BG44">
+        <v>4</v>
+      </c>
+      <c r="BH44">
+        <v>2</v>
+      </c>
+      <c r="BI44">
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <v>2</v>
+      </c>
+      <c r="BK44">
+        <v>2</v>
+      </c>
+      <c r="BL44">
+        <v>2</v>
+      </c>
+      <c r="BM44">
+        <v>1</v>
+      </c>
+      <c r="BN44">
+        <v>2</v>
+      </c>
+      <c r="BO44">
+        <v>2</v>
+      </c>
+      <c r="BP44">
+        <v>4</v>
+      </c>
+      <c r="BQ44">
+        <v>5</v>
+      </c>
+      <c r="BR44">
+        <v>4</v>
+      </c>
+      <c r="BS44">
+        <v>5</v>
+      </c>
+      <c r="BT44">
+        <v>5</v>
+      </c>
+      <c r="BU44">
+        <v>4</v>
+      </c>
+      <c r="BV44">
+        <v>1</v>
+      </c>
+      <c r="BW44">
+        <v>1</v>
+      </c>
+      <c r="BX44">
+        <v>1</v>
+      </c>
+      <c r="BY44">
+        <v>3</v>
+      </c>
+      <c r="BZ44">
+        <v>2</v>
+      </c>
+      <c r="CA44">
+        <v>5</v>
+      </c>
+      <c r="CB44">
+        <v>5</v>
+      </c>
+      <c r="CC44">
+        <v>2</v>
+      </c>
+      <c r="CD44">
+        <v>3</v>
+      </c>
+      <c r="CE44">
+        <v>3</v>
+      </c>
+      <c r="CF44">
+        <v>4</v>
+      </c>
+      <c r="CG44">
+        <v>1</v>
+      </c>
+      <c r="CH44" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI44">
+        <v>1</v>
+      </c>
+      <c r="CJ44">
+        <v>1</v>
+      </c>
+      <c r="CK44">
+        <v>1</v>
+      </c>
+      <c r="CL44">
+        <v>1</v>
+      </c>
+      <c r="CM44">
+        <v>5</v>
+      </c>
+      <c r="CN44">
+        <v>5</v>
+      </c>
+      <c r="CO44">
+        <v>5</v>
+      </c>
+      <c r="CP44">
+        <v>2</v>
+      </c>
+      <c r="CQ44">
+        <v>1</v>
+      </c>
+      <c r="CR44">
+        <v>1</v>
+      </c>
+      <c r="CS44">
+        <v>1</v>
+      </c>
+      <c r="CT44">
+        <v>1</v>
+      </c>
+      <c r="CU44">
+        <v>3</v>
+      </c>
+      <c r="CV44">
+        <v>3</v>
+      </c>
+      <c r="CW44">
+        <v>5</v>
+      </c>
+      <c r="CX44">
+        <v>3</v>
+      </c>
+      <c r="CY44">
+        <v>2</v>
+      </c>
+      <c r="CZ44">
+        <v>2</v>
+      </c>
+      <c r="DA44">
+        <v>2</v>
+      </c>
+      <c r="DB44">
+        <v>2</v>
+      </c>
+      <c r="DC44">
+        <v>4</v>
+      </c>
+      <c r="DD44">
+        <v>3</v>
+      </c>
+      <c r="DE44">
+        <v>4</v>
+      </c>
+      <c r="DF44">
+        <v>4</v>
+      </c>
+      <c r="DG44">
+        <v>1</v>
+      </c>
+      <c r="DH44">
+        <v>1</v>
+      </c>
+      <c r="DI44">
+        <v>2</v>
+      </c>
+      <c r="DJ44">
+        <v>1</v>
+      </c>
+      <c r="DK44">
+        <v>4</v>
+      </c>
+      <c r="DL44">
+        <v>5</v>
+      </c>
+      <c r="DM44">
+        <v>4</v>
+      </c>
+      <c r="DN44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>4</v>
+      </c>
+      <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AD45">
+        <v>4</v>
+      </c>
+      <c r="AE45">
+        <v>4</v>
+      </c>
+      <c r="AF45">
+        <v>4</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>2</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>5</v>
+      </c>
+      <c r="AL45">
+        <v>5</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+      <c r="AN45">
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>4</v>
+      </c>
+      <c r="AT45">
+        <v>4</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>1</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <v>3</v>
+      </c>
+      <c r="BD45">
+        <v>4</v>
+      </c>
+      <c r="BE45">
+        <v>4</v>
+      </c>
+      <c r="BF45">
+        <v>4</v>
+      </c>
+      <c r="BG45">
+        <v>4</v>
+      </c>
+      <c r="BH45">
+        <v>4</v>
+      </c>
+      <c r="BI45">
+        <v>4</v>
+      </c>
+      <c r="BJ45">
+        <v>2</v>
+      </c>
+      <c r="BK45">
+        <v>2</v>
+      </c>
+      <c r="BL45">
+        <v>2</v>
+      </c>
+      <c r="BM45">
+        <v>2</v>
+      </c>
+      <c r="BN45">
+        <v>3</v>
+      </c>
+      <c r="BO45">
+        <v>2</v>
+      </c>
+      <c r="BP45">
+        <v>4</v>
+      </c>
+      <c r="BQ45">
+        <v>4</v>
+      </c>
+      <c r="BR45">
+        <v>4</v>
+      </c>
+      <c r="BS45">
+        <v>3</v>
+      </c>
+      <c r="BT45">
+        <v>4</v>
+      </c>
+      <c r="BU45">
+        <v>4</v>
+      </c>
+      <c r="BV45">
+        <v>1</v>
+      </c>
+      <c r="BW45">
+        <v>2</v>
+      </c>
+      <c r="BX45">
+        <v>2</v>
+      </c>
+      <c r="BY45">
+        <v>2</v>
+      </c>
+      <c r="BZ45">
+        <v>2</v>
+      </c>
+      <c r="CA45">
+        <v>1</v>
+      </c>
+      <c r="CB45">
+        <v>4</v>
+      </c>
+      <c r="CC45">
+        <v>4</v>
+      </c>
+      <c r="CD45">
+        <v>4</v>
+      </c>
+      <c r="CE45">
+        <v>4</v>
+      </c>
+      <c r="CF45">
+        <v>4</v>
+      </c>
+      <c r="CG45">
+        <v>4</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI45">
+        <v>2</v>
+      </c>
+      <c r="CJ45">
+        <v>2</v>
+      </c>
+      <c r="CK45">
+        <v>2</v>
+      </c>
+      <c r="CL45">
+        <v>2</v>
+      </c>
+      <c r="CM45">
+        <v>4</v>
+      </c>
+      <c r="CN45">
+        <v>5</v>
+      </c>
+      <c r="CO45">
+        <v>5</v>
+      </c>
+      <c r="CP45">
+        <v>5</v>
+      </c>
+      <c r="CQ45">
+        <v>2</v>
+      </c>
+      <c r="CR45">
+        <v>1</v>
+      </c>
+      <c r="CS45">
+        <v>1</v>
+      </c>
+      <c r="CT45">
+        <v>3</v>
+      </c>
+      <c r="CU45">
+        <v>4</v>
+      </c>
+      <c r="CV45">
+        <v>4</v>
+      </c>
+      <c r="CW45">
+        <v>5</v>
+      </c>
+      <c r="CX45">
+        <v>4</v>
+      </c>
+      <c r="CY45">
+        <v>3</v>
+      </c>
+      <c r="CZ45">
+        <v>3</v>
+      </c>
+      <c r="DA45">
+        <v>3</v>
+      </c>
+      <c r="DB45">
+        <v>2</v>
+      </c>
+      <c r="DC45">
+        <v>4</v>
+      </c>
+      <c r="DD45">
+        <v>4</v>
+      </c>
+      <c r="DE45">
+        <v>4</v>
+      </c>
+      <c r="DF45">
+        <v>4</v>
+      </c>
+      <c r="DG45">
+        <v>1</v>
+      </c>
+      <c r="DH45">
+        <v>2</v>
+      </c>
+      <c r="DI45">
+        <v>2</v>
+      </c>
+      <c r="DJ45">
+        <v>1</v>
+      </c>
+      <c r="DK45">
+        <v>4</v>
+      </c>
+      <c r="DL45">
+        <v>5</v>
+      </c>
+      <c r="DM45">
+        <v>5</v>
+      </c>
+      <c r="DN45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>5</v>
+      </c>
+      <c r="AE46">
+        <v>3</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>5</v>
+      </c>
+      <c r="AL46">
+        <v>5</v>
+      </c>
+      <c r="AM46">
+        <v>3</v>
+      </c>
+      <c r="AN46">
+        <v>5</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>5</v>
+      </c>
+      <c r="AT46">
+        <v>5</v>
+      </c>
+      <c r="AU46">
+        <v>5</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>5</v>
+      </c>
+      <c r="BE46">
+        <v>5</v>
+      </c>
+      <c r="BF46">
+        <v>5</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>2</v>
+      </c>
+      <c r="BI46">
+        <v>4</v>
+      </c>
+      <c r="BJ46">
+        <v>1</v>
+      </c>
+      <c r="BK46">
+        <v>1</v>
+      </c>
+      <c r="BL46">
+        <v>1</v>
+      </c>
+      <c r="BM46">
+        <v>1</v>
+      </c>
+      <c r="BN46">
+        <v>1</v>
+      </c>
+      <c r="BO46">
+        <v>1</v>
+      </c>
+      <c r="BP46">
+        <v>4</v>
+      </c>
+      <c r="BQ46">
+        <v>5</v>
+      </c>
+      <c r="BR46">
+        <v>4</v>
+      </c>
+      <c r="BS46">
+        <v>5</v>
+      </c>
+      <c r="BT46">
+        <v>5</v>
+      </c>
+      <c r="BU46">
+        <v>5</v>
+      </c>
+      <c r="BV46">
+        <v>1</v>
+      </c>
+      <c r="BW46">
+        <v>1</v>
+      </c>
+      <c r="BX46">
+        <v>1</v>
+      </c>
+      <c r="BY46">
+        <v>1</v>
+      </c>
+      <c r="BZ46">
+        <v>1</v>
+      </c>
+      <c r="CA46">
+        <v>1</v>
+      </c>
+      <c r="CB46">
+        <v>5</v>
+      </c>
+      <c r="CC46">
+        <v>5</v>
+      </c>
+      <c r="CD46">
+        <v>5</v>
+      </c>
+      <c r="CE46">
+        <v>5</v>
+      </c>
+      <c r="CF46">
+        <v>5</v>
+      </c>
+      <c r="CG46">
+        <v>5</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>1</v>
+      </c>
+      <c r="CJ46">
+        <v>1</v>
+      </c>
+      <c r="CK46">
+        <v>1</v>
+      </c>
+      <c r="CL46">
+        <v>1</v>
+      </c>
+      <c r="CM46">
+        <v>4</v>
+      </c>
+      <c r="CN46">
+        <v>5</v>
+      </c>
+      <c r="CO46">
+        <v>5</v>
+      </c>
+      <c r="CP46">
+        <v>3</v>
+      </c>
+      <c r="CQ46">
+        <v>1</v>
+      </c>
+      <c r="CR46">
+        <v>1</v>
+      </c>
+      <c r="CS46">
+        <v>1</v>
+      </c>
+      <c r="CT46">
+        <v>1</v>
+      </c>
+      <c r="CU46">
+        <v>5</v>
+      </c>
+      <c r="CV46">
+        <v>5</v>
+      </c>
+      <c r="CW46">
+        <v>5</v>
+      </c>
+      <c r="CX46">
+        <v>4</v>
+      </c>
+      <c r="CY46">
+        <v>1</v>
+      </c>
+      <c r="CZ46">
+        <v>1</v>
+      </c>
+      <c r="DA46">
+        <v>5</v>
+      </c>
+      <c r="DB46">
+        <v>5</v>
+      </c>
+      <c r="DC46">
+        <v>1</v>
+      </c>
+      <c r="DD46">
+        <v>3</v>
+      </c>
+      <c r="DE46">
+        <v>4</v>
+      </c>
+      <c r="DF46">
+        <v>2</v>
+      </c>
+      <c r="DG46">
+        <v>1</v>
+      </c>
+      <c r="DH46">
+        <v>1</v>
+      </c>
+      <c r="DI46">
+        <v>1</v>
+      </c>
+      <c r="DJ46">
+        <v>1</v>
+      </c>
+      <c r="DK46">
+        <v>5</v>
+      </c>
+      <c r="DL46">
+        <v>5</v>
+      </c>
+      <c r="DM46">
+        <v>5</v>
+      </c>
+      <c r="DN46">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN46"/>
+  <dimension ref="A1:DN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="DO6" sqref="DO6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:DO59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16746,6 +16746,4634 @@
         <v>5</v>
       </c>
     </row>
+    <row r="47" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>4</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>4</v>
+      </c>
+      <c r="AE47">
+        <v>3</v>
+      </c>
+      <c r="AF47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>5</v>
+      </c>
+      <c r="AL47">
+        <v>5</v>
+      </c>
+      <c r="AM47">
+        <v>5</v>
+      </c>
+      <c r="AN47">
+        <v>5</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>4</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>3</v>
+      </c>
+      <c r="AT47">
+        <v>4</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>1</v>
+      </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>2</v>
+      </c>
+      <c r="BD47">
+        <v>5</v>
+      </c>
+      <c r="BE47">
+        <v>5</v>
+      </c>
+      <c r="BF47">
+        <v>5</v>
+      </c>
+      <c r="BG47">
+        <v>5</v>
+      </c>
+      <c r="BH47">
+        <v>4</v>
+      </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
+        <v>1</v>
+      </c>
+      <c r="BK47">
+        <v>1</v>
+      </c>
+      <c r="BL47">
+        <v>1</v>
+      </c>
+      <c r="BM47">
+        <v>1</v>
+      </c>
+      <c r="BN47">
+        <v>3</v>
+      </c>
+      <c r="BO47">
+        <v>1</v>
+      </c>
+      <c r="BP47">
+        <v>4</v>
+      </c>
+      <c r="BQ47">
+        <v>5</v>
+      </c>
+      <c r="BR47">
+        <v>5</v>
+      </c>
+      <c r="BS47">
+        <v>2</v>
+      </c>
+      <c r="BT47">
+        <v>2</v>
+      </c>
+      <c r="BU47">
+        <v>4</v>
+      </c>
+      <c r="BV47">
+        <v>1</v>
+      </c>
+      <c r="BW47">
+        <v>1</v>
+      </c>
+      <c r="BX47">
+        <v>1</v>
+      </c>
+      <c r="BY47">
+        <v>1</v>
+      </c>
+      <c r="BZ47">
+        <v>1</v>
+      </c>
+      <c r="CA47">
+        <v>4</v>
+      </c>
+      <c r="CB47">
+        <v>5</v>
+      </c>
+      <c r="CC47">
+        <v>5</v>
+      </c>
+      <c r="CD47">
+        <v>5</v>
+      </c>
+      <c r="CE47">
+        <v>4</v>
+      </c>
+      <c r="CF47">
+        <v>4</v>
+      </c>
+      <c r="CG47">
+        <v>1</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>1</v>
+      </c>
+      <c r="CJ47">
+        <v>1</v>
+      </c>
+      <c r="CK47">
+        <v>2</v>
+      </c>
+      <c r="CL47">
+        <v>1</v>
+      </c>
+      <c r="CM47">
+        <v>4</v>
+      </c>
+      <c r="CN47">
+        <v>4</v>
+      </c>
+      <c r="CO47">
+        <v>4</v>
+      </c>
+      <c r="CP47">
+        <v>1</v>
+      </c>
+      <c r="CQ47">
+        <v>4</v>
+      </c>
+      <c r="CR47">
+        <v>1</v>
+      </c>
+      <c r="CS47">
+        <v>1</v>
+      </c>
+      <c r="CT47">
+        <v>3</v>
+      </c>
+      <c r="CU47">
+        <v>3</v>
+      </c>
+      <c r="CV47">
+        <v>5</v>
+      </c>
+      <c r="CW47">
+        <v>5</v>
+      </c>
+      <c r="CX47">
+        <v>3</v>
+      </c>
+      <c r="CY47">
+        <v>3</v>
+      </c>
+      <c r="CZ47">
+        <v>3</v>
+      </c>
+      <c r="DA47">
+        <v>3</v>
+      </c>
+      <c r="DB47">
+        <v>4</v>
+      </c>
+      <c r="DC47">
+        <v>3</v>
+      </c>
+      <c r="DD47">
+        <v>3</v>
+      </c>
+      <c r="DE47">
+        <v>1</v>
+      </c>
+      <c r="DF47">
+        <v>2</v>
+      </c>
+      <c r="DG47">
+        <v>1</v>
+      </c>
+      <c r="DH47">
+        <v>1</v>
+      </c>
+      <c r="DI47">
+        <v>2</v>
+      </c>
+      <c r="DJ47">
+        <v>1</v>
+      </c>
+      <c r="DK47">
+        <v>4</v>
+      </c>
+      <c r="DL47">
+        <v>2</v>
+      </c>
+      <c r="DM47">
+        <v>3</v>
+      </c>
+      <c r="DN47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <v>4</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>5</v>
+      </c>
+      <c r="AL48">
+        <v>4</v>
+      </c>
+      <c r="AM48">
+        <v>3</v>
+      </c>
+      <c r="AN48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>3</v>
+      </c>
+      <c r="AS48">
+        <v>5</v>
+      </c>
+      <c r="AT48">
+        <v>2</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>2</v>
+      </c>
+      <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>3</v>
+      </c>
+      <c r="BD48">
+        <v>5</v>
+      </c>
+      <c r="BE48">
+        <v>5</v>
+      </c>
+      <c r="BF48">
+        <v>5</v>
+      </c>
+      <c r="BG48">
+        <v>4</v>
+      </c>
+      <c r="BH48">
+        <v>3</v>
+      </c>
+      <c r="BI48">
+        <v>3</v>
+      </c>
+      <c r="BJ48">
+        <v>2</v>
+      </c>
+      <c r="BK48">
+        <v>2</v>
+      </c>
+      <c r="BL48">
+        <v>1</v>
+      </c>
+      <c r="BM48">
+        <v>2</v>
+      </c>
+      <c r="BN48">
+        <v>3</v>
+      </c>
+      <c r="BO48">
+        <v>2</v>
+      </c>
+      <c r="BP48">
+        <v>2</v>
+      </c>
+      <c r="BQ48">
+        <v>2</v>
+      </c>
+      <c r="BR48">
+        <v>2</v>
+      </c>
+      <c r="BS48">
+        <v>3</v>
+      </c>
+      <c r="BT48">
+        <v>3</v>
+      </c>
+      <c r="BU48">
+        <v>3</v>
+      </c>
+      <c r="BV48">
+        <v>2</v>
+      </c>
+      <c r="BW48">
+        <v>3</v>
+      </c>
+      <c r="BX48">
+        <v>2</v>
+      </c>
+      <c r="BY48">
+        <v>2</v>
+      </c>
+      <c r="BZ48">
+        <v>2</v>
+      </c>
+      <c r="CA48">
+        <v>2</v>
+      </c>
+      <c r="CB48">
+        <v>3</v>
+      </c>
+      <c r="CC48">
+        <v>3</v>
+      </c>
+      <c r="CD48">
+        <v>3</v>
+      </c>
+      <c r="CE48">
+        <v>3</v>
+      </c>
+      <c r="CF48">
+        <v>3</v>
+      </c>
+      <c r="CG48">
+        <v>4</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI48">
+        <v>3</v>
+      </c>
+      <c r="CJ48">
+        <v>3</v>
+      </c>
+      <c r="CK48">
+        <v>1</v>
+      </c>
+      <c r="CL48">
+        <v>2</v>
+      </c>
+      <c r="CM48">
+        <v>3</v>
+      </c>
+      <c r="CN48">
+        <v>5</v>
+      </c>
+      <c r="CO48">
+        <v>5</v>
+      </c>
+      <c r="CP48">
+        <v>1</v>
+      </c>
+      <c r="CQ48">
+        <v>1</v>
+      </c>
+      <c r="CR48">
+        <v>1</v>
+      </c>
+      <c r="CS48">
+        <v>1</v>
+      </c>
+      <c r="CT48">
+        <v>1</v>
+      </c>
+      <c r="CU48">
+        <v>5</v>
+      </c>
+      <c r="CV48">
+        <v>4</v>
+      </c>
+      <c r="CW48">
+        <v>5</v>
+      </c>
+      <c r="CX48">
+        <v>3</v>
+      </c>
+      <c r="CY48">
+        <v>3</v>
+      </c>
+      <c r="CZ48">
+        <v>2</v>
+      </c>
+      <c r="DA48">
+        <v>4</v>
+      </c>
+      <c r="DB48">
+        <v>4</v>
+      </c>
+      <c r="DC48">
+        <v>4</v>
+      </c>
+      <c r="DD48">
+        <v>4</v>
+      </c>
+      <c r="DE48">
+        <v>1</v>
+      </c>
+      <c r="DF48">
+        <v>3</v>
+      </c>
+      <c r="DG48">
+        <v>1</v>
+      </c>
+      <c r="DH48">
+        <v>1</v>
+      </c>
+      <c r="DI48">
+        <v>1</v>
+      </c>
+      <c r="DJ48">
+        <v>1</v>
+      </c>
+      <c r="DK48">
+        <v>3</v>
+      </c>
+      <c r="DL48">
+        <v>5</v>
+      </c>
+      <c r="DM48">
+        <v>5</v>
+      </c>
+      <c r="DN48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>2</v>
+      </c>
+      <c r="AE49">
+        <v>3</v>
+      </c>
+      <c r="AF49">
+        <v>4</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>2</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>4</v>
+      </c>
+      <c r="AL49">
+        <v>5</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>4</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+      <c r="AS49">
+        <v>5</v>
+      </c>
+      <c r="AT49">
+        <v>5</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>2</v>
+      </c>
+      <c r="AZ49">
+        <v>2</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <v>5</v>
+      </c>
+      <c r="BE49">
+        <v>5</v>
+      </c>
+      <c r="BF49">
+        <v>4</v>
+      </c>
+      <c r="BG49">
+        <v>3</v>
+      </c>
+      <c r="BH49">
+        <v>3</v>
+      </c>
+      <c r="BI49">
+        <v>3</v>
+      </c>
+      <c r="BJ49">
+        <v>3</v>
+      </c>
+      <c r="BK49">
+        <v>3</v>
+      </c>
+      <c r="BL49">
+        <v>2</v>
+      </c>
+      <c r="BM49">
+        <v>2</v>
+      </c>
+      <c r="BN49">
+        <v>3</v>
+      </c>
+      <c r="BO49">
+        <v>2</v>
+      </c>
+      <c r="BP49">
+        <v>2</v>
+      </c>
+      <c r="BQ49">
+        <v>2</v>
+      </c>
+      <c r="BR49">
+        <v>2</v>
+      </c>
+      <c r="BS49">
+        <v>2</v>
+      </c>
+      <c r="BT49">
+        <v>2</v>
+      </c>
+      <c r="BU49">
+        <v>3</v>
+      </c>
+      <c r="BV49">
+        <v>1</v>
+      </c>
+      <c r="BW49">
+        <v>1</v>
+      </c>
+      <c r="BX49">
+        <v>1</v>
+      </c>
+      <c r="BY49">
+        <v>3</v>
+      </c>
+      <c r="BZ49">
+        <v>1</v>
+      </c>
+      <c r="CA49">
+        <v>3</v>
+      </c>
+      <c r="CB49">
+        <v>3</v>
+      </c>
+      <c r="CC49">
+        <v>3</v>
+      </c>
+      <c r="CD49">
+        <v>3</v>
+      </c>
+      <c r="CE49">
+        <v>3</v>
+      </c>
+      <c r="CF49">
+        <v>3</v>
+      </c>
+      <c r="CG49">
+        <v>3</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI49">
+        <v>2</v>
+      </c>
+      <c r="CJ49">
+        <v>2</v>
+      </c>
+      <c r="CK49">
+        <v>2</v>
+      </c>
+      <c r="CL49">
+        <v>2</v>
+      </c>
+      <c r="CM49">
+        <v>3</v>
+      </c>
+      <c r="CN49">
+        <v>3</v>
+      </c>
+      <c r="CO49">
+        <v>5</v>
+      </c>
+      <c r="CP49">
+        <v>2</v>
+      </c>
+      <c r="CQ49">
+        <v>2</v>
+      </c>
+      <c r="CR49">
+        <v>1</v>
+      </c>
+      <c r="CS49">
+        <v>1</v>
+      </c>
+      <c r="CT49">
+        <v>2</v>
+      </c>
+      <c r="CU49">
+        <v>4</v>
+      </c>
+      <c r="CV49">
+        <v>4</v>
+      </c>
+      <c r="CW49">
+        <v>5</v>
+      </c>
+      <c r="CX49">
+        <v>3</v>
+      </c>
+      <c r="CY49">
+        <v>2</v>
+      </c>
+      <c r="CZ49">
+        <v>3</v>
+      </c>
+      <c r="DA49">
+        <v>4</v>
+      </c>
+      <c r="DB49">
+        <v>3</v>
+      </c>
+      <c r="DC49">
+        <v>4</v>
+      </c>
+      <c r="DD49">
+        <v>3</v>
+      </c>
+      <c r="DE49">
+        <v>4</v>
+      </c>
+      <c r="DF49">
+        <v>4</v>
+      </c>
+      <c r="DG49">
+        <v>1</v>
+      </c>
+      <c r="DH49">
+        <v>1</v>
+      </c>
+      <c r="DI49">
+        <v>1</v>
+      </c>
+      <c r="DJ49">
+        <v>1</v>
+      </c>
+      <c r="DK49">
+        <v>1</v>
+      </c>
+      <c r="DL49">
+        <v>4</v>
+      </c>
+      <c r="DM49">
+        <v>2</v>
+      </c>
+      <c r="DN49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>4</v>
+      </c>
+      <c r="Z50">
+        <v>3</v>
+      </c>
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
+        <v>5</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>3</v>
+      </c>
+      <c r="AF50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>3</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>5</v>
+      </c>
+      <c r="AL50">
+        <v>3</v>
+      </c>
+      <c r="AM50">
+        <v>4</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>3</v>
+      </c>
+      <c r="AS50">
+        <v>3</v>
+      </c>
+      <c r="AT50">
+        <v>3</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>3</v>
+      </c>
+      <c r="AZ50">
+        <v>3</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>3</v>
+      </c>
+      <c r="BD50">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>3</v>
+      </c>
+      <c r="BF50">
+        <v>3</v>
+      </c>
+      <c r="BG50">
+        <v>3</v>
+      </c>
+      <c r="BH50">
+        <v>3</v>
+      </c>
+      <c r="BI50">
+        <v>3</v>
+      </c>
+      <c r="BJ50">
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <v>3</v>
+      </c>
+      <c r="BL50">
+        <v>3</v>
+      </c>
+      <c r="BM50">
+        <v>3</v>
+      </c>
+      <c r="BN50">
+        <v>3</v>
+      </c>
+      <c r="BO50">
+        <v>3</v>
+      </c>
+      <c r="BP50">
+        <v>3</v>
+      </c>
+      <c r="BQ50">
+        <v>3</v>
+      </c>
+      <c r="BR50">
+        <v>3</v>
+      </c>
+      <c r="BS50">
+        <v>3</v>
+      </c>
+      <c r="BT50">
+        <v>3</v>
+      </c>
+      <c r="BU50">
+        <v>3</v>
+      </c>
+      <c r="BV50">
+        <v>3</v>
+      </c>
+      <c r="BW50">
+        <v>3</v>
+      </c>
+      <c r="BX50">
+        <v>3</v>
+      </c>
+      <c r="BY50">
+        <v>3</v>
+      </c>
+      <c r="BZ50">
+        <v>3</v>
+      </c>
+      <c r="CA50">
+        <v>3</v>
+      </c>
+      <c r="CB50">
+        <v>3</v>
+      </c>
+      <c r="CC50">
+        <v>3</v>
+      </c>
+      <c r="CD50">
+        <v>3</v>
+      </c>
+      <c r="CE50">
+        <v>3</v>
+      </c>
+      <c r="CF50">
+        <v>3</v>
+      </c>
+      <c r="CG50">
+        <v>3</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI50">
+        <v>3</v>
+      </c>
+      <c r="CJ50">
+        <v>3</v>
+      </c>
+      <c r="CK50">
+        <v>3</v>
+      </c>
+      <c r="CL50">
+        <v>3</v>
+      </c>
+      <c r="CM50">
+        <v>3</v>
+      </c>
+      <c r="CN50">
+        <v>3</v>
+      </c>
+      <c r="CO50">
+        <v>3</v>
+      </c>
+      <c r="CP50">
+        <v>3</v>
+      </c>
+      <c r="CQ50">
+        <v>3</v>
+      </c>
+      <c r="CR50">
+        <v>3</v>
+      </c>
+      <c r="CS50">
+        <v>3</v>
+      </c>
+      <c r="CT50">
+        <v>3</v>
+      </c>
+      <c r="CU50">
+        <v>3</v>
+      </c>
+      <c r="CV50">
+        <v>3</v>
+      </c>
+      <c r="CW50">
+        <v>3</v>
+      </c>
+      <c r="CX50">
+        <v>3</v>
+      </c>
+      <c r="CY50">
+        <v>3</v>
+      </c>
+      <c r="CZ50">
+        <v>3</v>
+      </c>
+      <c r="DA50">
+        <v>3</v>
+      </c>
+      <c r="DB50">
+        <v>3</v>
+      </c>
+      <c r="DC50">
+        <v>3</v>
+      </c>
+      <c r="DD50">
+        <v>3</v>
+      </c>
+      <c r="DE50">
+        <v>3</v>
+      </c>
+      <c r="DF50">
+        <v>3</v>
+      </c>
+      <c r="DG50">
+        <v>3</v>
+      </c>
+      <c r="DH50">
+        <v>3</v>
+      </c>
+      <c r="DI50">
+        <v>3</v>
+      </c>
+      <c r="DJ50">
+        <v>3</v>
+      </c>
+      <c r="DK50">
+        <v>3</v>
+      </c>
+      <c r="DL50">
+        <v>3</v>
+      </c>
+      <c r="DM50">
+        <v>3</v>
+      </c>
+      <c r="DN50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>3</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
+        <v>3</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>3</v>
+      </c>
+      <c r="AE51">
+        <v>3</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>2</v>
+      </c>
+      <c r="AI51">
+        <v>4</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>2</v>
+      </c>
+      <c r="AL51">
+        <v>3</v>
+      </c>
+      <c r="AM51">
+        <v>3</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>4</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>4</v>
+      </c>
+      <c r="AS51">
+        <v>5</v>
+      </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
+      <c r="AU51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>4</v>
+      </c>
+      <c r="AZ51">
+        <v>3</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>5</v>
+      </c>
+      <c r="BD51">
+        <v>2</v>
+      </c>
+      <c r="BE51">
+        <v>2</v>
+      </c>
+      <c r="BF51">
+        <v>1</v>
+      </c>
+      <c r="BG51">
+        <v>2</v>
+      </c>
+      <c r="BH51">
+        <v>1</v>
+      </c>
+      <c r="BI51">
+        <v>1</v>
+      </c>
+      <c r="BJ51">
+        <v>3</v>
+      </c>
+      <c r="BK51">
+        <v>4</v>
+      </c>
+      <c r="BL51">
+        <v>4</v>
+      </c>
+      <c r="BM51">
+        <v>2</v>
+      </c>
+      <c r="BN51">
+        <v>5</v>
+      </c>
+      <c r="BO51">
+        <v>5</v>
+      </c>
+      <c r="BP51">
+        <v>4</v>
+      </c>
+      <c r="BQ51">
+        <v>4</v>
+      </c>
+      <c r="BR51">
+        <v>1</v>
+      </c>
+      <c r="BS51">
+        <v>1</v>
+      </c>
+      <c r="BT51">
+        <v>1</v>
+      </c>
+      <c r="BU51">
+        <v>2</v>
+      </c>
+      <c r="BV51">
+        <v>1</v>
+      </c>
+      <c r="BW51">
+        <v>5</v>
+      </c>
+      <c r="BX51">
+        <v>4</v>
+      </c>
+      <c r="BY51">
+        <v>5</v>
+      </c>
+      <c r="BZ51">
+        <v>5</v>
+      </c>
+      <c r="CA51">
+        <v>4</v>
+      </c>
+      <c r="CB51">
+        <v>3</v>
+      </c>
+      <c r="CC51">
+        <v>1</v>
+      </c>
+      <c r="CD51">
+        <v>1</v>
+      </c>
+      <c r="CE51">
+        <v>1</v>
+      </c>
+      <c r="CF51">
+        <v>2</v>
+      </c>
+      <c r="CG51">
+        <v>1</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI51">
+        <v>3</v>
+      </c>
+      <c r="CJ51">
+        <v>1</v>
+      </c>
+      <c r="CK51">
+        <v>3</v>
+      </c>
+      <c r="CL51">
+        <v>5</v>
+      </c>
+      <c r="CM51">
+        <v>3</v>
+      </c>
+      <c r="CN51">
+        <v>3</v>
+      </c>
+      <c r="CO51">
+        <v>3</v>
+      </c>
+      <c r="CP51">
+        <v>1</v>
+      </c>
+      <c r="CQ51">
+        <v>3</v>
+      </c>
+      <c r="CR51">
+        <v>2</v>
+      </c>
+      <c r="CS51">
+        <v>3</v>
+      </c>
+      <c r="CT51">
+        <v>4</v>
+      </c>
+      <c r="CU51">
+        <v>3</v>
+      </c>
+      <c r="CV51">
+        <v>2</v>
+      </c>
+      <c r="CW51">
+        <v>3</v>
+      </c>
+      <c r="CX51">
+        <v>4</v>
+      </c>
+      <c r="CY51">
+        <v>2</v>
+      </c>
+      <c r="CZ51">
+        <v>4</v>
+      </c>
+      <c r="DA51">
+        <v>5</v>
+      </c>
+      <c r="DB51">
+        <v>4</v>
+      </c>
+      <c r="DC51">
+        <v>2</v>
+      </c>
+      <c r="DD51">
+        <v>2</v>
+      </c>
+      <c r="DE51">
+        <v>1</v>
+      </c>
+      <c r="DF51">
+        <v>3</v>
+      </c>
+      <c r="DG51">
+        <v>3</v>
+      </c>
+      <c r="DH51">
+        <v>2</v>
+      </c>
+      <c r="DI51">
+        <v>3</v>
+      </c>
+      <c r="DJ51">
+        <v>2</v>
+      </c>
+      <c r="DK51">
+        <v>4</v>
+      </c>
+      <c r="DL51">
+        <v>5</v>
+      </c>
+      <c r="DM51">
+        <v>2</v>
+      </c>
+      <c r="DN51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>4</v>
+      </c>
+      <c r="X52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>3</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>4</v>
+      </c>
+      <c r="AE52">
+        <v>3</v>
+      </c>
+      <c r="AF52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>2</v>
+      </c>
+      <c r="AI52">
+        <v>2</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>5</v>
+      </c>
+      <c r="AL52">
+        <v>4</v>
+      </c>
+      <c r="AM52">
+        <v>3</v>
+      </c>
+      <c r="AN52">
+        <v>5</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>2</v>
+      </c>
+      <c r="AS52">
+        <v>4</v>
+      </c>
+      <c r="AT52">
+        <v>2</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52">
+        <v>1</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>3</v>
+      </c>
+      <c r="BD52">
+        <v>4</v>
+      </c>
+      <c r="BE52">
+        <v>4</v>
+      </c>
+      <c r="BF52">
+        <v>5</v>
+      </c>
+      <c r="BG52">
+        <v>4</v>
+      </c>
+      <c r="BH52">
+        <v>3</v>
+      </c>
+      <c r="BI52">
+        <v>3</v>
+      </c>
+      <c r="BJ52">
+        <v>2</v>
+      </c>
+      <c r="BK52">
+        <v>2</v>
+      </c>
+      <c r="BL52">
+        <v>3</v>
+      </c>
+      <c r="BM52">
+        <v>2</v>
+      </c>
+      <c r="BN52">
+        <v>2</v>
+      </c>
+      <c r="BO52">
+        <v>2</v>
+      </c>
+      <c r="BP52">
+        <v>3</v>
+      </c>
+      <c r="BQ52">
+        <v>3</v>
+      </c>
+      <c r="BR52">
+        <v>3</v>
+      </c>
+      <c r="BS52">
+        <v>3</v>
+      </c>
+      <c r="BT52">
+        <v>4</v>
+      </c>
+      <c r="BU52">
+        <v>4</v>
+      </c>
+      <c r="BV52">
+        <v>1</v>
+      </c>
+      <c r="BW52">
+        <v>2</v>
+      </c>
+      <c r="BX52">
+        <v>2</v>
+      </c>
+      <c r="BY52">
+        <v>2</v>
+      </c>
+      <c r="BZ52">
+        <v>3</v>
+      </c>
+      <c r="CA52">
+        <v>4</v>
+      </c>
+      <c r="CB52">
+        <v>5</v>
+      </c>
+      <c r="CC52">
+        <v>5</v>
+      </c>
+      <c r="CD52">
+        <v>4</v>
+      </c>
+      <c r="CE52">
+        <v>4</v>
+      </c>
+      <c r="CF52">
+        <v>5</v>
+      </c>
+      <c r="CG52">
+        <v>2</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI52">
+        <v>2</v>
+      </c>
+      <c r="CJ52">
+        <v>2</v>
+      </c>
+      <c r="CK52">
+        <v>1</v>
+      </c>
+      <c r="CL52">
+        <v>2</v>
+      </c>
+      <c r="CM52">
+        <v>4</v>
+      </c>
+      <c r="CN52">
+        <v>4</v>
+      </c>
+      <c r="CO52">
+        <v>4</v>
+      </c>
+      <c r="CP52">
+        <v>4</v>
+      </c>
+      <c r="CQ52">
+        <v>2</v>
+      </c>
+      <c r="CR52">
+        <v>1</v>
+      </c>
+      <c r="CS52">
+        <v>2</v>
+      </c>
+      <c r="CT52">
+        <v>2</v>
+      </c>
+      <c r="CU52">
+        <v>4</v>
+      </c>
+      <c r="CV52">
+        <v>4</v>
+      </c>
+      <c r="CW52">
+        <v>4</v>
+      </c>
+      <c r="CX52">
+        <v>3</v>
+      </c>
+      <c r="CY52">
+        <v>3</v>
+      </c>
+      <c r="CZ52">
+        <v>2</v>
+      </c>
+      <c r="DA52">
+        <v>3</v>
+      </c>
+      <c r="DB52">
+        <v>2</v>
+      </c>
+      <c r="DC52">
+        <v>4</v>
+      </c>
+      <c r="DD52">
+        <v>4</v>
+      </c>
+      <c r="DE52">
+        <v>3</v>
+      </c>
+      <c r="DF52">
+        <v>3</v>
+      </c>
+      <c r="DG52">
+        <v>1</v>
+      </c>
+      <c r="DH52">
+        <v>1</v>
+      </c>
+      <c r="DI52">
+        <v>2</v>
+      </c>
+      <c r="DJ52">
+        <v>1</v>
+      </c>
+      <c r="DK52">
+        <v>4</v>
+      </c>
+      <c r="DL52">
+        <v>4</v>
+      </c>
+      <c r="DM52">
+        <v>4</v>
+      </c>
+      <c r="DN52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>5</v>
+      </c>
+      <c r="X53">
+        <v>5</v>
+      </c>
+      <c r="Y53">
+        <v>2</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
+      <c r="AF53">
+        <v>3</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>3</v>
+      </c>
+      <c r="AL53">
+        <v>3</v>
+      </c>
+      <c r="AM53">
+        <v>5</v>
+      </c>
+      <c r="AN53">
+        <v>5</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
+      <c r="AS53">
+        <v>5</v>
+      </c>
+      <c r="AT53">
+        <v>5</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>1</v>
+      </c>
+      <c r="AY53">
+        <v>1</v>
+      </c>
+      <c r="AZ53">
+        <v>1</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
+        <v>1</v>
+      </c>
+      <c r="BC53">
+        <v>3</v>
+      </c>
+      <c r="BD53">
+        <v>5</v>
+      </c>
+      <c r="BE53">
+        <v>5</v>
+      </c>
+      <c r="BF53">
+        <v>5</v>
+      </c>
+      <c r="BG53">
+        <v>5</v>
+      </c>
+      <c r="BH53">
+        <v>5</v>
+      </c>
+      <c r="BI53">
+        <v>5</v>
+      </c>
+      <c r="BJ53">
+        <v>1</v>
+      </c>
+      <c r="BK53">
+        <v>1</v>
+      </c>
+      <c r="BL53">
+        <v>1</v>
+      </c>
+      <c r="BM53">
+        <v>1</v>
+      </c>
+      <c r="BN53">
+        <v>2</v>
+      </c>
+      <c r="BO53">
+        <v>2</v>
+      </c>
+      <c r="BP53">
+        <v>3</v>
+      </c>
+      <c r="BQ53">
+        <v>3</v>
+      </c>
+      <c r="BR53">
+        <v>4</v>
+      </c>
+      <c r="BS53">
+        <v>4</v>
+      </c>
+      <c r="BT53">
+        <v>4</v>
+      </c>
+      <c r="BU53">
+        <v>4</v>
+      </c>
+      <c r="BV53">
+        <v>1</v>
+      </c>
+      <c r="BW53">
+        <v>1</v>
+      </c>
+      <c r="BX53">
+        <v>1</v>
+      </c>
+      <c r="BY53">
+        <v>1</v>
+      </c>
+      <c r="BZ53">
+        <v>1</v>
+      </c>
+      <c r="CA53">
+        <v>2</v>
+      </c>
+      <c r="CB53">
+        <v>4</v>
+      </c>
+      <c r="CC53">
+        <v>4</v>
+      </c>
+      <c r="CD53">
+        <v>4</v>
+      </c>
+      <c r="CE53">
+        <v>4</v>
+      </c>
+      <c r="CF53">
+        <v>1</v>
+      </c>
+      <c r="CG53">
+        <v>1</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI53">
+        <v>1</v>
+      </c>
+      <c r="CJ53">
+        <v>1</v>
+      </c>
+      <c r="CK53">
+        <v>1</v>
+      </c>
+      <c r="CL53">
+        <v>1</v>
+      </c>
+      <c r="CM53">
+        <v>4</v>
+      </c>
+      <c r="CN53">
+        <v>4</v>
+      </c>
+      <c r="CO53">
+        <v>3</v>
+      </c>
+      <c r="CP53">
+        <v>4</v>
+      </c>
+      <c r="CQ53">
+        <v>1</v>
+      </c>
+      <c r="CR53">
+        <v>1</v>
+      </c>
+      <c r="CS53">
+        <v>1</v>
+      </c>
+      <c r="CT53">
+        <v>1</v>
+      </c>
+      <c r="CU53">
+        <v>1</v>
+      </c>
+      <c r="CV53">
+        <v>4</v>
+      </c>
+      <c r="CW53">
+        <v>4</v>
+      </c>
+      <c r="CX53">
+        <v>5</v>
+      </c>
+      <c r="CY53">
+        <v>1</v>
+      </c>
+      <c r="CZ53">
+        <v>1</v>
+      </c>
+      <c r="DA53">
+        <v>1</v>
+      </c>
+      <c r="DB53">
+        <v>1</v>
+      </c>
+      <c r="DC53">
+        <v>4</v>
+      </c>
+      <c r="DD53">
+        <v>4</v>
+      </c>
+      <c r="DE53">
+        <v>4</v>
+      </c>
+      <c r="DF53">
+        <v>5</v>
+      </c>
+      <c r="DG53">
+        <v>1</v>
+      </c>
+      <c r="DH53">
+        <v>1</v>
+      </c>
+      <c r="DI53">
+        <v>1</v>
+      </c>
+      <c r="DJ53">
+        <v>1</v>
+      </c>
+      <c r="DK53">
+        <v>1</v>
+      </c>
+      <c r="DL53">
+        <v>5</v>
+      </c>
+      <c r="DM53">
+        <v>5</v>
+      </c>
+      <c r="DN53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+      <c r="AC54">
+        <v>5</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>4</v>
+      </c>
+      <c r="AL54">
+        <v>5</v>
+      </c>
+      <c r="AM54">
+        <v>4</v>
+      </c>
+      <c r="AN54">
+        <v>5</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="AS54">
+        <v>5</v>
+      </c>
+      <c r="AT54">
+        <v>4</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>1</v>
+      </c>
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>1</v>
+      </c>
+      <c r="BC54">
+        <v>3</v>
+      </c>
+      <c r="BD54">
+        <v>5</v>
+      </c>
+      <c r="BE54">
+        <v>5</v>
+      </c>
+      <c r="BF54">
+        <v>5</v>
+      </c>
+      <c r="BG54">
+        <v>4</v>
+      </c>
+      <c r="BH54">
+        <v>4</v>
+      </c>
+      <c r="BI54">
+        <v>4</v>
+      </c>
+      <c r="BJ54">
+        <v>2</v>
+      </c>
+      <c r="BK54">
+        <v>2</v>
+      </c>
+      <c r="BL54">
+        <v>3</v>
+      </c>
+      <c r="BM54">
+        <v>2</v>
+      </c>
+      <c r="BN54">
+        <v>3</v>
+      </c>
+      <c r="BO54">
+        <v>3</v>
+      </c>
+      <c r="BP54">
+        <v>3</v>
+      </c>
+      <c r="BQ54">
+        <v>5</v>
+      </c>
+      <c r="BR54">
+        <v>5</v>
+      </c>
+      <c r="BS54">
+        <v>5</v>
+      </c>
+      <c r="BT54">
+        <v>5</v>
+      </c>
+      <c r="BU54">
+        <v>5</v>
+      </c>
+      <c r="BV54">
+        <v>1</v>
+      </c>
+      <c r="BW54">
+        <v>1</v>
+      </c>
+      <c r="BX54">
+        <v>2</v>
+      </c>
+      <c r="BY54">
+        <v>1</v>
+      </c>
+      <c r="BZ54">
+        <v>1</v>
+      </c>
+      <c r="CA54">
+        <v>4</v>
+      </c>
+      <c r="CB54">
+        <v>5</v>
+      </c>
+      <c r="CC54">
+        <v>5</v>
+      </c>
+      <c r="CD54">
+        <v>5</v>
+      </c>
+      <c r="CE54">
+        <v>5</v>
+      </c>
+      <c r="CF54">
+        <v>5</v>
+      </c>
+      <c r="CG54">
+        <v>5</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI54">
+        <v>4</v>
+      </c>
+      <c r="CJ54">
+        <v>1</v>
+      </c>
+      <c r="CK54">
+        <v>1</v>
+      </c>
+      <c r="CL54">
+        <v>2</v>
+      </c>
+      <c r="CM54">
+        <v>4</v>
+      </c>
+      <c r="CN54">
+        <v>3</v>
+      </c>
+      <c r="CO54">
+        <v>4</v>
+      </c>
+      <c r="CP54">
+        <v>3</v>
+      </c>
+      <c r="CQ54">
+        <v>1</v>
+      </c>
+      <c r="CR54">
+        <v>1</v>
+      </c>
+      <c r="CS54">
+        <v>1</v>
+      </c>
+      <c r="CT54">
+        <v>1</v>
+      </c>
+      <c r="CU54">
+        <v>3</v>
+      </c>
+      <c r="CV54">
+        <v>5</v>
+      </c>
+      <c r="CW54">
+        <v>5</v>
+      </c>
+      <c r="CX54">
+        <v>3</v>
+      </c>
+      <c r="CY54">
+        <v>3</v>
+      </c>
+      <c r="CZ54">
+        <v>1</v>
+      </c>
+      <c r="DA54">
+        <v>4</v>
+      </c>
+      <c r="DB54">
+        <v>3</v>
+      </c>
+      <c r="DC54">
+        <v>3</v>
+      </c>
+      <c r="DD54">
+        <v>3</v>
+      </c>
+      <c r="DE54">
+        <v>3</v>
+      </c>
+      <c r="DF54">
+        <v>3</v>
+      </c>
+      <c r="DG54">
+        <v>1</v>
+      </c>
+      <c r="DH54">
+        <v>1</v>
+      </c>
+      <c r="DI54">
+        <v>1</v>
+      </c>
+      <c r="DJ54">
+        <v>1</v>
+      </c>
+      <c r="DK54">
+        <v>5</v>
+      </c>
+      <c r="DL54">
+        <v>5</v>
+      </c>
+      <c r="DM54">
+        <v>5</v>
+      </c>
+      <c r="DN54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>4</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>4</v>
+      </c>
+      <c r="AD55">
+        <v>4</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AF55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>2</v>
+      </c>
+      <c r="AH55">
+        <v>2</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>4</v>
+      </c>
+      <c r="AL55">
+        <v>4</v>
+      </c>
+      <c r="AM55">
+        <v>4</v>
+      </c>
+      <c r="AN55">
+        <v>4</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>2</v>
+      </c>
+      <c r="AS55">
+        <v>4</v>
+      </c>
+      <c r="AT55">
+        <v>4</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>2</v>
+      </c>
+      <c r="AZ55">
+        <v>2</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>2</v>
+      </c>
+      <c r="BD55">
+        <v>4</v>
+      </c>
+      <c r="BE55">
+        <v>4</v>
+      </c>
+      <c r="BF55">
+        <v>4</v>
+      </c>
+      <c r="BG55">
+        <v>4</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>4</v>
+      </c>
+      <c r="BJ55">
+        <v>2</v>
+      </c>
+      <c r="BK55">
+        <v>2</v>
+      </c>
+      <c r="BL55">
+        <v>3</v>
+      </c>
+      <c r="BM55">
+        <v>2</v>
+      </c>
+      <c r="BN55">
+        <v>3</v>
+      </c>
+      <c r="BO55">
+        <v>2</v>
+      </c>
+      <c r="BP55">
+        <v>4</v>
+      </c>
+      <c r="BQ55">
+        <v>4</v>
+      </c>
+      <c r="BR55">
+        <v>4</v>
+      </c>
+      <c r="BS55">
+        <v>4</v>
+      </c>
+      <c r="BT55">
+        <v>3</v>
+      </c>
+      <c r="BU55">
+        <v>4</v>
+      </c>
+      <c r="BV55">
+        <v>2</v>
+      </c>
+      <c r="BW55">
+        <v>2</v>
+      </c>
+      <c r="BX55">
+        <v>2</v>
+      </c>
+      <c r="BY55">
+        <v>2</v>
+      </c>
+      <c r="BZ55">
+        <v>2</v>
+      </c>
+      <c r="CA55">
+        <v>3</v>
+      </c>
+      <c r="CB55">
+        <v>4</v>
+      </c>
+      <c r="CC55">
+        <v>4</v>
+      </c>
+      <c r="CD55">
+        <v>4</v>
+      </c>
+      <c r="CE55">
+        <v>4</v>
+      </c>
+      <c r="CF55">
+        <v>5</v>
+      </c>
+      <c r="CG55">
+        <v>2</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI55">
+        <v>2</v>
+      </c>
+      <c r="CJ55">
+        <v>4</v>
+      </c>
+      <c r="CK55">
+        <v>2</v>
+      </c>
+      <c r="CL55">
+        <v>2</v>
+      </c>
+      <c r="CM55">
+        <v>4</v>
+      </c>
+      <c r="CN55">
+        <v>4</v>
+      </c>
+      <c r="CO55">
+        <v>4</v>
+      </c>
+      <c r="CP55">
+        <v>4</v>
+      </c>
+      <c r="CQ55">
+        <v>2</v>
+      </c>
+      <c r="CR55">
+        <v>2</v>
+      </c>
+      <c r="CS55">
+        <v>2</v>
+      </c>
+      <c r="CT55">
+        <v>4</v>
+      </c>
+      <c r="CU55">
+        <v>4</v>
+      </c>
+      <c r="CV55">
+        <v>4</v>
+      </c>
+      <c r="CW55">
+        <v>4</v>
+      </c>
+      <c r="CX55">
+        <v>4</v>
+      </c>
+      <c r="CY55">
+        <v>2</v>
+      </c>
+      <c r="CZ55">
+        <v>4</v>
+      </c>
+      <c r="DA55">
+        <v>4</v>
+      </c>
+      <c r="DB55">
+        <v>2</v>
+      </c>
+      <c r="DC55">
+        <v>2</v>
+      </c>
+      <c r="DD55">
+        <v>2</v>
+      </c>
+      <c r="DE55">
+        <v>2</v>
+      </c>
+      <c r="DF55">
+        <v>4</v>
+      </c>
+      <c r="DG55">
+        <v>2</v>
+      </c>
+      <c r="DH55">
+        <v>2</v>
+      </c>
+      <c r="DI55">
+        <v>2</v>
+      </c>
+      <c r="DJ55">
+        <v>2</v>
+      </c>
+      <c r="DK55">
+        <v>4</v>
+      </c>
+      <c r="DL55">
+        <v>4</v>
+      </c>
+      <c r="DM55">
+        <v>4</v>
+      </c>
+      <c r="DN55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>5</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>3</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2</v>
+      </c>
+      <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>3</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>5</v>
+      </c>
+      <c r="AL56">
+        <v>4</v>
+      </c>
+      <c r="AM56">
+        <v>4</v>
+      </c>
+      <c r="AN56">
+        <v>5</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>3</v>
+      </c>
+      <c r="AT56">
+        <v>3</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>3</v>
+      </c>
+      <c r="AZ56">
+        <v>2</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>3</v>
+      </c>
+      <c r="BD56">
+        <v>4</v>
+      </c>
+      <c r="BE56">
+        <v>4</v>
+      </c>
+      <c r="BF56">
+        <v>5</v>
+      </c>
+      <c r="BG56">
+        <v>3</v>
+      </c>
+      <c r="BH56">
+        <v>3</v>
+      </c>
+      <c r="BI56">
+        <v>3</v>
+      </c>
+      <c r="BJ56">
+        <v>4</v>
+      </c>
+      <c r="BK56">
+        <v>3</v>
+      </c>
+      <c r="BL56">
+        <v>3</v>
+      </c>
+      <c r="BM56">
+        <v>3</v>
+      </c>
+      <c r="BN56">
+        <v>3</v>
+      </c>
+      <c r="BO56">
+        <v>1</v>
+      </c>
+      <c r="BP56">
+        <v>2</v>
+      </c>
+      <c r="BQ56">
+        <v>3</v>
+      </c>
+      <c r="BR56">
+        <v>2</v>
+      </c>
+      <c r="BS56">
+        <v>2</v>
+      </c>
+      <c r="BT56">
+        <v>3</v>
+      </c>
+      <c r="BU56">
+        <v>4</v>
+      </c>
+      <c r="BV56">
+        <v>2</v>
+      </c>
+      <c r="BW56">
+        <v>2</v>
+      </c>
+      <c r="BX56">
+        <v>2</v>
+      </c>
+      <c r="BY56">
+        <v>3</v>
+      </c>
+      <c r="BZ56">
+        <v>2</v>
+      </c>
+      <c r="CA56">
+        <v>4</v>
+      </c>
+      <c r="CB56">
+        <v>3</v>
+      </c>
+      <c r="CC56">
+        <v>4</v>
+      </c>
+      <c r="CD56">
+        <v>3</v>
+      </c>
+      <c r="CE56">
+        <v>4</v>
+      </c>
+      <c r="CF56">
+        <v>4</v>
+      </c>
+      <c r="CG56">
+        <v>2</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI56">
+        <v>3</v>
+      </c>
+      <c r="CJ56">
+        <v>1</v>
+      </c>
+      <c r="CK56">
+        <v>1</v>
+      </c>
+      <c r="CL56">
+        <v>2</v>
+      </c>
+      <c r="CM56">
+        <v>4</v>
+      </c>
+      <c r="CN56">
+        <v>3</v>
+      </c>
+      <c r="CO56">
+        <v>4</v>
+      </c>
+      <c r="CP56">
+        <v>1</v>
+      </c>
+      <c r="CQ56">
+        <v>3</v>
+      </c>
+      <c r="CR56">
+        <v>1</v>
+      </c>
+      <c r="CS56">
+        <v>2</v>
+      </c>
+      <c r="CT56">
+        <v>2</v>
+      </c>
+      <c r="CU56">
+        <v>3</v>
+      </c>
+      <c r="CV56">
+        <v>4</v>
+      </c>
+      <c r="CW56">
+        <v>5</v>
+      </c>
+      <c r="CX56">
+        <v>3</v>
+      </c>
+      <c r="CY56">
+        <v>4</v>
+      </c>
+      <c r="CZ56">
+        <v>4</v>
+      </c>
+      <c r="DA56">
+        <v>4</v>
+      </c>
+      <c r="DB56">
+        <v>3</v>
+      </c>
+      <c r="DC56">
+        <v>2</v>
+      </c>
+      <c r="DD56">
+        <v>2</v>
+      </c>
+      <c r="DE56">
+        <v>3</v>
+      </c>
+      <c r="DF56">
+        <v>2</v>
+      </c>
+      <c r="DG56">
+        <v>2</v>
+      </c>
+      <c r="DH56">
+        <v>1</v>
+      </c>
+      <c r="DI56">
+        <v>1</v>
+      </c>
+      <c r="DJ56">
+        <v>1</v>
+      </c>
+      <c r="DK56">
+        <v>4</v>
+      </c>
+      <c r="DL56">
+        <v>2</v>
+      </c>
+      <c r="DM56">
+        <v>3</v>
+      </c>
+      <c r="DN56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>3</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>4</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>4</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+      <c r="AE57">
+        <v>3</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
+      <c r="AL57">
+        <v>4</v>
+      </c>
+      <c r="AM57">
+        <v>3</v>
+      </c>
+      <c r="AN57">
+        <v>5</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>4</v>
+      </c>
+      <c r="AT57">
+        <v>4</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
+        <v>1</v>
+      </c>
+      <c r="AZ57">
+        <v>1</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>4</v>
+      </c>
+      <c r="BD57">
+        <v>4</v>
+      </c>
+      <c r="BE57">
+        <v>3</v>
+      </c>
+      <c r="BF57">
+        <v>4</v>
+      </c>
+      <c r="BG57">
+        <v>4</v>
+      </c>
+      <c r="BH57">
+        <v>4</v>
+      </c>
+      <c r="BI57">
+        <v>4</v>
+      </c>
+      <c r="BJ57">
+        <v>2</v>
+      </c>
+      <c r="BK57">
+        <v>2</v>
+      </c>
+      <c r="BL57">
+        <v>2</v>
+      </c>
+      <c r="BM57">
+        <v>3</v>
+      </c>
+      <c r="BN57">
+        <v>3</v>
+      </c>
+      <c r="BO57">
+        <v>3</v>
+      </c>
+      <c r="BP57">
+        <v>3</v>
+      </c>
+      <c r="BQ57">
+        <v>3</v>
+      </c>
+      <c r="BR57">
+        <v>3</v>
+      </c>
+      <c r="BS57">
+        <v>2</v>
+      </c>
+      <c r="BT57">
+        <v>2</v>
+      </c>
+      <c r="BU57">
+        <v>1</v>
+      </c>
+      <c r="BV57">
+        <v>1</v>
+      </c>
+      <c r="BW57">
+        <v>1</v>
+      </c>
+      <c r="BX57">
+        <v>1</v>
+      </c>
+      <c r="BY57">
+        <v>1</v>
+      </c>
+      <c r="BZ57">
+        <v>2</v>
+      </c>
+      <c r="CA57">
+        <v>4</v>
+      </c>
+      <c r="CB57">
+        <v>5</v>
+      </c>
+      <c r="CC57">
+        <v>5</v>
+      </c>
+      <c r="CD57">
+        <v>5</v>
+      </c>
+      <c r="CE57">
+        <v>5</v>
+      </c>
+      <c r="CF57">
+        <v>5</v>
+      </c>
+      <c r="CG57">
+        <v>2</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>2</v>
+      </c>
+      <c r="CJ57">
+        <v>4</v>
+      </c>
+      <c r="CK57">
+        <v>1</v>
+      </c>
+      <c r="CL57">
+        <v>1</v>
+      </c>
+      <c r="CM57">
+        <v>5</v>
+      </c>
+      <c r="CN57">
+        <v>5</v>
+      </c>
+      <c r="CO57">
+        <v>5</v>
+      </c>
+      <c r="CP57">
+        <v>2</v>
+      </c>
+      <c r="CQ57">
+        <v>1</v>
+      </c>
+      <c r="CR57">
+        <v>1</v>
+      </c>
+      <c r="CS57">
+        <v>1</v>
+      </c>
+      <c r="CT57">
+        <v>2</v>
+      </c>
+      <c r="CU57">
+        <v>4</v>
+      </c>
+      <c r="CV57">
+        <v>4</v>
+      </c>
+      <c r="CW57">
+        <v>5</v>
+      </c>
+      <c r="CX57">
+        <v>5</v>
+      </c>
+      <c r="CY57">
+        <v>2</v>
+      </c>
+      <c r="CZ57">
+        <v>2</v>
+      </c>
+      <c r="DA57">
+        <v>2</v>
+      </c>
+      <c r="DB57">
+        <v>2</v>
+      </c>
+      <c r="DC57">
+        <v>4</v>
+      </c>
+      <c r="DD57">
+        <v>5</v>
+      </c>
+      <c r="DE57">
+        <v>2</v>
+      </c>
+      <c r="DF57">
+        <v>4</v>
+      </c>
+      <c r="DG57">
+        <v>1</v>
+      </c>
+      <c r="DH57">
+        <v>1</v>
+      </c>
+      <c r="DI57">
+        <v>1</v>
+      </c>
+      <c r="DJ57">
+        <v>2</v>
+      </c>
+      <c r="DK57">
+        <v>5</v>
+      </c>
+      <c r="DL57">
+        <v>4</v>
+      </c>
+      <c r="DM57">
+        <v>5</v>
+      </c>
+      <c r="DN57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>4</v>
+      </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>4</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>4</v>
+      </c>
+      <c r="AB58">
+        <v>5</v>
+      </c>
+      <c r="AC58">
+        <v>5</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>3</v>
+      </c>
+      <c r="AF58">
+        <v>5</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>3</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>5</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>5</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>5</v>
+      </c>
+      <c r="AT58">
+        <v>1</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>1</v>
+      </c>
+      <c r="AY58">
+        <v>1</v>
+      </c>
+      <c r="AZ58">
+        <v>1</v>
+      </c>
+      <c r="BA58">
+        <v>1</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>5</v>
+      </c>
+      <c r="BD58">
+        <v>5</v>
+      </c>
+      <c r="BE58">
+        <v>5</v>
+      </c>
+      <c r="BF58">
+        <v>5</v>
+      </c>
+      <c r="BG58">
+        <v>3</v>
+      </c>
+      <c r="BH58">
+        <v>1</v>
+      </c>
+      <c r="BI58">
+        <v>2</v>
+      </c>
+      <c r="BJ58">
+        <v>1</v>
+      </c>
+      <c r="BK58">
+        <v>1</v>
+      </c>
+      <c r="BL58">
+        <v>1</v>
+      </c>
+      <c r="BM58">
+        <v>3</v>
+      </c>
+      <c r="BN58">
+        <v>4</v>
+      </c>
+      <c r="BO58">
+        <v>2</v>
+      </c>
+      <c r="BP58">
+        <v>1</v>
+      </c>
+      <c r="BQ58">
+        <v>5</v>
+      </c>
+      <c r="BR58">
+        <v>1</v>
+      </c>
+      <c r="BS58">
+        <v>5</v>
+      </c>
+      <c r="BT58">
+        <v>5</v>
+      </c>
+      <c r="BU58">
+        <v>5</v>
+      </c>
+      <c r="BV58">
+        <v>1</v>
+      </c>
+      <c r="BW58">
+        <v>1</v>
+      </c>
+      <c r="BX58">
+        <v>1</v>
+      </c>
+      <c r="BY58">
+        <v>2</v>
+      </c>
+      <c r="BZ58">
+        <v>1</v>
+      </c>
+      <c r="CA58">
+        <v>1</v>
+      </c>
+      <c r="CB58">
+        <v>3</v>
+      </c>
+      <c r="CC58">
+        <v>1</v>
+      </c>
+      <c r="CD58">
+        <v>5</v>
+      </c>
+      <c r="CE58">
+        <v>3</v>
+      </c>
+      <c r="CF58">
+        <v>5</v>
+      </c>
+      <c r="CG58">
+        <v>5</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI58">
+        <v>1</v>
+      </c>
+      <c r="CJ58">
+        <v>2</v>
+      </c>
+      <c r="CK58">
+        <v>3</v>
+      </c>
+      <c r="CL58">
+        <v>4</v>
+      </c>
+      <c r="CM58">
+        <v>5</v>
+      </c>
+      <c r="CN58">
+        <v>3</v>
+      </c>
+      <c r="CO58">
+        <v>3</v>
+      </c>
+      <c r="CP58">
+        <v>1</v>
+      </c>
+      <c r="CQ58">
+        <v>3</v>
+      </c>
+      <c r="CR58">
+        <v>4</v>
+      </c>
+      <c r="CS58">
+        <v>1</v>
+      </c>
+      <c r="CT58">
+        <v>2</v>
+      </c>
+      <c r="CU58">
+        <v>4</v>
+      </c>
+      <c r="CV58">
+        <v>2</v>
+      </c>
+      <c r="CW58">
+        <v>1</v>
+      </c>
+      <c r="CX58">
+        <v>4</v>
+      </c>
+      <c r="CY58">
+        <v>5</v>
+      </c>
+      <c r="CZ58">
+        <v>5</v>
+      </c>
+      <c r="DA58">
+        <v>5</v>
+      </c>
+      <c r="DB58">
+        <v>5</v>
+      </c>
+      <c r="DC58">
+        <v>1</v>
+      </c>
+      <c r="DD58">
+        <v>1</v>
+      </c>
+      <c r="DE58">
+        <v>1</v>
+      </c>
+      <c r="DF58">
+        <v>1</v>
+      </c>
+      <c r="DG58">
+        <v>2</v>
+      </c>
+      <c r="DH58">
+        <v>3</v>
+      </c>
+      <c r="DI58">
+        <v>4</v>
+      </c>
+      <c r="DJ58">
+        <v>1</v>
+      </c>
+      <c r="DK58">
+        <v>3</v>
+      </c>
+      <c r="DL58">
+        <v>5</v>
+      </c>
+      <c r="DM58">
+        <v>1</v>
+      </c>
+      <c r="DN58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>4</v>
+      </c>
+      <c r="X59">
+        <v>5</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>2</v>
+      </c>
+      <c r="AB59">
+        <v>3</v>
+      </c>
+      <c r="AC59">
+        <v>4</v>
+      </c>
+      <c r="AD59">
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>4</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>4</v>
+      </c>
+      <c r="AL59">
+        <v>5</v>
+      </c>
+      <c r="AM59">
+        <v>4</v>
+      </c>
+      <c r="AN59">
+        <v>5</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>4</v>
+      </c>
+      <c r="AT59">
+        <v>3</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>1</v>
+      </c>
+      <c r="AZ59">
+        <v>1</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+      <c r="BD59">
+        <v>4</v>
+      </c>
+      <c r="BE59">
+        <v>3</v>
+      </c>
+      <c r="BF59">
+        <v>4</v>
+      </c>
+      <c r="BG59">
+        <v>3</v>
+      </c>
+      <c r="BH59">
+        <v>2</v>
+      </c>
+      <c r="BI59">
+        <v>2</v>
+      </c>
+      <c r="BJ59">
+        <v>4</v>
+      </c>
+      <c r="BK59">
+        <v>2</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2</v>
+      </c>
+      <c r="BN59">
+        <v>5</v>
+      </c>
+      <c r="BO59">
+        <v>1</v>
+      </c>
+      <c r="BP59">
+        <v>1</v>
+      </c>
+      <c r="BQ59">
+        <v>1</v>
+      </c>
+      <c r="BR59">
+        <v>1</v>
+      </c>
+      <c r="BS59">
+        <v>1</v>
+      </c>
+      <c r="BT59">
+        <v>1</v>
+      </c>
+      <c r="BU59">
+        <v>3</v>
+      </c>
+      <c r="BV59">
+        <v>1</v>
+      </c>
+      <c r="BW59">
+        <v>1</v>
+      </c>
+      <c r="BX59">
+        <v>1</v>
+      </c>
+      <c r="BY59">
+        <v>3</v>
+      </c>
+      <c r="BZ59">
+        <v>1</v>
+      </c>
+      <c r="CA59">
+        <v>4</v>
+      </c>
+      <c r="CB59">
+        <v>4</v>
+      </c>
+      <c r="CC59">
+        <v>5</v>
+      </c>
+      <c r="CD59">
+        <v>2</v>
+      </c>
+      <c r="CE59">
+        <v>4</v>
+      </c>
+      <c r="CF59">
+        <v>5</v>
+      </c>
+      <c r="CG59">
+        <v>5</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI59">
+        <v>2</v>
+      </c>
+      <c r="CJ59">
+        <v>2</v>
+      </c>
+      <c r="CK59">
+        <v>4</v>
+      </c>
+      <c r="CL59">
+        <v>4</v>
+      </c>
+      <c r="CM59">
+        <v>5</v>
+      </c>
+      <c r="CN59">
+        <v>3</v>
+      </c>
+      <c r="CO59">
+        <v>3</v>
+      </c>
+      <c r="CP59">
+        <v>1</v>
+      </c>
+      <c r="CQ59">
+        <v>5</v>
+      </c>
+      <c r="CR59">
+        <v>1</v>
+      </c>
+      <c r="CS59">
+        <v>1</v>
+      </c>
+      <c r="CT59">
+        <v>3</v>
+      </c>
+      <c r="CU59">
+        <v>3</v>
+      </c>
+      <c r="CV59">
+        <v>4</v>
+      </c>
+      <c r="CW59">
+        <v>3</v>
+      </c>
+      <c r="CX59">
+        <v>3</v>
+      </c>
+      <c r="CY59">
+        <v>4</v>
+      </c>
+      <c r="CZ59">
+        <v>4</v>
+      </c>
+      <c r="DA59">
+        <v>1</v>
+      </c>
+      <c r="DB59">
+        <v>2</v>
+      </c>
+      <c r="DC59">
+        <v>4</v>
+      </c>
+      <c r="DD59">
+        <v>3</v>
+      </c>
+      <c r="DE59">
+        <v>5</v>
+      </c>
+      <c r="DF59">
+        <v>4</v>
+      </c>
+      <c r="DG59">
+        <v>1</v>
+      </c>
+      <c r="DH59">
+        <v>1</v>
+      </c>
+      <c r="DI59">
+        <v>3</v>
+      </c>
+      <c r="DJ59">
+        <v>1</v>
+      </c>
+      <c r="DK59">
+        <v>3</v>
+      </c>
+      <c r="DL59">
+        <v>3</v>
+      </c>
+      <c r="DM59">
+        <v>5</v>
+      </c>
+      <c r="DN59">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN59"/>
+  <dimension ref="A1:DN63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:DO59"/>
+      <selection activeCell="A63" sqref="A63:DO63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21374,6 +21374,1430 @@
         <v>5</v>
       </c>
     </row>
+    <row r="60" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>4</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+      <c r="X60">
+        <v>4</v>
+      </c>
+      <c r="Y60">
+        <v>4</v>
+      </c>
+      <c r="Z60">
+        <v>4</v>
+      </c>
+      <c r="AA60">
+        <v>4</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60">
+        <v>4</v>
+      </c>
+      <c r="AD60">
+        <v>4</v>
+      </c>
+      <c r="AE60">
+        <v>4</v>
+      </c>
+      <c r="AF60">
+        <v>4</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>3</v>
+      </c>
+      <c r="AL60">
+        <v>4</v>
+      </c>
+      <c r="AM60">
+        <v>4</v>
+      </c>
+      <c r="AN60">
+        <v>4</v>
+      </c>
+      <c r="AO60">
+        <v>3</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>4</v>
+      </c>
+      <c r="AT60">
+        <v>3</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>2</v>
+      </c>
+      <c r="AZ60">
+        <v>2</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>3</v>
+      </c>
+      <c r="BD60">
+        <v>4</v>
+      </c>
+      <c r="BE60">
+        <v>4</v>
+      </c>
+      <c r="BF60">
+        <v>3</v>
+      </c>
+      <c r="BG60">
+        <v>5</v>
+      </c>
+      <c r="BH60">
+        <v>4</v>
+      </c>
+      <c r="BI60">
+        <v>3</v>
+      </c>
+      <c r="BJ60">
+        <v>3</v>
+      </c>
+      <c r="BK60">
+        <v>2</v>
+      </c>
+      <c r="BL60">
+        <v>2</v>
+      </c>
+      <c r="BM60">
+        <v>3</v>
+      </c>
+      <c r="BN60">
+        <v>4</v>
+      </c>
+      <c r="BO60">
+        <v>4</v>
+      </c>
+      <c r="BP60">
+        <v>3</v>
+      </c>
+      <c r="BQ60">
+        <v>5</v>
+      </c>
+      <c r="BR60">
+        <v>5</v>
+      </c>
+      <c r="BS60">
+        <v>3</v>
+      </c>
+      <c r="BT60">
+        <v>4</v>
+      </c>
+      <c r="BU60">
+        <v>4</v>
+      </c>
+      <c r="BV60">
+        <v>2</v>
+      </c>
+      <c r="BW60">
+        <v>2</v>
+      </c>
+      <c r="BX60">
+        <v>2</v>
+      </c>
+      <c r="BY60">
+        <v>3</v>
+      </c>
+      <c r="BZ60">
+        <v>2</v>
+      </c>
+      <c r="CA60">
+        <v>4</v>
+      </c>
+      <c r="CB60">
+        <v>5</v>
+      </c>
+      <c r="CC60">
+        <v>4</v>
+      </c>
+      <c r="CD60">
+        <v>4</v>
+      </c>
+      <c r="CE60">
+        <v>4</v>
+      </c>
+      <c r="CF60">
+        <v>5</v>
+      </c>
+      <c r="CG60">
+        <v>2</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI60">
+        <v>2</v>
+      </c>
+      <c r="CJ60">
+        <v>2</v>
+      </c>
+      <c r="CK60">
+        <v>2</v>
+      </c>
+      <c r="CL60">
+        <v>3</v>
+      </c>
+      <c r="CM60">
+        <v>4</v>
+      </c>
+      <c r="CN60">
+        <v>5</v>
+      </c>
+      <c r="CO60">
+        <v>3</v>
+      </c>
+      <c r="CP60">
+        <v>2</v>
+      </c>
+      <c r="CQ60">
+        <v>3</v>
+      </c>
+      <c r="CR60">
+        <v>1</v>
+      </c>
+      <c r="CS60">
+        <v>1</v>
+      </c>
+      <c r="CT60">
+        <v>3</v>
+      </c>
+      <c r="CU60">
+        <v>3</v>
+      </c>
+      <c r="CV60">
+        <v>4</v>
+      </c>
+      <c r="CW60">
+        <v>4</v>
+      </c>
+      <c r="CX60">
+        <v>4</v>
+      </c>
+      <c r="CY60">
+        <v>3</v>
+      </c>
+      <c r="CZ60">
+        <v>3</v>
+      </c>
+      <c r="DA60">
+        <v>3</v>
+      </c>
+      <c r="DB60">
+        <v>4</v>
+      </c>
+      <c r="DC60">
+        <v>4</v>
+      </c>
+      <c r="DD60">
+        <v>3</v>
+      </c>
+      <c r="DE60">
+        <v>3</v>
+      </c>
+      <c r="DF60">
+        <v>3</v>
+      </c>
+      <c r="DG60">
+        <v>2</v>
+      </c>
+      <c r="DH60">
+        <v>2</v>
+      </c>
+      <c r="DI60">
+        <v>3</v>
+      </c>
+      <c r="DJ60">
+        <v>2</v>
+      </c>
+      <c r="DK60">
+        <v>4</v>
+      </c>
+      <c r="DL60">
+        <v>4</v>
+      </c>
+      <c r="DM60">
+        <v>4</v>
+      </c>
+      <c r="DN60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>2</v>
+      </c>
+      <c r="AC61">
+        <v>2</v>
+      </c>
+      <c r="AD61">
+        <v>4</v>
+      </c>
+      <c r="AE61">
+        <v>3</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>3</v>
+      </c>
+      <c r="AL61">
+        <v>3</v>
+      </c>
+      <c r="AM61">
+        <v>3</v>
+      </c>
+      <c r="AN61">
+        <v>5</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>2</v>
+      </c>
+      <c r="AS61">
+        <v>4</v>
+      </c>
+      <c r="AT61">
+        <v>2</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>2</v>
+      </c>
+      <c r="AZ61">
+        <v>3</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>4</v>
+      </c>
+      <c r="BD61">
+        <v>3</v>
+      </c>
+      <c r="BE61">
+        <v>4</v>
+      </c>
+      <c r="BF61">
+        <v>3</v>
+      </c>
+      <c r="BG61">
+        <v>4</v>
+      </c>
+      <c r="BH61">
+        <v>2</v>
+      </c>
+      <c r="BI61">
+        <v>3</v>
+      </c>
+      <c r="BJ61">
+        <v>2</v>
+      </c>
+      <c r="BK61">
+        <v>3</v>
+      </c>
+      <c r="BL61">
+        <v>3</v>
+      </c>
+      <c r="BM61">
+        <v>2</v>
+      </c>
+      <c r="BN61">
+        <v>3</v>
+      </c>
+      <c r="BO61">
+        <v>3</v>
+      </c>
+      <c r="BP61">
+        <v>2</v>
+      </c>
+      <c r="BQ61">
+        <v>2</v>
+      </c>
+      <c r="BR61">
+        <v>2</v>
+      </c>
+      <c r="BS61">
+        <v>3</v>
+      </c>
+      <c r="BT61">
+        <v>4</v>
+      </c>
+      <c r="BU61">
+        <v>4</v>
+      </c>
+      <c r="BV61">
+        <v>1</v>
+      </c>
+      <c r="BW61">
+        <v>2</v>
+      </c>
+      <c r="BX61">
+        <v>3</v>
+      </c>
+      <c r="BY61">
+        <v>3</v>
+      </c>
+      <c r="BZ61">
+        <v>2</v>
+      </c>
+      <c r="CA61">
+        <v>4</v>
+      </c>
+      <c r="CB61">
+        <v>4</v>
+      </c>
+      <c r="CC61">
+        <v>4</v>
+      </c>
+      <c r="CD61">
+        <v>3</v>
+      </c>
+      <c r="CE61">
+        <v>4</v>
+      </c>
+      <c r="CF61">
+        <v>5</v>
+      </c>
+      <c r="CG61">
+        <v>1</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI61">
+        <v>1</v>
+      </c>
+      <c r="CJ61">
+        <v>1</v>
+      </c>
+      <c r="CK61">
+        <v>1</v>
+      </c>
+      <c r="CL61">
+        <v>1</v>
+      </c>
+      <c r="CM61">
+        <v>4</v>
+      </c>
+      <c r="CN61">
+        <v>3</v>
+      </c>
+      <c r="CO61">
+        <v>4</v>
+      </c>
+      <c r="CP61">
+        <v>2</v>
+      </c>
+      <c r="CQ61">
+        <v>3</v>
+      </c>
+      <c r="CR61">
+        <v>1</v>
+      </c>
+      <c r="CS61">
+        <v>1</v>
+      </c>
+      <c r="CT61">
+        <v>1</v>
+      </c>
+      <c r="CU61">
+        <v>1</v>
+      </c>
+      <c r="CV61">
+        <v>5</v>
+      </c>
+      <c r="CW61">
+        <v>4</v>
+      </c>
+      <c r="CX61">
+        <v>4</v>
+      </c>
+      <c r="CY61">
+        <v>2</v>
+      </c>
+      <c r="CZ61">
+        <v>2</v>
+      </c>
+      <c r="DA61">
+        <v>1</v>
+      </c>
+      <c r="DB61">
+        <v>1</v>
+      </c>
+      <c r="DC61">
+        <v>4</v>
+      </c>
+      <c r="DD61">
+        <v>4</v>
+      </c>
+      <c r="DE61">
+        <v>4</v>
+      </c>
+      <c r="DF61">
+        <v>4</v>
+      </c>
+      <c r="DG61">
+        <v>1</v>
+      </c>
+      <c r="DH61">
+        <v>1</v>
+      </c>
+      <c r="DI61">
+        <v>1</v>
+      </c>
+      <c r="DJ61">
+        <v>1</v>
+      </c>
+      <c r="DK61">
+        <v>1</v>
+      </c>
+      <c r="DL61">
+        <v>3</v>
+      </c>
+      <c r="DM61">
+        <v>3</v>
+      </c>
+      <c r="DN61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>4</v>
+      </c>
+      <c r="V62">
+        <v>5</v>
+      </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
+      <c r="X62">
+        <v>5</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>3</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>4</v>
+      </c>
+      <c r="AE62">
+        <v>3</v>
+      </c>
+      <c r="AF62">
+        <v>4</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62">
+        <v>3</v>
+      </c>
+      <c r="AI62">
+        <v>4</v>
+      </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>4</v>
+      </c>
+      <c r="AL62">
+        <v>4</v>
+      </c>
+      <c r="AM62">
+        <v>5</v>
+      </c>
+      <c r="AN62">
+        <v>5</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>3</v>
+      </c>
+      <c r="AS62">
+        <v>4</v>
+      </c>
+      <c r="AT62">
+        <v>2</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>1</v>
+      </c>
+      <c r="AZ62">
+        <v>1</v>
+      </c>
+      <c r="BA62">
+        <v>1</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>1</v>
+      </c>
+      <c r="BD62">
+        <v>5</v>
+      </c>
+      <c r="BE62">
+        <v>5</v>
+      </c>
+      <c r="BF62">
+        <v>5</v>
+      </c>
+      <c r="BG62">
+        <v>5</v>
+      </c>
+      <c r="BH62">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>4</v>
+      </c>
+      <c r="BJ62">
+        <v>2</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>2</v>
+      </c>
+      <c r="BM62">
+        <v>2</v>
+      </c>
+      <c r="BN62">
+        <v>3</v>
+      </c>
+      <c r="BO62">
+        <v>3</v>
+      </c>
+      <c r="BP62">
+        <v>3</v>
+      </c>
+      <c r="BQ62">
+        <v>4</v>
+      </c>
+      <c r="BR62">
+        <v>4</v>
+      </c>
+      <c r="BS62">
+        <v>4</v>
+      </c>
+      <c r="BT62">
+        <v>3</v>
+      </c>
+      <c r="BU62">
+        <v>4</v>
+      </c>
+      <c r="BV62">
+        <v>1</v>
+      </c>
+      <c r="BW62">
+        <v>2</v>
+      </c>
+      <c r="BX62">
+        <v>3</v>
+      </c>
+      <c r="BY62">
+        <v>3</v>
+      </c>
+      <c r="BZ62">
+        <v>2</v>
+      </c>
+      <c r="CA62">
+        <v>5</v>
+      </c>
+      <c r="CB62">
+        <v>5</v>
+      </c>
+      <c r="CC62">
+        <v>2</v>
+      </c>
+      <c r="CD62">
+        <v>5</v>
+      </c>
+      <c r="CE62">
+        <v>4</v>
+      </c>
+      <c r="CF62">
+        <v>5</v>
+      </c>
+      <c r="CG62">
+        <v>1</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI62">
+        <v>1</v>
+      </c>
+      <c r="CJ62">
+        <v>1</v>
+      </c>
+      <c r="CK62">
+        <v>1</v>
+      </c>
+      <c r="CL62">
+        <v>1</v>
+      </c>
+      <c r="CM62">
+        <v>5</v>
+      </c>
+      <c r="CN62">
+        <v>3</v>
+      </c>
+      <c r="CO62">
+        <v>5</v>
+      </c>
+      <c r="CP62">
+        <v>5</v>
+      </c>
+      <c r="CQ62">
+        <v>3</v>
+      </c>
+      <c r="CR62">
+        <v>1</v>
+      </c>
+      <c r="CS62">
+        <v>1</v>
+      </c>
+      <c r="CT62">
+        <v>2</v>
+      </c>
+      <c r="CU62">
+        <v>5</v>
+      </c>
+      <c r="CV62">
+        <v>5</v>
+      </c>
+      <c r="CW62">
+        <v>5</v>
+      </c>
+      <c r="CX62">
+        <v>5</v>
+      </c>
+      <c r="CY62">
+        <v>4</v>
+      </c>
+      <c r="CZ62">
+        <v>5</v>
+      </c>
+      <c r="DA62">
+        <v>5</v>
+      </c>
+      <c r="DB62">
+        <v>2</v>
+      </c>
+      <c r="DC62">
+        <v>2</v>
+      </c>
+      <c r="DD62">
+        <v>3</v>
+      </c>
+      <c r="DE62">
+        <v>1</v>
+      </c>
+      <c r="DF62">
+        <v>4</v>
+      </c>
+      <c r="DG62">
+        <v>2</v>
+      </c>
+      <c r="DH62">
+        <v>1</v>
+      </c>
+      <c r="DI62">
+        <v>4</v>
+      </c>
+      <c r="DJ62">
+        <v>1</v>
+      </c>
+      <c r="DK62">
+        <v>4</v>
+      </c>
+      <c r="DL62">
+        <v>5</v>
+      </c>
+      <c r="DM62">
+        <v>3</v>
+      </c>
+      <c r="DN62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
+      <c r="AB63">
+        <v>2</v>
+      </c>
+      <c r="AC63">
+        <v>4</v>
+      </c>
+      <c r="AD63">
+        <v>3</v>
+      </c>
+      <c r="AE63">
+        <v>3</v>
+      </c>
+      <c r="AF63">
+        <v>4</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>4</v>
+      </c>
+      <c r="AL63">
+        <v>4</v>
+      </c>
+      <c r="AM63">
+        <v>2</v>
+      </c>
+      <c r="AN63">
+        <v>4</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>2</v>
+      </c>
+      <c r="AS63">
+        <v>4</v>
+      </c>
+      <c r="AT63">
+        <v>4</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>2</v>
+      </c>
+      <c r="AZ63">
+        <v>2</v>
+      </c>
+      <c r="BA63">
+        <v>2</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>3</v>
+      </c>
+      <c r="BD63">
+        <v>4</v>
+      </c>
+      <c r="BE63">
+        <v>4</v>
+      </c>
+      <c r="BF63">
+        <v>5</v>
+      </c>
+      <c r="BG63">
+        <v>5</v>
+      </c>
+      <c r="BH63">
+        <v>2</v>
+      </c>
+      <c r="BI63">
+        <v>5</v>
+      </c>
+      <c r="BJ63">
+        <v>1</v>
+      </c>
+      <c r="BK63">
+        <v>3</v>
+      </c>
+      <c r="BL63">
+        <v>3</v>
+      </c>
+      <c r="BM63">
+        <v>1</v>
+      </c>
+      <c r="BN63">
+        <v>3</v>
+      </c>
+      <c r="BO63">
+        <v>3</v>
+      </c>
+      <c r="BP63">
+        <v>1</v>
+      </c>
+      <c r="BQ63">
+        <v>2</v>
+      </c>
+      <c r="BR63">
+        <v>3</v>
+      </c>
+      <c r="BS63">
+        <v>1</v>
+      </c>
+      <c r="BT63">
+        <v>2</v>
+      </c>
+      <c r="BU63">
+        <v>3</v>
+      </c>
+      <c r="BV63">
+        <v>1</v>
+      </c>
+      <c r="BW63">
+        <v>2</v>
+      </c>
+      <c r="BX63">
+        <v>2</v>
+      </c>
+      <c r="BY63">
+        <v>1</v>
+      </c>
+      <c r="BZ63">
+        <v>1</v>
+      </c>
+      <c r="CA63">
+        <v>2</v>
+      </c>
+      <c r="CB63">
+        <v>4</v>
+      </c>
+      <c r="CC63">
+        <v>4</v>
+      </c>
+      <c r="CD63">
+        <v>4</v>
+      </c>
+      <c r="CE63">
+        <v>4</v>
+      </c>
+      <c r="CF63">
+        <v>4</v>
+      </c>
+      <c r="CG63">
+        <v>4</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI63">
+        <v>1</v>
+      </c>
+      <c r="CJ63">
+        <v>1</v>
+      </c>
+      <c r="CK63">
+        <v>1</v>
+      </c>
+      <c r="CL63">
+        <v>1</v>
+      </c>
+      <c r="CM63">
+        <v>4</v>
+      </c>
+      <c r="CN63">
+        <v>4</v>
+      </c>
+      <c r="CO63">
+        <v>4</v>
+      </c>
+      <c r="CP63">
+        <v>4</v>
+      </c>
+      <c r="CQ63">
+        <v>1</v>
+      </c>
+      <c r="CR63">
+        <v>1</v>
+      </c>
+      <c r="CS63">
+        <v>1</v>
+      </c>
+      <c r="CT63">
+        <v>1</v>
+      </c>
+      <c r="CU63">
+        <v>4</v>
+      </c>
+      <c r="CV63">
+        <v>4</v>
+      </c>
+      <c r="CW63">
+        <v>4</v>
+      </c>
+      <c r="CX63">
+        <v>4</v>
+      </c>
+      <c r="CY63">
+        <v>4</v>
+      </c>
+      <c r="CZ63">
+        <v>4</v>
+      </c>
+      <c r="DA63">
+        <v>4</v>
+      </c>
+      <c r="DB63">
+        <v>4</v>
+      </c>
+      <c r="DC63">
+        <v>4</v>
+      </c>
+      <c r="DD63">
+        <v>4</v>
+      </c>
+      <c r="DE63">
+        <v>4</v>
+      </c>
+      <c r="DF63">
+        <v>4</v>
+      </c>
+      <c r="DG63">
+        <v>1</v>
+      </c>
+      <c r="DH63">
+        <v>1</v>
+      </c>
+      <c r="DI63">
+        <v>1</v>
+      </c>
+      <c r="DJ63">
+        <v>1</v>
+      </c>
+      <c r="DK63">
+        <v>4</v>
+      </c>
+      <c r="DL63">
+        <v>4</v>
+      </c>
+      <c r="DM63">
+        <v>4</v>
+      </c>
+      <c r="DN63">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN63"/>
+  <dimension ref="A1:DN64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:DO63"/>
+      <selection activeCell="A64" sqref="A64:DO64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22798,6 +22798,362 @@
         <v>4</v>
       </c>
     </row>
+    <row r="64" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>3</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>5</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>5</v>
+      </c>
+      <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>5</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>5</v>
+      </c>
+      <c r="AO64">
+        <v>5</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>2</v>
+      </c>
+      <c r="AS64">
+        <v>5</v>
+      </c>
+      <c r="AT64">
+        <v>5</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>1</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>1</v>
+      </c>
+      <c r="AY64">
+        <v>1</v>
+      </c>
+      <c r="AZ64">
+        <v>1</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>1</v>
+      </c>
+      <c r="BE64">
+        <v>1</v>
+      </c>
+      <c r="BF64">
+        <v>5</v>
+      </c>
+      <c r="BG64">
+        <v>4</v>
+      </c>
+      <c r="BH64">
+        <v>3</v>
+      </c>
+      <c r="BI64">
+        <v>5</v>
+      </c>
+      <c r="BJ64">
+        <v>3</v>
+      </c>
+      <c r="BK64">
+        <v>2</v>
+      </c>
+      <c r="BL64">
+        <v>1</v>
+      </c>
+      <c r="BM64">
+        <v>3</v>
+      </c>
+      <c r="BN64">
+        <v>1</v>
+      </c>
+      <c r="BO64">
+        <v>1</v>
+      </c>
+      <c r="BP64">
+        <v>4</v>
+      </c>
+      <c r="BQ64">
+        <v>2</v>
+      </c>
+      <c r="BR64">
+        <v>5</v>
+      </c>
+      <c r="BS64">
+        <v>1</v>
+      </c>
+      <c r="BT64">
+        <v>3</v>
+      </c>
+      <c r="BU64">
+        <v>5</v>
+      </c>
+      <c r="BV64">
+        <v>2</v>
+      </c>
+      <c r="BW64">
+        <v>1</v>
+      </c>
+      <c r="BX64">
+        <v>3</v>
+      </c>
+      <c r="BY64">
+        <v>5</v>
+      </c>
+      <c r="BZ64">
+        <v>4</v>
+      </c>
+      <c r="CA64">
+        <v>1</v>
+      </c>
+      <c r="CB64">
+        <v>3</v>
+      </c>
+      <c r="CC64">
+        <v>5</v>
+      </c>
+      <c r="CD64">
+        <v>2</v>
+      </c>
+      <c r="CE64">
+        <v>2</v>
+      </c>
+      <c r="CF64">
+        <v>1</v>
+      </c>
+      <c r="CG64">
+        <v>5</v>
+      </c>
+      <c r="CH64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI64">
+        <v>3</v>
+      </c>
+      <c r="CJ64">
+        <v>5</v>
+      </c>
+      <c r="CK64">
+        <v>2</v>
+      </c>
+      <c r="CL64">
+        <v>1</v>
+      </c>
+      <c r="CM64">
+        <v>1</v>
+      </c>
+      <c r="CN64">
+        <v>5</v>
+      </c>
+      <c r="CO64">
+        <v>5</v>
+      </c>
+      <c r="CP64">
+        <v>5</v>
+      </c>
+      <c r="CQ64">
+        <v>5</v>
+      </c>
+      <c r="CR64">
+        <v>2</v>
+      </c>
+      <c r="CS64">
+        <v>2</v>
+      </c>
+      <c r="CT64">
+        <v>5</v>
+      </c>
+      <c r="CU64">
+        <v>5</v>
+      </c>
+      <c r="CV64">
+        <v>5</v>
+      </c>
+      <c r="CW64">
+        <v>5</v>
+      </c>
+      <c r="CX64">
+        <v>5</v>
+      </c>
+      <c r="CY64">
+        <v>5</v>
+      </c>
+      <c r="CZ64">
+        <v>5</v>
+      </c>
+      <c r="DA64">
+        <v>5</v>
+      </c>
+      <c r="DB64">
+        <v>5</v>
+      </c>
+      <c r="DC64">
+        <v>5</v>
+      </c>
+      <c r="DD64">
+        <v>1</v>
+      </c>
+      <c r="DE64">
+        <v>3</v>
+      </c>
+      <c r="DF64">
+        <v>1</v>
+      </c>
+      <c r="DG64">
+        <v>1</v>
+      </c>
+      <c r="DH64">
+        <v>5</v>
+      </c>
+      <c r="DI64">
+        <v>3</v>
+      </c>
+      <c r="DJ64">
+        <v>2</v>
+      </c>
+      <c r="DK64">
+        <v>2</v>
+      </c>
+      <c r="DL64">
+        <v>4</v>
+      </c>
+      <c r="DM64">
+        <v>2</v>
+      </c>
+      <c r="DN64">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN64"/>
+  <dimension ref="A1:DN69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:DO64"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:DO69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23154,6 +23154,1783 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>4</v>
+      </c>
+      <c r="W65">
+        <v>4</v>
+      </c>
+      <c r="X65">
+        <v>5</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>4</v>
+      </c>
+      <c r="AC65">
+        <v>2</v>
+      </c>
+      <c r="AD65">
+        <v>4</v>
+      </c>
+      <c r="AE65">
+        <v>4</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>2</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>5</v>
+      </c>
+      <c r="AL65">
+        <v>4</v>
+      </c>
+      <c r="AM65">
+        <v>4</v>
+      </c>
+      <c r="AN65">
+        <v>5</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1</v>
+      </c>
+      <c r="AS65">
+        <v>5</v>
+      </c>
+      <c r="AT65">
+        <v>2</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>1</v>
+      </c>
+      <c r="AY65">
+        <v>2</v>
+      </c>
+      <c r="AZ65">
+        <v>1</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>2</v>
+      </c>
+      <c r="BD65">
+        <v>4</v>
+      </c>
+      <c r="BE65">
+        <v>4</v>
+      </c>
+      <c r="BF65">
+        <v>4</v>
+      </c>
+      <c r="BG65">
+        <v>4</v>
+      </c>
+      <c r="BH65">
+        <v>2</v>
+      </c>
+      <c r="BI65">
+        <v>2</v>
+      </c>
+      <c r="BJ65">
+        <v>2</v>
+      </c>
+      <c r="BK65">
+        <v>2</v>
+      </c>
+      <c r="BL65">
+        <v>2</v>
+      </c>
+      <c r="BM65">
+        <v>2</v>
+      </c>
+      <c r="BN65">
+        <v>2</v>
+      </c>
+      <c r="BO65">
+        <v>2</v>
+      </c>
+      <c r="BP65">
+        <v>2</v>
+      </c>
+      <c r="BQ65">
+        <v>2</v>
+      </c>
+      <c r="BR65">
+        <v>4</v>
+      </c>
+      <c r="BS65">
+        <v>2</v>
+      </c>
+      <c r="BT65">
+        <v>2</v>
+      </c>
+      <c r="BU65">
+        <v>4</v>
+      </c>
+      <c r="BV65">
+        <v>2</v>
+      </c>
+      <c r="BW65">
+        <v>2</v>
+      </c>
+      <c r="BX65">
+        <v>2</v>
+      </c>
+      <c r="BY65">
+        <v>2</v>
+      </c>
+      <c r="BZ65">
+        <v>2</v>
+      </c>
+      <c r="CA65">
+        <v>2</v>
+      </c>
+      <c r="CB65">
+        <v>4</v>
+      </c>
+      <c r="CC65">
+        <v>4</v>
+      </c>
+      <c r="CD65">
+        <v>4</v>
+      </c>
+      <c r="CE65">
+        <v>4</v>
+      </c>
+      <c r="CF65">
+        <v>4</v>
+      </c>
+      <c r="CG65">
+        <v>4</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI65">
+        <v>2</v>
+      </c>
+      <c r="CJ65">
+        <v>4</v>
+      </c>
+      <c r="CK65">
+        <v>2</v>
+      </c>
+      <c r="CL65">
+        <v>2</v>
+      </c>
+      <c r="CM65">
+        <v>4</v>
+      </c>
+      <c r="CN65">
+        <v>4</v>
+      </c>
+      <c r="CO65">
+        <v>4</v>
+      </c>
+      <c r="CP65">
+        <v>4</v>
+      </c>
+      <c r="CQ65">
+        <v>2</v>
+      </c>
+      <c r="CR65">
+        <v>2</v>
+      </c>
+      <c r="CS65">
+        <v>2</v>
+      </c>
+      <c r="CT65">
+        <v>2</v>
+      </c>
+      <c r="CU65">
+        <v>4</v>
+      </c>
+      <c r="CV65">
+        <v>4</v>
+      </c>
+      <c r="CW65">
+        <v>4</v>
+      </c>
+      <c r="CX65">
+        <v>4</v>
+      </c>
+      <c r="CY65">
+        <v>4</v>
+      </c>
+      <c r="CZ65">
+        <v>4</v>
+      </c>
+      <c r="DA65">
+        <v>4</v>
+      </c>
+      <c r="DB65">
+        <v>2</v>
+      </c>
+      <c r="DC65">
+        <v>2</v>
+      </c>
+      <c r="DD65">
+        <v>4</v>
+      </c>
+      <c r="DE65">
+        <v>4</v>
+      </c>
+      <c r="DF65">
+        <v>4</v>
+      </c>
+      <c r="DG65">
+        <v>2</v>
+      </c>
+      <c r="DH65">
+        <v>2</v>
+      </c>
+      <c r="DI65">
+        <v>2</v>
+      </c>
+      <c r="DJ65">
+        <v>2</v>
+      </c>
+      <c r="DK65">
+        <v>4</v>
+      </c>
+      <c r="DL65">
+        <v>4</v>
+      </c>
+      <c r="DM65">
+        <v>4</v>
+      </c>
+      <c r="DN65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>4</v>
+      </c>
+      <c r="W66">
+        <v>4</v>
+      </c>
+      <c r="X66">
+        <v>4</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>2</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+      <c r="AC66">
+        <v>4</v>
+      </c>
+      <c r="AD66">
+        <v>3</v>
+      </c>
+      <c r="AE66">
+        <v>3</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>5</v>
+      </c>
+      <c r="AL66">
+        <v>5</v>
+      </c>
+      <c r="AM66">
+        <v>4</v>
+      </c>
+      <c r="AN66">
+        <v>5</v>
+      </c>
+      <c r="AO66">
+        <v>3</v>
+      </c>
+      <c r="AP66">
+        <v>3</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66">
+        <v>4</v>
+      </c>
+      <c r="AT66">
+        <v>2</v>
+      </c>
+      <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>1</v>
+      </c>
+      <c r="AZ66">
+        <v>1</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>2</v>
+      </c>
+      <c r="BD66">
+        <v>5</v>
+      </c>
+      <c r="BE66">
+        <v>5</v>
+      </c>
+      <c r="BF66">
+        <v>5</v>
+      </c>
+      <c r="BG66">
+        <v>4</v>
+      </c>
+      <c r="BH66">
+        <v>4</v>
+      </c>
+      <c r="BI66">
+        <v>2</v>
+      </c>
+      <c r="BJ66">
+        <v>2</v>
+      </c>
+      <c r="BK66">
+        <v>1</v>
+      </c>
+      <c r="BL66">
+        <v>1</v>
+      </c>
+      <c r="BM66">
+        <v>1</v>
+      </c>
+      <c r="BN66">
+        <v>2</v>
+      </c>
+      <c r="BO66">
+        <v>2</v>
+      </c>
+      <c r="BP66">
+        <v>2</v>
+      </c>
+      <c r="BQ66">
+        <v>2</v>
+      </c>
+      <c r="BR66">
+        <v>4</v>
+      </c>
+      <c r="BS66">
+        <v>2</v>
+      </c>
+      <c r="BT66">
+        <v>2</v>
+      </c>
+      <c r="BU66">
+        <v>4</v>
+      </c>
+      <c r="BV66">
+        <v>2</v>
+      </c>
+      <c r="BW66">
+        <v>2</v>
+      </c>
+      <c r="BX66">
+        <v>2</v>
+      </c>
+      <c r="BY66">
+        <v>2</v>
+      </c>
+      <c r="BZ66">
+        <v>2</v>
+      </c>
+      <c r="CA66">
+        <v>2</v>
+      </c>
+      <c r="CB66">
+        <v>4</v>
+      </c>
+      <c r="CC66">
+        <v>4</v>
+      </c>
+      <c r="CD66">
+        <v>4</v>
+      </c>
+      <c r="CE66">
+        <v>4</v>
+      </c>
+      <c r="CF66">
+        <v>4</v>
+      </c>
+      <c r="CG66">
+        <v>4</v>
+      </c>
+      <c r="CH66" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI66">
+        <v>2</v>
+      </c>
+      <c r="CJ66">
+        <v>4</v>
+      </c>
+      <c r="CK66">
+        <v>2</v>
+      </c>
+      <c r="CL66">
+        <v>2</v>
+      </c>
+      <c r="CM66">
+        <v>4</v>
+      </c>
+      <c r="CN66">
+        <v>4</v>
+      </c>
+      <c r="CO66">
+        <v>4</v>
+      </c>
+      <c r="CP66">
+        <v>4</v>
+      </c>
+      <c r="CQ66">
+        <v>2</v>
+      </c>
+      <c r="CR66">
+        <v>2</v>
+      </c>
+      <c r="CS66">
+        <v>2</v>
+      </c>
+      <c r="CT66">
+        <v>2</v>
+      </c>
+      <c r="CU66">
+        <v>4</v>
+      </c>
+      <c r="CV66">
+        <v>4</v>
+      </c>
+      <c r="CW66">
+        <v>4</v>
+      </c>
+      <c r="CX66">
+        <v>4</v>
+      </c>
+      <c r="CY66">
+        <v>4</v>
+      </c>
+      <c r="CZ66">
+        <v>4</v>
+      </c>
+      <c r="DA66">
+        <v>4</v>
+      </c>
+      <c r="DB66">
+        <v>2</v>
+      </c>
+      <c r="DC66">
+        <v>4</v>
+      </c>
+      <c r="DD66">
+        <v>4</v>
+      </c>
+      <c r="DE66">
+        <v>4</v>
+      </c>
+      <c r="DF66">
+        <v>4</v>
+      </c>
+      <c r="DG66">
+        <v>2</v>
+      </c>
+      <c r="DH66">
+        <v>2</v>
+      </c>
+      <c r="DI66">
+        <v>2</v>
+      </c>
+      <c r="DJ66">
+        <v>2</v>
+      </c>
+      <c r="DK66">
+        <v>4</v>
+      </c>
+      <c r="DL66">
+        <v>4</v>
+      </c>
+      <c r="DM66">
+        <v>4</v>
+      </c>
+      <c r="DN66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>4</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>4</v>
+      </c>
+      <c r="X67">
+        <v>4</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+      <c r="AC67">
+        <v>4</v>
+      </c>
+      <c r="AD67">
+        <v>4</v>
+      </c>
+      <c r="AE67">
+        <v>4</v>
+      </c>
+      <c r="AF67">
+        <v>4</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>2</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>4</v>
+      </c>
+      <c r="AL67">
+        <v>4</v>
+      </c>
+      <c r="AM67">
+        <v>4</v>
+      </c>
+      <c r="AN67">
+        <v>5</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>5</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>2</v>
+      </c>
+      <c r="AZ67">
+        <v>2</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>4</v>
+      </c>
+      <c r="BD67">
+        <v>4</v>
+      </c>
+      <c r="BE67">
+        <v>4</v>
+      </c>
+      <c r="BF67">
+        <v>4</v>
+      </c>
+      <c r="BG67">
+        <v>4</v>
+      </c>
+      <c r="BH67">
+        <v>2</v>
+      </c>
+      <c r="BI67">
+        <v>2</v>
+      </c>
+      <c r="BJ67">
+        <v>2</v>
+      </c>
+      <c r="BK67">
+        <v>2</v>
+      </c>
+      <c r="BL67">
+        <v>2</v>
+      </c>
+      <c r="BM67">
+        <v>2</v>
+      </c>
+      <c r="BN67">
+        <v>2</v>
+      </c>
+      <c r="BO67">
+        <v>2</v>
+      </c>
+      <c r="BP67">
+        <v>2</v>
+      </c>
+      <c r="BQ67">
+        <v>4</v>
+      </c>
+      <c r="BR67">
+        <v>2</v>
+      </c>
+      <c r="BS67">
+        <v>2</v>
+      </c>
+      <c r="BT67">
+        <v>4</v>
+      </c>
+      <c r="BU67">
+        <v>2</v>
+      </c>
+      <c r="BV67">
+        <v>2</v>
+      </c>
+      <c r="BW67">
+        <v>2</v>
+      </c>
+      <c r="BX67">
+        <v>2</v>
+      </c>
+      <c r="BY67">
+        <v>2</v>
+      </c>
+      <c r="BZ67">
+        <v>2</v>
+      </c>
+      <c r="CA67">
+        <v>4</v>
+      </c>
+      <c r="CB67">
+        <v>4</v>
+      </c>
+      <c r="CC67">
+        <v>4</v>
+      </c>
+      <c r="CD67">
+        <v>4</v>
+      </c>
+      <c r="CE67">
+        <v>4</v>
+      </c>
+      <c r="CF67">
+        <v>4</v>
+      </c>
+      <c r="CG67" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH67">
+        <v>2</v>
+      </c>
+      <c r="CI67">
+        <v>4</v>
+      </c>
+      <c r="CJ67">
+        <v>2</v>
+      </c>
+      <c r="CK67">
+        <v>2</v>
+      </c>
+      <c r="CL67">
+        <v>4</v>
+      </c>
+      <c r="CM67">
+        <v>4</v>
+      </c>
+      <c r="CN67">
+        <v>4</v>
+      </c>
+      <c r="CO67">
+        <v>4</v>
+      </c>
+      <c r="CP67">
+        <v>2</v>
+      </c>
+      <c r="CQ67">
+        <v>2</v>
+      </c>
+      <c r="CR67">
+        <v>2</v>
+      </c>
+      <c r="CS67">
+        <v>2</v>
+      </c>
+      <c r="CT67">
+        <v>4</v>
+      </c>
+      <c r="CU67">
+        <v>4</v>
+      </c>
+      <c r="CV67">
+        <v>4</v>
+      </c>
+      <c r="CW67">
+        <v>4</v>
+      </c>
+      <c r="CX67">
+        <v>4</v>
+      </c>
+      <c r="CY67">
+        <v>4</v>
+      </c>
+      <c r="CZ67">
+        <v>4</v>
+      </c>
+      <c r="DA67">
+        <v>2</v>
+      </c>
+      <c r="DB67">
+        <v>3</v>
+      </c>
+      <c r="DC67">
+        <v>3</v>
+      </c>
+      <c r="DD67">
+        <v>4</v>
+      </c>
+      <c r="DE67">
+        <v>4</v>
+      </c>
+      <c r="DF67">
+        <v>1</v>
+      </c>
+      <c r="DG67">
+        <v>2</v>
+      </c>
+      <c r="DH67">
+        <v>2</v>
+      </c>
+      <c r="DI67">
+        <v>1</v>
+      </c>
+      <c r="DJ67">
+        <v>3</v>
+      </c>
+      <c r="DK67">
+        <v>4</v>
+      </c>
+      <c r="DL67">
+        <v>4</v>
+      </c>
+      <c r="DM67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <v>5</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <v>2</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>3</v>
+      </c>
+      <c r="AE68">
+        <v>3</v>
+      </c>
+      <c r="AF68">
+        <v>4</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>5</v>
+      </c>
+      <c r="AL68">
+        <v>5</v>
+      </c>
+      <c r="AM68">
+        <v>5</v>
+      </c>
+      <c r="AN68">
+        <v>4</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>5</v>
+      </c>
+      <c r="AT68">
+        <v>5</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>1</v>
+      </c>
+      <c r="AZ68">
+        <v>1</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>1</v>
+      </c>
+      <c r="BC68">
+        <v>3</v>
+      </c>
+      <c r="BD68">
+        <v>5</v>
+      </c>
+      <c r="BE68">
+        <v>5</v>
+      </c>
+      <c r="BF68">
+        <v>3</v>
+      </c>
+      <c r="BG68">
+        <v>3</v>
+      </c>
+      <c r="BH68">
+        <v>2</v>
+      </c>
+      <c r="BI68">
+        <v>2</v>
+      </c>
+      <c r="BJ68">
+        <v>2</v>
+      </c>
+      <c r="BK68">
+        <v>2</v>
+      </c>
+      <c r="BL68">
+        <v>1</v>
+      </c>
+      <c r="BM68">
+        <v>1</v>
+      </c>
+      <c r="BN68">
+        <v>1</v>
+      </c>
+      <c r="BO68">
+        <v>1</v>
+      </c>
+      <c r="BP68">
+        <v>2</v>
+      </c>
+      <c r="BQ68">
+        <v>2</v>
+      </c>
+      <c r="BR68">
+        <v>4</v>
+      </c>
+      <c r="BS68">
+        <v>1</v>
+      </c>
+      <c r="BT68">
+        <v>1</v>
+      </c>
+      <c r="BU68">
+        <v>4</v>
+      </c>
+      <c r="BV68">
+        <v>1</v>
+      </c>
+      <c r="BW68">
+        <v>1</v>
+      </c>
+      <c r="BX68">
+        <v>1</v>
+      </c>
+      <c r="BY68">
+        <v>1</v>
+      </c>
+      <c r="BZ68">
+        <v>1</v>
+      </c>
+      <c r="CA68">
+        <v>1</v>
+      </c>
+      <c r="CB68">
+        <v>5</v>
+      </c>
+      <c r="CC68">
+        <v>5</v>
+      </c>
+      <c r="CD68">
+        <v>5</v>
+      </c>
+      <c r="CE68">
+        <v>5</v>
+      </c>
+      <c r="CF68">
+        <v>5</v>
+      </c>
+      <c r="CG68">
+        <v>1</v>
+      </c>
+      <c r="CH68" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI68">
+        <v>1</v>
+      </c>
+      <c r="CJ68">
+        <v>1</v>
+      </c>
+      <c r="CK68">
+        <v>1</v>
+      </c>
+      <c r="CL68">
+        <v>1</v>
+      </c>
+      <c r="CM68">
+        <v>5</v>
+      </c>
+      <c r="CN68">
+        <v>5</v>
+      </c>
+      <c r="CO68">
+        <v>5</v>
+      </c>
+      <c r="CP68">
+        <v>4</v>
+      </c>
+      <c r="CQ68">
+        <v>1</v>
+      </c>
+      <c r="CR68">
+        <v>1</v>
+      </c>
+      <c r="CS68">
+        <v>1</v>
+      </c>
+      <c r="CT68">
+        <v>1</v>
+      </c>
+      <c r="CU68">
+        <v>5</v>
+      </c>
+      <c r="CV68">
+        <v>5</v>
+      </c>
+      <c r="CW68">
+        <v>5</v>
+      </c>
+      <c r="CX68">
+        <v>3</v>
+      </c>
+      <c r="CY68">
+        <v>1</v>
+      </c>
+      <c r="CZ68">
+        <v>1</v>
+      </c>
+      <c r="DA68">
+        <v>1</v>
+      </c>
+      <c r="DB68">
+        <v>3</v>
+      </c>
+      <c r="DC68">
+        <v>5</v>
+      </c>
+      <c r="DD68">
+        <v>5</v>
+      </c>
+      <c r="DE68">
+        <v>5</v>
+      </c>
+      <c r="DF68">
+        <v>5</v>
+      </c>
+      <c r="DG68">
+        <v>1</v>
+      </c>
+      <c r="DH68">
+        <v>1</v>
+      </c>
+      <c r="DI68">
+        <v>1</v>
+      </c>
+      <c r="DJ68">
+        <v>1</v>
+      </c>
+      <c r="DK68">
+        <v>5</v>
+      </c>
+      <c r="DL68">
+        <v>5</v>
+      </c>
+      <c r="DM68">
+        <v>3</v>
+      </c>
+      <c r="DN68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>4</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+      <c r="X69">
+        <v>4</v>
+      </c>
+      <c r="Y69">
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>2</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
+      </c>
+      <c r="AD69">
+        <v>5</v>
+      </c>
+      <c r="AE69">
+        <v>5</v>
+      </c>
+      <c r="AF69">
+        <v>5</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>5</v>
+      </c>
+      <c r="AL69">
+        <v>5</v>
+      </c>
+      <c r="AM69">
+        <v>5</v>
+      </c>
+      <c r="AN69">
+        <v>5</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>5</v>
+      </c>
+      <c r="AQ69">
+        <v>3</v>
+      </c>
+      <c r="AR69">
+        <v>2</v>
+      </c>
+      <c r="AS69">
+        <v>5</v>
+      </c>
+      <c r="AT69">
+        <v>5</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>2</v>
+      </c>
+      <c r="AZ69">
+        <v>1</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
+        <v>1</v>
+      </c>
+      <c r="BC69">
+        <v>2</v>
+      </c>
+      <c r="BD69">
+        <v>5</v>
+      </c>
+      <c r="BE69">
+        <v>5</v>
+      </c>
+      <c r="BF69">
+        <v>2</v>
+      </c>
+      <c r="BG69">
+        <v>5</v>
+      </c>
+      <c r="BH69">
+        <v>1</v>
+      </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
+      <c r="BJ69">
+        <v>2</v>
+      </c>
+      <c r="BK69">
+        <v>2</v>
+      </c>
+      <c r="BL69">
+        <v>3</v>
+      </c>
+      <c r="BM69">
+        <v>2</v>
+      </c>
+      <c r="BN69">
+        <v>2</v>
+      </c>
+      <c r="BO69">
+        <v>2</v>
+      </c>
+      <c r="BP69">
+        <v>2</v>
+      </c>
+      <c r="BQ69">
+        <v>4</v>
+      </c>
+      <c r="BR69">
+        <v>3</v>
+      </c>
+      <c r="BS69">
+        <v>4</v>
+      </c>
+      <c r="BT69">
+        <v>2</v>
+      </c>
+      <c r="BU69">
+        <v>5</v>
+      </c>
+      <c r="BV69">
+        <v>1</v>
+      </c>
+      <c r="BW69">
+        <v>2</v>
+      </c>
+      <c r="BX69">
+        <v>2</v>
+      </c>
+      <c r="BY69">
+        <v>3</v>
+      </c>
+      <c r="BZ69">
+        <v>2</v>
+      </c>
+      <c r="CA69">
+        <v>2</v>
+      </c>
+      <c r="CB69">
+        <v>4</v>
+      </c>
+      <c r="CC69">
+        <v>5</v>
+      </c>
+      <c r="CD69">
+        <v>5</v>
+      </c>
+      <c r="CE69">
+        <v>4</v>
+      </c>
+      <c r="CF69">
+        <v>4</v>
+      </c>
+      <c r="CG69">
+        <v>4</v>
+      </c>
+      <c r="CH69" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI69">
+        <v>2</v>
+      </c>
+      <c r="CJ69">
+        <v>1</v>
+      </c>
+      <c r="CK69">
+        <v>1</v>
+      </c>
+      <c r="CL69">
+        <v>1</v>
+      </c>
+      <c r="CM69">
+        <v>5</v>
+      </c>
+      <c r="CN69">
+        <v>2</v>
+      </c>
+      <c r="CO69">
+        <v>4</v>
+      </c>
+      <c r="CP69">
+        <v>3</v>
+      </c>
+      <c r="CQ69">
+        <v>2</v>
+      </c>
+      <c r="CR69">
+        <v>1</v>
+      </c>
+      <c r="CS69">
+        <v>4</v>
+      </c>
+      <c r="CT69">
+        <v>3</v>
+      </c>
+      <c r="CU69">
+        <v>4</v>
+      </c>
+      <c r="CV69">
+        <v>4</v>
+      </c>
+      <c r="CW69">
+        <v>2</v>
+      </c>
+      <c r="CX69">
+        <v>2</v>
+      </c>
+      <c r="CY69">
+        <v>2</v>
+      </c>
+      <c r="CZ69">
+        <v>2</v>
+      </c>
+      <c r="DA69">
+        <v>3</v>
+      </c>
+      <c r="DB69">
+        <v>2</v>
+      </c>
+      <c r="DC69">
+        <v>4</v>
+      </c>
+      <c r="DD69">
+        <v>4</v>
+      </c>
+      <c r="DE69">
+        <v>3</v>
+      </c>
+      <c r="DF69">
+        <v>4</v>
+      </c>
+      <c r="DG69">
+        <v>1</v>
+      </c>
+      <c r="DH69">
+        <v>1</v>
+      </c>
+      <c r="DI69">
+        <v>2</v>
+      </c>
+      <c r="DJ69">
+        <v>2</v>
+      </c>
+      <c r="DK69">
+        <v>4</v>
+      </c>
+      <c r="DL69">
+        <v>2</v>
+      </c>
+      <c r="DM69">
+        <v>3</v>
+      </c>
+      <c r="DN69">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN69"/>
+  <dimension ref="A1:DN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:DO69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24931,6 +24931,2142 @@
         <v>4</v>
       </c>
     </row>
+    <row r="70" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>4</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>4</v>
+      </c>
+      <c r="X70">
+        <v>3</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>2</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AB70">
+        <v>2</v>
+      </c>
+      <c r="AC70">
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>4</v>
+      </c>
+      <c r="AE70">
+        <v>4</v>
+      </c>
+      <c r="AF70">
+        <v>3</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>2</v>
+      </c>
+      <c r="AI70">
+        <v>2</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>5</v>
+      </c>
+      <c r="AL70">
+        <v>4</v>
+      </c>
+      <c r="AM70">
+        <v>4</v>
+      </c>
+      <c r="AN70">
+        <v>5</v>
+      </c>
+      <c r="AO70">
+        <v>2</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>3</v>
+      </c>
+      <c r="AR70">
+        <v>3</v>
+      </c>
+      <c r="AS70">
+        <v>4</v>
+      </c>
+      <c r="AT70">
+        <v>3</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="AY70">
+        <v>1</v>
+      </c>
+      <c r="AZ70">
+        <v>2</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>1</v>
+      </c>
+      <c r="BC70">
+        <v>2</v>
+      </c>
+      <c r="BD70">
+        <v>4</v>
+      </c>
+      <c r="BE70">
+        <v>4</v>
+      </c>
+      <c r="BF70">
+        <v>4</v>
+      </c>
+      <c r="BG70">
+        <v>4</v>
+      </c>
+      <c r="BH70">
+        <v>3</v>
+      </c>
+      <c r="BI70">
+        <v>4</v>
+      </c>
+      <c r="BJ70">
+        <v>2</v>
+      </c>
+      <c r="BK70">
+        <v>2</v>
+      </c>
+      <c r="BL70">
+        <v>2</v>
+      </c>
+      <c r="BM70">
+        <v>2</v>
+      </c>
+      <c r="BN70">
+        <v>3</v>
+      </c>
+      <c r="BO70">
+        <v>3</v>
+      </c>
+      <c r="BP70">
+        <v>2</v>
+      </c>
+      <c r="BQ70">
+        <v>2</v>
+      </c>
+      <c r="BR70">
+        <v>4</v>
+      </c>
+      <c r="BS70">
+        <v>2</v>
+      </c>
+      <c r="BT70">
+        <v>4</v>
+      </c>
+      <c r="BU70">
+        <v>4</v>
+      </c>
+      <c r="BV70">
+        <v>2</v>
+      </c>
+      <c r="BW70">
+        <v>2</v>
+      </c>
+      <c r="BX70">
+        <v>2</v>
+      </c>
+      <c r="BY70">
+        <v>2</v>
+      </c>
+      <c r="BZ70">
+        <v>2</v>
+      </c>
+      <c r="CA70">
+        <v>2</v>
+      </c>
+      <c r="CB70">
+        <v>4</v>
+      </c>
+      <c r="CC70">
+        <v>4</v>
+      </c>
+      <c r="CD70">
+        <v>4</v>
+      </c>
+      <c r="CE70">
+        <v>5</v>
+      </c>
+      <c r="CF70">
+        <v>4</v>
+      </c>
+      <c r="CG70">
+        <v>3</v>
+      </c>
+      <c r="CH70" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI70">
+        <v>2</v>
+      </c>
+      <c r="CJ70">
+        <v>4</v>
+      </c>
+      <c r="CK70">
+        <v>2</v>
+      </c>
+      <c r="CL70">
+        <v>2</v>
+      </c>
+      <c r="CM70">
+        <v>4</v>
+      </c>
+      <c r="CN70">
+        <v>4</v>
+      </c>
+      <c r="CO70">
+        <v>4</v>
+      </c>
+      <c r="CP70">
+        <v>4</v>
+      </c>
+      <c r="CQ70">
+        <v>2</v>
+      </c>
+      <c r="CR70">
+        <v>2</v>
+      </c>
+      <c r="CS70">
+        <v>2</v>
+      </c>
+      <c r="CT70">
+        <v>2</v>
+      </c>
+      <c r="CU70">
+        <v>4</v>
+      </c>
+      <c r="CV70">
+        <v>4</v>
+      </c>
+      <c r="CW70">
+        <v>4</v>
+      </c>
+      <c r="CX70">
+        <v>4</v>
+      </c>
+      <c r="CY70">
+        <v>2</v>
+      </c>
+      <c r="CZ70">
+        <v>3</v>
+      </c>
+      <c r="DA70">
+        <v>3</v>
+      </c>
+      <c r="DB70">
+        <v>2</v>
+      </c>
+      <c r="DC70">
+        <v>4</v>
+      </c>
+      <c r="DD70">
+        <v>4</v>
+      </c>
+      <c r="DE70">
+        <v>4</v>
+      </c>
+      <c r="DF70">
+        <v>4</v>
+      </c>
+      <c r="DG70">
+        <v>2</v>
+      </c>
+      <c r="DH70">
+        <v>2</v>
+      </c>
+      <c r="DI70">
+        <v>2</v>
+      </c>
+      <c r="DJ70">
+        <v>2</v>
+      </c>
+      <c r="DK70">
+        <v>4</v>
+      </c>
+      <c r="DL70">
+        <v>4</v>
+      </c>
+      <c r="DM70">
+        <v>4</v>
+      </c>
+      <c r="DN70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>5</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>4</v>
+      </c>
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>2</v>
+      </c>
+      <c r="AA71">
+        <v>4</v>
+      </c>
+      <c r="AB71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
+      </c>
+      <c r="AD71">
+        <v>4</v>
+      </c>
+      <c r="AE71">
+        <v>4</v>
+      </c>
+      <c r="AF71">
+        <v>4</v>
+      </c>
+      <c r="AG71">
+        <v>2</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>2</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>4</v>
+      </c>
+      <c r="AL71">
+        <v>4</v>
+      </c>
+      <c r="AM71">
+        <v>4</v>
+      </c>
+      <c r="AN71">
+        <v>5</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>2</v>
+      </c>
+      <c r="AT71">
+        <v>3</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>2</v>
+      </c>
+      <c r="AZ71">
+        <v>2</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>3</v>
+      </c>
+      <c r="BD71">
+        <v>3</v>
+      </c>
+      <c r="BE71">
+        <v>5</v>
+      </c>
+      <c r="BF71">
+        <v>1</v>
+      </c>
+      <c r="BG71">
+        <v>3</v>
+      </c>
+      <c r="BH71">
+        <v>5</v>
+      </c>
+      <c r="BI71">
+        <v>3</v>
+      </c>
+      <c r="BJ71">
+        <v>3</v>
+      </c>
+      <c r="BK71">
+        <v>3</v>
+      </c>
+      <c r="BL71">
+        <v>1</v>
+      </c>
+      <c r="BM71">
+        <v>5</v>
+      </c>
+      <c r="BN71">
+        <v>3</v>
+      </c>
+      <c r="BO71">
+        <v>2</v>
+      </c>
+      <c r="BP71">
+        <v>2</v>
+      </c>
+      <c r="BQ71">
+        <v>2</v>
+      </c>
+      <c r="BR71">
+        <v>4</v>
+      </c>
+      <c r="BS71">
+        <v>3</v>
+      </c>
+      <c r="BT71">
+        <v>3</v>
+      </c>
+      <c r="BU71">
+        <v>1</v>
+      </c>
+      <c r="BV71">
+        <v>4</v>
+      </c>
+      <c r="BW71">
+        <v>1</v>
+      </c>
+      <c r="BX71">
+        <v>3</v>
+      </c>
+      <c r="BY71">
+        <v>3</v>
+      </c>
+      <c r="BZ71">
+        <v>1</v>
+      </c>
+      <c r="CA71">
+        <v>3</v>
+      </c>
+      <c r="CB71">
+        <v>2</v>
+      </c>
+      <c r="CC71">
+        <v>3</v>
+      </c>
+      <c r="CD71">
+        <v>2</v>
+      </c>
+      <c r="CE71">
+        <v>3</v>
+      </c>
+      <c r="CF71">
+        <v>5</v>
+      </c>
+      <c r="CG71">
+        <v>3</v>
+      </c>
+      <c r="CH71" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <v>2</v>
+      </c>
+      <c r="CJ71">
+        <v>4</v>
+      </c>
+      <c r="CK71">
+        <v>3</v>
+      </c>
+      <c r="CL71">
+        <v>2</v>
+      </c>
+      <c r="CM71">
+        <v>3</v>
+      </c>
+      <c r="CN71">
+        <v>1</v>
+      </c>
+      <c r="CO71">
+        <v>3</v>
+      </c>
+      <c r="CP71">
+        <v>4</v>
+      </c>
+      <c r="CQ71">
+        <v>2</v>
+      </c>
+      <c r="CR71">
+        <v>2</v>
+      </c>
+      <c r="CS71">
+        <v>3</v>
+      </c>
+      <c r="CT71">
+        <v>1</v>
+      </c>
+      <c r="CU71">
+        <v>4</v>
+      </c>
+      <c r="CV71">
+        <v>3</v>
+      </c>
+      <c r="CW71">
+        <v>1</v>
+      </c>
+      <c r="CX71">
+        <v>4</v>
+      </c>
+      <c r="CY71">
+        <v>2</v>
+      </c>
+      <c r="CZ71">
+        <v>3</v>
+      </c>
+      <c r="DA71">
+        <v>4</v>
+      </c>
+      <c r="DB71">
+        <v>2</v>
+      </c>
+      <c r="DC71">
+        <v>3</v>
+      </c>
+      <c r="DD71">
+        <v>2</v>
+      </c>
+      <c r="DE71">
+        <v>3</v>
+      </c>
+      <c r="DF71">
+        <v>1</v>
+      </c>
+      <c r="DG71">
+        <v>2</v>
+      </c>
+      <c r="DH71">
+        <v>3</v>
+      </c>
+      <c r="DI71">
+        <v>3</v>
+      </c>
+      <c r="DJ71">
+        <v>2</v>
+      </c>
+      <c r="DK71">
+        <v>4</v>
+      </c>
+      <c r="DL71">
+        <v>3</v>
+      </c>
+      <c r="DM71">
+        <v>5</v>
+      </c>
+      <c r="DN71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
+      </c>
+      <c r="V72">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>4</v>
+      </c>
+      <c r="Y72">
+        <v>2</v>
+      </c>
+      <c r="Z72">
+        <v>2</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
+        <v>4</v>
+      </c>
+      <c r="AE72">
+        <v>4</v>
+      </c>
+      <c r="AF72">
+        <v>4</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>4</v>
+      </c>
+      <c r="AL72">
+        <v>4</v>
+      </c>
+      <c r="AM72">
+        <v>4</v>
+      </c>
+      <c r="AN72">
+        <v>4</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>5</v>
+      </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>1</v>
+      </c>
+      <c r="AZ72">
+        <v>1</v>
+      </c>
+      <c r="BA72">
+        <v>1</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>2</v>
+      </c>
+      <c r="BD72">
+        <v>2</v>
+      </c>
+      <c r="BE72">
+        <v>2</v>
+      </c>
+      <c r="BF72">
+        <v>2</v>
+      </c>
+      <c r="BG72">
+        <v>4</v>
+      </c>
+      <c r="BH72">
+        <v>1</v>
+      </c>
+      <c r="BI72">
+        <v>1</v>
+      </c>
+      <c r="BJ72">
+        <v>1</v>
+      </c>
+      <c r="BK72">
+        <v>1</v>
+      </c>
+      <c r="BL72">
+        <v>2</v>
+      </c>
+      <c r="BM72">
+        <v>1</v>
+      </c>
+      <c r="BN72">
+        <v>2</v>
+      </c>
+      <c r="BO72">
+        <v>1</v>
+      </c>
+      <c r="BP72">
+        <v>1</v>
+      </c>
+      <c r="BQ72">
+        <v>4</v>
+      </c>
+      <c r="BR72">
+        <v>4</v>
+      </c>
+      <c r="BS72">
+        <v>2</v>
+      </c>
+      <c r="BT72">
+        <v>4</v>
+      </c>
+      <c r="BU72">
+        <v>4</v>
+      </c>
+      <c r="BV72">
+        <v>1</v>
+      </c>
+      <c r="BW72">
+        <v>2</v>
+      </c>
+      <c r="BX72">
+        <v>2</v>
+      </c>
+      <c r="BY72">
+        <v>1</v>
+      </c>
+      <c r="BZ72">
+        <v>1</v>
+      </c>
+      <c r="CA72">
+        <v>2</v>
+      </c>
+      <c r="CB72">
+        <v>2</v>
+      </c>
+      <c r="CC72">
+        <v>4</v>
+      </c>
+      <c r="CD72">
+        <v>4</v>
+      </c>
+      <c r="CE72">
+        <v>4</v>
+      </c>
+      <c r="CF72">
+        <v>2</v>
+      </c>
+      <c r="CG72">
+        <v>4</v>
+      </c>
+      <c r="CH72" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI72">
+        <v>2</v>
+      </c>
+      <c r="CJ72">
+        <v>4</v>
+      </c>
+      <c r="CK72">
+        <v>2</v>
+      </c>
+      <c r="CL72">
+        <v>2</v>
+      </c>
+      <c r="CM72">
+        <v>4</v>
+      </c>
+      <c r="CN72">
+        <v>2</v>
+      </c>
+      <c r="CO72">
+        <v>4</v>
+      </c>
+      <c r="CP72">
+        <v>4</v>
+      </c>
+      <c r="CQ72">
+        <v>2</v>
+      </c>
+      <c r="CR72">
+        <v>2</v>
+      </c>
+      <c r="CS72">
+        <v>2</v>
+      </c>
+      <c r="CT72">
+        <v>2</v>
+      </c>
+      <c r="CU72">
+        <v>4</v>
+      </c>
+      <c r="CV72">
+        <v>4</v>
+      </c>
+      <c r="CW72">
+        <v>4</v>
+      </c>
+      <c r="CX72">
+        <v>4</v>
+      </c>
+      <c r="CY72">
+        <v>4</v>
+      </c>
+      <c r="CZ72">
+        <v>2</v>
+      </c>
+      <c r="DA72">
+        <v>2</v>
+      </c>
+      <c r="DB72">
+        <v>2</v>
+      </c>
+      <c r="DC72">
+        <v>2</v>
+      </c>
+      <c r="DD72">
+        <v>2</v>
+      </c>
+      <c r="DE72">
+        <v>4</v>
+      </c>
+      <c r="DF72">
+        <v>4</v>
+      </c>
+      <c r="DG72">
+        <v>2</v>
+      </c>
+      <c r="DH72">
+        <v>2</v>
+      </c>
+      <c r="DI72">
+        <v>2</v>
+      </c>
+      <c r="DJ72">
+        <v>2</v>
+      </c>
+      <c r="DK72">
+        <v>4</v>
+      </c>
+      <c r="DL72">
+        <v>2</v>
+      </c>
+      <c r="DM72">
+        <v>2</v>
+      </c>
+      <c r="DN72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>5</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>5</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>5</v>
+      </c>
+      <c r="V73">
+        <v>4</v>
+      </c>
+      <c r="W73">
+        <v>5</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>5</v>
+      </c>
+      <c r="AB73">
+        <v>2</v>
+      </c>
+      <c r="AC73">
+        <v>5</v>
+      </c>
+      <c r="AD73">
+        <v>4</v>
+      </c>
+      <c r="AE73">
+        <v>4</v>
+      </c>
+      <c r="AF73">
+        <v>4</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>5</v>
+      </c>
+      <c r="AL73">
+        <v>4</v>
+      </c>
+      <c r="AM73">
+        <v>5</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>2</v>
+      </c>
+      <c r="AS73">
+        <v>5</v>
+      </c>
+      <c r="AT73">
+        <v>2</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>4</v>
+      </c>
+      <c r="AZ73">
+        <v>2</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>1</v>
+      </c>
+      <c r="BD73">
+        <v>5</v>
+      </c>
+      <c r="BE73">
+        <v>5</v>
+      </c>
+      <c r="BF73">
+        <v>4</v>
+      </c>
+      <c r="BG73">
+        <v>4</v>
+      </c>
+      <c r="BH73">
+        <v>4</v>
+      </c>
+      <c r="BI73">
+        <v>2</v>
+      </c>
+      <c r="BJ73">
+        <v>1</v>
+      </c>
+      <c r="BK73">
+        <v>1</v>
+      </c>
+      <c r="BL73">
+        <v>1</v>
+      </c>
+      <c r="BM73">
+        <v>2</v>
+      </c>
+      <c r="BN73">
+        <v>2</v>
+      </c>
+      <c r="BO73">
+        <v>2</v>
+      </c>
+      <c r="BP73">
+        <v>2</v>
+      </c>
+      <c r="BQ73">
+        <v>2</v>
+      </c>
+      <c r="BR73">
+        <v>5</v>
+      </c>
+      <c r="BS73">
+        <v>2</v>
+      </c>
+      <c r="BT73">
+        <v>2</v>
+      </c>
+      <c r="BU73">
+        <v>4</v>
+      </c>
+      <c r="BV73">
+        <v>2</v>
+      </c>
+      <c r="BW73">
+        <v>1</v>
+      </c>
+      <c r="BX73">
+        <v>1</v>
+      </c>
+      <c r="BY73">
+        <v>1</v>
+      </c>
+      <c r="BZ73">
+        <v>1</v>
+      </c>
+      <c r="CA73">
+        <v>2</v>
+      </c>
+      <c r="CB73">
+        <v>4</v>
+      </c>
+      <c r="CC73">
+        <v>4</v>
+      </c>
+      <c r="CD73">
+        <v>4</v>
+      </c>
+      <c r="CE73">
+        <v>4</v>
+      </c>
+      <c r="CF73">
+        <v>5</v>
+      </c>
+      <c r="CG73">
+        <v>4</v>
+      </c>
+      <c r="CH73" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI73">
+        <v>2</v>
+      </c>
+      <c r="CJ73">
+        <v>4</v>
+      </c>
+      <c r="CK73">
+        <v>2</v>
+      </c>
+      <c r="CL73">
+        <v>2</v>
+      </c>
+      <c r="CM73">
+        <v>4</v>
+      </c>
+      <c r="CN73">
+        <v>2</v>
+      </c>
+      <c r="CO73">
+        <v>4</v>
+      </c>
+      <c r="CP73">
+        <v>5</v>
+      </c>
+      <c r="CQ73">
+        <v>2</v>
+      </c>
+      <c r="CR73">
+        <v>2</v>
+      </c>
+      <c r="CS73">
+        <v>2</v>
+      </c>
+      <c r="CT73">
+        <v>2</v>
+      </c>
+      <c r="CU73">
+        <v>4</v>
+      </c>
+      <c r="CV73">
+        <v>4</v>
+      </c>
+      <c r="CW73">
+        <v>4</v>
+      </c>
+      <c r="CX73">
+        <v>4</v>
+      </c>
+      <c r="CY73">
+        <v>4</v>
+      </c>
+      <c r="CZ73">
+        <v>4</v>
+      </c>
+      <c r="DA73">
+        <v>5</v>
+      </c>
+      <c r="DB73">
+        <v>1</v>
+      </c>
+      <c r="DC73">
+        <v>5</v>
+      </c>
+      <c r="DD73">
+        <v>5</v>
+      </c>
+      <c r="DE73">
+        <v>4</v>
+      </c>
+      <c r="DF73">
+        <v>4</v>
+      </c>
+      <c r="DG73">
+        <v>2</v>
+      </c>
+      <c r="DH73">
+        <v>2</v>
+      </c>
+      <c r="DI73">
+        <v>2</v>
+      </c>
+      <c r="DJ73">
+        <v>2</v>
+      </c>
+      <c r="DK73">
+        <v>4</v>
+      </c>
+      <c r="DL73">
+        <v>4</v>
+      </c>
+      <c r="DM73">
+        <v>4</v>
+      </c>
+      <c r="DN73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>2</v>
+      </c>
+      <c r="AE74">
+        <v>3</v>
+      </c>
+      <c r="AF74">
+        <v>3</v>
+      </c>
+      <c r="AG74">
+        <v>2</v>
+      </c>
+      <c r="AH74">
+        <v>2</v>
+      </c>
+      <c r="AI74">
+        <v>2</v>
+      </c>
+      <c r="AJ74">
+        <v>4</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>3</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>3</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>3</v>
+      </c>
+      <c r="AS74">
+        <v>3</v>
+      </c>
+      <c r="AT74">
+        <v>2</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>1</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>3</v>
+      </c>
+      <c r="AZ74">
+        <v>2</v>
+      </c>
+      <c r="BA74">
+        <v>1</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>5</v>
+      </c>
+      <c r="BD74">
+        <v>3</v>
+      </c>
+      <c r="BE74">
+        <v>3</v>
+      </c>
+      <c r="BF74">
+        <v>3</v>
+      </c>
+      <c r="BG74">
+        <v>1</v>
+      </c>
+      <c r="BH74">
+        <v>1</v>
+      </c>
+      <c r="BI74">
+        <v>1</v>
+      </c>
+      <c r="BJ74">
+        <v>2</v>
+      </c>
+      <c r="BK74">
+        <v>3</v>
+      </c>
+      <c r="BL74">
+        <v>3</v>
+      </c>
+      <c r="BM74">
+        <v>2</v>
+      </c>
+      <c r="BN74">
+        <v>4</v>
+      </c>
+      <c r="BO74">
+        <v>4</v>
+      </c>
+      <c r="BP74">
+        <v>2</v>
+      </c>
+      <c r="BQ74">
+        <v>3</v>
+      </c>
+      <c r="BR74">
+        <v>2</v>
+      </c>
+      <c r="BS74">
+        <v>2</v>
+      </c>
+      <c r="BT74">
+        <v>2</v>
+      </c>
+      <c r="BU74">
+        <v>1</v>
+      </c>
+      <c r="BV74">
+        <v>3</v>
+      </c>
+      <c r="BW74">
+        <v>4</v>
+      </c>
+      <c r="BX74">
+        <v>5</v>
+      </c>
+      <c r="BY74">
+        <v>5</v>
+      </c>
+      <c r="BZ74">
+        <v>4</v>
+      </c>
+      <c r="CA74">
+        <v>3</v>
+      </c>
+      <c r="CB74">
+        <v>3</v>
+      </c>
+      <c r="CC74">
+        <v>2</v>
+      </c>
+      <c r="CD74">
+        <v>1</v>
+      </c>
+      <c r="CE74">
+        <v>2</v>
+      </c>
+      <c r="CF74">
+        <v>1</v>
+      </c>
+      <c r="CG74">
+        <v>1</v>
+      </c>
+      <c r="CH74" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI74">
+        <v>3</v>
+      </c>
+      <c r="CJ74">
+        <v>2</v>
+      </c>
+      <c r="CK74">
+        <v>4</v>
+      </c>
+      <c r="CL74">
+        <v>2</v>
+      </c>
+      <c r="CM74">
+        <v>5</v>
+      </c>
+      <c r="CN74">
+        <v>4</v>
+      </c>
+      <c r="CO74">
+        <v>2</v>
+      </c>
+      <c r="CP74">
+        <v>4</v>
+      </c>
+      <c r="CQ74">
+        <v>3</v>
+      </c>
+      <c r="CR74">
+        <v>3</v>
+      </c>
+      <c r="CS74">
+        <v>4</v>
+      </c>
+      <c r="CT74">
+        <v>5</v>
+      </c>
+      <c r="CU74">
+        <v>1</v>
+      </c>
+      <c r="CV74">
+        <v>2</v>
+      </c>
+      <c r="CW74">
+        <v>5</v>
+      </c>
+      <c r="CX74">
+        <v>4</v>
+      </c>
+      <c r="CY74">
+        <v>5</v>
+      </c>
+      <c r="CZ74">
+        <v>3</v>
+      </c>
+      <c r="DA74">
+        <v>4</v>
+      </c>
+      <c r="DB74">
+        <v>3</v>
+      </c>
+      <c r="DC74">
+        <v>3</v>
+      </c>
+      <c r="DD74">
+        <v>1</v>
+      </c>
+      <c r="DE74">
+        <v>2</v>
+      </c>
+      <c r="DF74">
+        <v>3</v>
+      </c>
+      <c r="DG74">
+        <v>4</v>
+      </c>
+      <c r="DH74">
+        <v>1</v>
+      </c>
+      <c r="DI74">
+        <v>4</v>
+      </c>
+      <c r="DJ74">
+        <v>2</v>
+      </c>
+      <c r="DK74">
+        <v>3</v>
+      </c>
+      <c r="DL74">
+        <v>5</v>
+      </c>
+      <c r="DM74">
+        <v>2</v>
+      </c>
+      <c r="DN74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
+        <v>4</v>
+      </c>
+      <c r="X75">
+        <v>4</v>
+      </c>
+      <c r="Y75">
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>4</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+      <c r="AC75">
+        <v>4</v>
+      </c>
+      <c r="AD75">
+        <v>4</v>
+      </c>
+      <c r="AE75">
+        <v>4</v>
+      </c>
+      <c r="AF75">
+        <v>4</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>2</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>5</v>
+      </c>
+      <c r="AL75">
+        <v>3</v>
+      </c>
+      <c r="AM75">
+        <v>4</v>
+      </c>
+      <c r="AN75">
+        <v>5</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+      <c r="AS75">
+        <v>5</v>
+      </c>
+      <c r="AT75">
+        <v>1</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>4</v>
+      </c>
+      <c r="AZ75">
+        <v>2</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>4</v>
+      </c>
+      <c r="BE75">
+        <v>4</v>
+      </c>
+      <c r="BF75">
+        <v>4</v>
+      </c>
+      <c r="BG75">
+        <v>4</v>
+      </c>
+      <c r="BH75">
+        <v>4</v>
+      </c>
+      <c r="BI75">
+        <v>3</v>
+      </c>
+      <c r="BJ75">
+        <v>3</v>
+      </c>
+      <c r="BK75">
+        <v>2</v>
+      </c>
+      <c r="BL75">
+        <v>2</v>
+      </c>
+      <c r="BM75">
+        <v>3</v>
+      </c>
+      <c r="BN75">
+        <v>2</v>
+      </c>
+      <c r="BO75">
+        <v>2</v>
+      </c>
+      <c r="BP75">
+        <v>2</v>
+      </c>
+      <c r="BQ75">
+        <v>2</v>
+      </c>
+      <c r="BR75">
+        <v>4</v>
+      </c>
+      <c r="BS75">
+        <v>3</v>
+      </c>
+      <c r="BT75">
+        <v>2</v>
+      </c>
+      <c r="BU75">
+        <v>3</v>
+      </c>
+      <c r="BV75">
+        <v>2</v>
+      </c>
+      <c r="BW75">
+        <v>2</v>
+      </c>
+      <c r="BX75">
+        <v>2</v>
+      </c>
+      <c r="BY75">
+        <v>2</v>
+      </c>
+      <c r="BZ75">
+        <v>2</v>
+      </c>
+      <c r="CA75">
+        <v>2</v>
+      </c>
+      <c r="CB75">
+        <v>4</v>
+      </c>
+      <c r="CC75">
+        <v>4</v>
+      </c>
+      <c r="CD75">
+        <v>4</v>
+      </c>
+      <c r="CE75">
+        <v>4</v>
+      </c>
+      <c r="CF75">
+        <v>4</v>
+      </c>
+      <c r="CG75">
+        <v>3</v>
+      </c>
+      <c r="CH75" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI75">
+        <v>2</v>
+      </c>
+      <c r="CJ75">
+        <v>3</v>
+      </c>
+      <c r="CK75">
+        <v>2</v>
+      </c>
+      <c r="CL75">
+        <v>2</v>
+      </c>
+      <c r="CM75">
+        <v>4</v>
+      </c>
+      <c r="CN75">
+        <v>4</v>
+      </c>
+      <c r="CO75">
+        <v>4</v>
+      </c>
+      <c r="CP75">
+        <v>4</v>
+      </c>
+      <c r="CQ75">
+        <v>2</v>
+      </c>
+      <c r="CR75">
+        <v>2</v>
+      </c>
+      <c r="CS75">
+        <v>2</v>
+      </c>
+      <c r="CT75">
+        <v>2</v>
+      </c>
+      <c r="CU75">
+        <v>4</v>
+      </c>
+      <c r="CV75">
+        <v>4</v>
+      </c>
+      <c r="CW75">
+        <v>4</v>
+      </c>
+      <c r="CX75">
+        <v>4</v>
+      </c>
+      <c r="CY75">
+        <v>4</v>
+      </c>
+      <c r="CZ75">
+        <v>4</v>
+      </c>
+      <c r="DA75">
+        <v>4</v>
+      </c>
+      <c r="DB75">
+        <v>2</v>
+      </c>
+      <c r="DC75">
+        <v>4</v>
+      </c>
+      <c r="DD75">
+        <v>4</v>
+      </c>
+      <c r="DE75">
+        <v>4</v>
+      </c>
+      <c r="DF75">
+        <v>4</v>
+      </c>
+      <c r="DG75">
+        <v>2</v>
+      </c>
+      <c r="DH75">
+        <v>2</v>
+      </c>
+      <c r="DI75">
+        <v>2</v>
+      </c>
+      <c r="DJ75">
+        <v>2</v>
+      </c>
+      <c r="DK75">
+        <v>4</v>
+      </c>
+      <c r="DL75">
+        <v>4</v>
+      </c>
+      <c r="DM75">
+        <v>4</v>
+      </c>
+      <c r="DN75">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN75"/>
+  <dimension ref="A1:DN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27067,6 +27067,718 @@
         <v>4</v>
       </c>
     </row>
+    <row r="76" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="V76">
+        <v>4</v>
+      </c>
+      <c r="W76">
+        <v>4</v>
+      </c>
+      <c r="X76">
+        <v>4</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>2</v>
+      </c>
+      <c r="AC76">
+        <v>4</v>
+      </c>
+      <c r="AD76">
+        <v>4</v>
+      </c>
+      <c r="AE76">
+        <v>4</v>
+      </c>
+      <c r="AF76">
+        <v>4</v>
+      </c>
+      <c r="AG76">
+        <v>3</v>
+      </c>
+      <c r="AH76">
+        <v>2</v>
+      </c>
+      <c r="AI76">
+        <v>2</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>5</v>
+      </c>
+      <c r="AL76">
+        <v>4</v>
+      </c>
+      <c r="AM76">
+        <v>4</v>
+      </c>
+      <c r="AN76">
+        <v>5</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+      <c r="AS76">
+        <v>5</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>2</v>
+      </c>
+      <c r="AZ76">
+        <v>2</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>2</v>
+      </c>
+      <c r="BD76">
+        <v>4</v>
+      </c>
+      <c r="BE76">
+        <v>4</v>
+      </c>
+      <c r="BF76">
+        <v>4</v>
+      </c>
+      <c r="BG76">
+        <v>4</v>
+      </c>
+      <c r="BH76">
+        <v>4</v>
+      </c>
+      <c r="BI76">
+        <v>1</v>
+      </c>
+      <c r="BJ76">
+        <v>3</v>
+      </c>
+      <c r="BK76">
+        <v>3</v>
+      </c>
+      <c r="BL76">
+        <v>3</v>
+      </c>
+      <c r="BM76">
+        <v>2</v>
+      </c>
+      <c r="BN76">
+        <v>4</v>
+      </c>
+      <c r="BO76">
+        <v>2</v>
+      </c>
+      <c r="BP76">
+        <v>2</v>
+      </c>
+      <c r="BQ76">
+        <v>2</v>
+      </c>
+      <c r="BR76">
+        <v>4</v>
+      </c>
+      <c r="BS76">
+        <v>2</v>
+      </c>
+      <c r="BT76">
+        <v>2</v>
+      </c>
+      <c r="BU76">
+        <v>4</v>
+      </c>
+      <c r="BV76">
+        <v>2</v>
+      </c>
+      <c r="BW76">
+        <v>2</v>
+      </c>
+      <c r="BX76">
+        <v>2</v>
+      </c>
+      <c r="BY76">
+        <v>2</v>
+      </c>
+      <c r="BZ76">
+        <v>2</v>
+      </c>
+      <c r="CA76">
+        <v>2</v>
+      </c>
+      <c r="CB76">
+        <v>4</v>
+      </c>
+      <c r="CC76">
+        <v>4</v>
+      </c>
+      <c r="CD76">
+        <v>4</v>
+      </c>
+      <c r="CE76">
+        <v>4</v>
+      </c>
+      <c r="CF76">
+        <v>4</v>
+      </c>
+      <c r="CG76">
+        <v>4</v>
+      </c>
+      <c r="CH76" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI76">
+        <v>2</v>
+      </c>
+      <c r="CJ76">
+        <v>4</v>
+      </c>
+      <c r="CK76">
+        <v>2</v>
+      </c>
+      <c r="CL76">
+        <v>2</v>
+      </c>
+      <c r="CM76">
+        <v>4</v>
+      </c>
+      <c r="CN76">
+        <v>4</v>
+      </c>
+      <c r="CO76">
+        <v>4</v>
+      </c>
+      <c r="CP76">
+        <v>2</v>
+      </c>
+      <c r="CQ76">
+        <v>2</v>
+      </c>
+      <c r="CR76">
+        <v>2</v>
+      </c>
+      <c r="CS76">
+        <v>2</v>
+      </c>
+      <c r="CT76">
+        <v>2</v>
+      </c>
+      <c r="CU76">
+        <v>4</v>
+      </c>
+      <c r="CV76">
+        <v>4</v>
+      </c>
+      <c r="CW76">
+        <v>4</v>
+      </c>
+      <c r="CX76">
+        <v>4</v>
+      </c>
+      <c r="CY76">
+        <v>4</v>
+      </c>
+      <c r="CZ76">
+        <v>4</v>
+      </c>
+      <c r="DA76">
+        <v>4</v>
+      </c>
+      <c r="DB76">
+        <v>2</v>
+      </c>
+      <c r="DC76">
+        <v>4</v>
+      </c>
+      <c r="DD76">
+        <v>4</v>
+      </c>
+      <c r="DE76">
+        <v>4</v>
+      </c>
+      <c r="DF76">
+        <v>4</v>
+      </c>
+      <c r="DG76">
+        <v>2</v>
+      </c>
+      <c r="DH76">
+        <v>2</v>
+      </c>
+      <c r="DI76">
+        <v>2</v>
+      </c>
+      <c r="DJ76">
+        <v>2</v>
+      </c>
+      <c r="DK76">
+        <v>4</v>
+      </c>
+      <c r="DL76">
+        <v>4</v>
+      </c>
+      <c r="DM76">
+        <v>4</v>
+      </c>
+      <c r="DN76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>5</v>
+      </c>
+      <c r="W77">
+        <v>4</v>
+      </c>
+      <c r="X77">
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>2</v>
+      </c>
+      <c r="AC77">
+        <v>4</v>
+      </c>
+      <c r="AD77">
+        <v>5</v>
+      </c>
+      <c r="AE77">
+        <v>4</v>
+      </c>
+      <c r="AF77">
+        <v>4</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>5</v>
+      </c>
+      <c r="AL77">
+        <v>5</v>
+      </c>
+      <c r="AM77">
+        <v>3</v>
+      </c>
+      <c r="AN77">
+        <v>4</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>2</v>
+      </c>
+      <c r="AR77">
+        <v>1</v>
+      </c>
+      <c r="AS77">
+        <v>5</v>
+      </c>
+      <c r="AT77">
+        <v>2</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>2</v>
+      </c>
+      <c r="AZ77">
+        <v>3</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>4</v>
+      </c>
+      <c r="BD77">
+        <v>5</v>
+      </c>
+      <c r="BE77">
+        <v>5</v>
+      </c>
+      <c r="BF77">
+        <v>5</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>3</v>
+      </c>
+      <c r="BI77">
+        <v>1</v>
+      </c>
+      <c r="BJ77">
+        <v>2</v>
+      </c>
+      <c r="BK77">
+        <v>3</v>
+      </c>
+      <c r="BL77">
+        <v>2</v>
+      </c>
+      <c r="BM77">
+        <v>3</v>
+      </c>
+      <c r="BN77">
+        <v>3</v>
+      </c>
+      <c r="BO77">
+        <v>3</v>
+      </c>
+      <c r="BP77">
+        <v>2</v>
+      </c>
+      <c r="BQ77">
+        <v>2</v>
+      </c>
+      <c r="BR77">
+        <v>5</v>
+      </c>
+      <c r="BS77">
+        <v>3</v>
+      </c>
+      <c r="BT77">
+        <v>3</v>
+      </c>
+      <c r="BU77">
+        <v>4</v>
+      </c>
+      <c r="BV77">
+        <v>2</v>
+      </c>
+      <c r="BW77">
+        <v>3</v>
+      </c>
+      <c r="BX77">
+        <v>2</v>
+      </c>
+      <c r="BY77">
+        <v>3</v>
+      </c>
+      <c r="BZ77">
+        <v>2</v>
+      </c>
+      <c r="CA77">
+        <v>3</v>
+      </c>
+      <c r="CB77">
+        <v>2</v>
+      </c>
+      <c r="CC77">
+        <v>5</v>
+      </c>
+      <c r="CD77">
+        <v>2</v>
+      </c>
+      <c r="CE77">
+        <v>1</v>
+      </c>
+      <c r="CF77">
+        <v>3</v>
+      </c>
+      <c r="CG77">
+        <v>2</v>
+      </c>
+      <c r="CH77" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI77">
+        <v>1</v>
+      </c>
+      <c r="CJ77">
+        <v>2</v>
+      </c>
+      <c r="CK77">
+        <v>2</v>
+      </c>
+      <c r="CL77">
+        <v>3</v>
+      </c>
+      <c r="CM77">
+        <v>5</v>
+      </c>
+      <c r="CN77">
+        <v>3</v>
+      </c>
+      <c r="CO77">
+        <v>4</v>
+      </c>
+      <c r="CP77">
+        <v>2</v>
+      </c>
+      <c r="CQ77">
+        <v>3</v>
+      </c>
+      <c r="CR77">
+        <v>1</v>
+      </c>
+      <c r="CS77">
+        <v>2</v>
+      </c>
+      <c r="CT77">
+        <v>3</v>
+      </c>
+      <c r="CU77">
+        <v>4</v>
+      </c>
+      <c r="CV77">
+        <v>4</v>
+      </c>
+      <c r="CW77">
+        <v>4</v>
+      </c>
+      <c r="CX77">
+        <v>4</v>
+      </c>
+      <c r="CY77">
+        <v>4</v>
+      </c>
+      <c r="CZ77">
+        <v>3</v>
+      </c>
+      <c r="DA77">
+        <v>4</v>
+      </c>
+      <c r="DB77">
+        <v>3</v>
+      </c>
+      <c r="DC77">
+        <v>3</v>
+      </c>
+      <c r="DD77">
+        <v>4</v>
+      </c>
+      <c r="DE77">
+        <v>4</v>
+      </c>
+      <c r="DF77">
+        <v>4</v>
+      </c>
+      <c r="DG77">
+        <v>2</v>
+      </c>
+      <c r="DH77">
+        <v>2</v>
+      </c>
+      <c r="DI77">
+        <v>2</v>
+      </c>
+      <c r="DJ77">
+        <v>1</v>
+      </c>
+      <c r="DK77">
+        <v>4</v>
+      </c>
+      <c r="DL77">
+        <v>4</v>
+      </c>
+      <c r="DM77">
+        <v>4</v>
+      </c>
+      <c r="DN77">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hasil penelitian.xlsx
+++ b/hasil penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -355,11 +355,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN77"/>
+  <dimension ref="A1:DN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24030,7 +24028,7 @@
         <v>2</v>
       </c>
       <c r="BC67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD67">
         <v>4</v>
@@ -24045,7 +24043,7 @@
         <v>4</v>
       </c>
       <c r="BH67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI67">
         <v>2</v>
@@ -24072,19 +24070,19 @@
         <v>2</v>
       </c>
       <c r="BQ67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BR67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS67">
         <v>2</v>
       </c>
       <c r="BT67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BV67">
         <v>2</v>
@@ -24102,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="CA67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CB67">
         <v>4</v>
@@ -24119,23 +24117,23 @@
       <c r="CF67">
         <v>4</v>
       </c>
-      <c r="CG67" t="s">
-        <v>0</v>
+      <c r="CG67">
+        <v>4</v>
       </c>
       <c r="CH67">
         <v>2</v>
       </c>
       <c r="CI67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CJ67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK67">
         <v>2</v>
       </c>
       <c r="CL67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM67">
         <v>4</v>
@@ -24147,7 +24145,7 @@
         <v>4</v>
       </c>
       <c r="CP67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CQ67">
         <v>2</v>
@@ -24159,7 +24157,7 @@
         <v>2</v>
       </c>
       <c r="CT67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CU67">
         <v>4</v>
@@ -24180,42 +24178,45 @@
         <v>4</v>
       </c>
       <c r="DA67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DB67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC67">
         <v>3</v>
       </c>
       <c r="DD67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DE67">
         <v>4</v>
       </c>
       <c r="DF67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DG67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DH67">
         <v>2</v>
       </c>
       <c r="DI67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DK67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL67">
         <v>4</v>
       </c>
       <c r="DM67">
+        <v>4</v>
+      </c>
+      <c r="DN67">
         <v>4</v>
       </c>
     </row>
@@ -27777,6 +27778,3566 @@
       </c>
       <c r="DN77">
         <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>4</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>2</v>
+      </c>
+      <c r="X78">
+        <v>2</v>
+      </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <v>4</v>
+      </c>
+      <c r="AB78">
+        <v>2</v>
+      </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
+      <c r="AD78">
+        <v>3</v>
+      </c>
+      <c r="AE78">
+        <v>3</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+      <c r="AG78">
+        <v>2</v>
+      </c>
+      <c r="AH78">
+        <v>2</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>4</v>
+      </c>
+      <c r="AL78">
+        <v>4</v>
+      </c>
+      <c r="AM78">
+        <v>4</v>
+      </c>
+      <c r="AN78">
+        <v>5</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
+      <c r="AS78">
+        <v>5</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>2</v>
+      </c>
+      <c r="AZ78">
+        <v>2</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>2</v>
+      </c>
+      <c r="BD78">
+        <v>4</v>
+      </c>
+      <c r="BE78">
+        <v>4</v>
+      </c>
+      <c r="BF78">
+        <v>4</v>
+      </c>
+      <c r="BG78">
+        <v>4</v>
+      </c>
+      <c r="BH78">
+        <v>4</v>
+      </c>
+      <c r="BI78">
+        <v>2</v>
+      </c>
+      <c r="BJ78">
+        <v>2</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>2</v>
+      </c>
+      <c r="BM78">
+        <v>2</v>
+      </c>
+      <c r="BN78">
+        <v>2</v>
+      </c>
+      <c r="BO78">
+        <v>2</v>
+      </c>
+      <c r="BP78">
+        <v>2</v>
+      </c>
+      <c r="BQ78">
+        <v>2</v>
+      </c>
+      <c r="BR78">
+        <v>4</v>
+      </c>
+      <c r="BS78">
+        <v>2</v>
+      </c>
+      <c r="BT78">
+        <v>2</v>
+      </c>
+      <c r="BU78">
+        <v>4</v>
+      </c>
+      <c r="BV78">
+        <v>2</v>
+      </c>
+      <c r="BW78">
+        <v>1</v>
+      </c>
+      <c r="BX78">
+        <v>1</v>
+      </c>
+      <c r="BY78">
+        <v>1</v>
+      </c>
+      <c r="BZ78">
+        <v>2</v>
+      </c>
+      <c r="CA78">
+        <v>2</v>
+      </c>
+      <c r="CB78">
+        <v>4</v>
+      </c>
+      <c r="CC78">
+        <v>4</v>
+      </c>
+      <c r="CD78">
+        <v>4</v>
+      </c>
+      <c r="CE78">
+        <v>4</v>
+      </c>
+      <c r="CF78">
+        <v>4</v>
+      </c>
+      <c r="CG78">
+        <v>4</v>
+      </c>
+      <c r="CH78" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI78">
+        <v>2</v>
+      </c>
+      <c r="CJ78">
+        <v>4</v>
+      </c>
+      <c r="CK78">
+        <v>2</v>
+      </c>
+      <c r="CL78">
+        <v>2</v>
+      </c>
+      <c r="CM78">
+        <v>4</v>
+      </c>
+      <c r="CN78">
+        <v>5</v>
+      </c>
+      <c r="CO78">
+        <v>5</v>
+      </c>
+      <c r="CP78">
+        <v>3</v>
+      </c>
+      <c r="CQ78">
+        <v>2</v>
+      </c>
+      <c r="CR78">
+        <v>2</v>
+      </c>
+      <c r="CS78">
+        <v>2</v>
+      </c>
+      <c r="CT78">
+        <v>2</v>
+      </c>
+      <c r="CU78">
+        <v>4</v>
+      </c>
+      <c r="CV78">
+        <v>4</v>
+      </c>
+      <c r="CW78">
+        <v>4</v>
+      </c>
+      <c r="CX78">
+        <v>4</v>
+      </c>
+      <c r="CY78">
+        <v>4</v>
+      </c>
+      <c r="CZ78">
+        <v>4</v>
+      </c>
+      <c r="DA78">
+        <v>4</v>
+      </c>
+      <c r="DB78">
+        <v>2</v>
+      </c>
+      <c r="DC78">
+        <v>2</v>
+      </c>
+      <c r="DD78">
+        <v>4</v>
+      </c>
+      <c r="DE78">
+        <v>4</v>
+      </c>
+      <c r="DF78">
+        <v>4</v>
+      </c>
+      <c r="DG78">
+        <v>2</v>
+      </c>
+      <c r="DH78">
+        <v>2</v>
+      </c>
+      <c r="DI78">
+        <v>2</v>
+      </c>
+      <c r="DJ78">
+        <v>2</v>
+      </c>
+      <c r="DK78">
+        <v>4</v>
+      </c>
+      <c r="DL78">
+        <v>4</v>
+      </c>
+      <c r="DM78">
+        <v>4</v>
+      </c>
+      <c r="DN78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>4</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>4</v>
+      </c>
+      <c r="X79">
+        <v>4</v>
+      </c>
+      <c r="Y79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AA79">
+        <v>4</v>
+      </c>
+      <c r="AB79">
+        <v>3</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79">
+        <v>2</v>
+      </c>
+      <c r="AE79">
+        <v>3</v>
+      </c>
+      <c r="AF79">
+        <v>3</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>3</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>5</v>
+      </c>
+      <c r="AL79">
+        <v>4</v>
+      </c>
+      <c r="AM79">
+        <v>3</v>
+      </c>
+      <c r="AN79">
+        <v>5</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AS79">
+        <v>4</v>
+      </c>
+      <c r="AT79">
+        <v>3</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>2</v>
+      </c>
+      <c r="AY79">
+        <v>2</v>
+      </c>
+      <c r="AZ79">
+        <v>2</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>1</v>
+      </c>
+      <c r="BC79">
+        <v>3</v>
+      </c>
+      <c r="BD79">
+        <v>5</v>
+      </c>
+      <c r="BE79">
+        <v>5</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>5</v>
+      </c>
+      <c r="BH79">
+        <v>4</v>
+      </c>
+      <c r="BI79">
+        <v>2</v>
+      </c>
+      <c r="BJ79">
+        <v>2</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>3</v>
+      </c>
+      <c r="BM79">
+        <v>3</v>
+      </c>
+      <c r="BN79">
+        <v>3</v>
+      </c>
+      <c r="BO79">
+        <v>2</v>
+      </c>
+      <c r="BP79">
+        <v>2</v>
+      </c>
+      <c r="BQ79">
+        <v>3</v>
+      </c>
+      <c r="BR79">
+        <v>4</v>
+      </c>
+      <c r="BS79">
+        <v>3</v>
+      </c>
+      <c r="BT79">
+        <v>3</v>
+      </c>
+      <c r="BU79">
+        <v>4</v>
+      </c>
+      <c r="BV79">
+        <v>1</v>
+      </c>
+      <c r="BW79">
+        <v>2</v>
+      </c>
+      <c r="BX79">
+        <v>2</v>
+      </c>
+      <c r="BY79">
+        <v>2</v>
+      </c>
+      <c r="BZ79">
+        <v>2</v>
+      </c>
+      <c r="CA79">
+        <v>2</v>
+      </c>
+      <c r="CB79">
+        <v>5</v>
+      </c>
+      <c r="CC79">
+        <v>4</v>
+      </c>
+      <c r="CD79">
+        <v>4</v>
+      </c>
+      <c r="CE79">
+        <v>5</v>
+      </c>
+      <c r="CF79">
+        <v>5</v>
+      </c>
+      <c r="CG79">
+        <v>4</v>
+      </c>
+      <c r="CH79" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI79">
+        <v>2</v>
+      </c>
+      <c r="CJ79">
+        <v>2</v>
+      </c>
+      <c r="CK79">
+        <v>1</v>
+      </c>
+      <c r="CL79">
+        <v>1</v>
+      </c>
+      <c r="CM79">
+        <v>2</v>
+      </c>
+      <c r="CN79">
+        <v>3</v>
+      </c>
+      <c r="CO79">
+        <v>5</v>
+      </c>
+      <c r="CP79">
+        <v>2</v>
+      </c>
+      <c r="CQ79">
+        <v>3</v>
+      </c>
+      <c r="CR79">
+        <v>1</v>
+      </c>
+      <c r="CS79">
+        <v>1</v>
+      </c>
+      <c r="CT79">
+        <v>3</v>
+      </c>
+      <c r="CU79">
+        <v>3</v>
+      </c>
+      <c r="CV79">
+        <v>5</v>
+      </c>
+      <c r="CW79">
+        <v>4</v>
+      </c>
+      <c r="CX79">
+        <v>3</v>
+      </c>
+      <c r="CY79">
+        <v>4</v>
+      </c>
+      <c r="CZ79">
+        <v>5</v>
+      </c>
+      <c r="DA79">
+        <v>4</v>
+      </c>
+      <c r="DB79">
+        <v>4</v>
+      </c>
+      <c r="DC79">
+        <v>3</v>
+      </c>
+      <c r="DD79">
+        <v>4</v>
+      </c>
+      <c r="DE79">
+        <v>4</v>
+      </c>
+      <c r="DF79">
+        <v>4</v>
+      </c>
+      <c r="DG79">
+        <v>2</v>
+      </c>
+      <c r="DH79">
+        <v>1</v>
+      </c>
+      <c r="DI79">
+        <v>3</v>
+      </c>
+      <c r="DJ79">
+        <v>1</v>
+      </c>
+      <c r="DK79">
+        <v>5</v>
+      </c>
+      <c r="DL79">
+        <v>4</v>
+      </c>
+      <c r="DM79">
+        <v>4</v>
+      </c>
+      <c r="DN79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>5</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>5</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+      <c r="AC80">
+        <v>2</v>
+      </c>
+      <c r="AD80">
+        <v>5</v>
+      </c>
+      <c r="AE80">
+        <v>4</v>
+      </c>
+      <c r="AF80">
+        <v>4</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>5</v>
+      </c>
+      <c r="AL80">
+        <v>4</v>
+      </c>
+      <c r="AM80">
+        <v>5</v>
+      </c>
+      <c r="AN80">
+        <v>5</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+      <c r="AS80">
+        <v>5</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>1</v>
+      </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
+      <c r="BA80">
+        <v>1</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>1</v>
+      </c>
+      <c r="BD80">
+        <v>5</v>
+      </c>
+      <c r="BE80">
+        <v>5</v>
+      </c>
+      <c r="BF80">
+        <v>5</v>
+      </c>
+      <c r="BG80">
+        <v>5</v>
+      </c>
+      <c r="BH80">
+        <v>1</v>
+      </c>
+      <c r="BI80">
+        <v>5</v>
+      </c>
+      <c r="BJ80">
+        <v>1</v>
+      </c>
+      <c r="BK80">
+        <v>1</v>
+      </c>
+      <c r="BL80">
+        <v>1</v>
+      </c>
+      <c r="BM80">
+        <v>1</v>
+      </c>
+      <c r="BN80">
+        <v>1</v>
+      </c>
+      <c r="BO80">
+        <v>1</v>
+      </c>
+      <c r="BP80">
+        <v>1</v>
+      </c>
+      <c r="BQ80">
+        <v>1</v>
+      </c>
+      <c r="BR80">
+        <v>1</v>
+      </c>
+      <c r="BS80">
+        <v>1</v>
+      </c>
+      <c r="BT80">
+        <v>1</v>
+      </c>
+      <c r="BU80">
+        <v>1</v>
+      </c>
+      <c r="BV80">
+        <v>1</v>
+      </c>
+      <c r="BW80">
+        <v>1</v>
+      </c>
+      <c r="BX80">
+        <v>1</v>
+      </c>
+      <c r="BY80">
+        <v>1</v>
+      </c>
+      <c r="BZ80">
+        <v>1</v>
+      </c>
+      <c r="CA80">
+        <v>1</v>
+      </c>
+      <c r="CB80">
+        <v>5</v>
+      </c>
+      <c r="CC80">
+        <v>5</v>
+      </c>
+      <c r="CD80">
+        <v>5</v>
+      </c>
+      <c r="CE80">
+        <v>5</v>
+      </c>
+      <c r="CF80">
+        <v>5</v>
+      </c>
+      <c r="CG80">
+        <v>5</v>
+      </c>
+      <c r="CH80" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI80">
+        <v>1</v>
+      </c>
+      <c r="CJ80">
+        <v>1</v>
+      </c>
+      <c r="CK80">
+        <v>1</v>
+      </c>
+      <c r="CL80">
+        <v>1</v>
+      </c>
+      <c r="CM80">
+        <v>1</v>
+      </c>
+      <c r="CN80">
+        <v>1</v>
+      </c>
+      <c r="CO80">
+        <v>5</v>
+      </c>
+      <c r="CP80">
+        <v>5</v>
+      </c>
+      <c r="CQ80">
+        <v>1</v>
+      </c>
+      <c r="CR80">
+        <v>1</v>
+      </c>
+      <c r="CS80">
+        <v>1</v>
+      </c>
+      <c r="CT80">
+        <v>1</v>
+      </c>
+      <c r="CU80">
+        <v>5</v>
+      </c>
+      <c r="CV80">
+        <v>5</v>
+      </c>
+      <c r="CW80">
+        <v>5</v>
+      </c>
+      <c r="CX80">
+        <v>5</v>
+      </c>
+      <c r="CY80">
+        <v>5</v>
+      </c>
+      <c r="CZ80">
+        <v>1</v>
+      </c>
+      <c r="DA80">
+        <v>1</v>
+      </c>
+      <c r="DB80">
+        <v>1</v>
+      </c>
+      <c r="DC80">
+        <v>5</v>
+      </c>
+      <c r="DD80">
+        <v>5</v>
+      </c>
+      <c r="DE80">
+        <v>5</v>
+      </c>
+      <c r="DF80">
+        <v>5</v>
+      </c>
+      <c r="DG80">
+        <v>1</v>
+      </c>
+      <c r="DH80">
+        <v>1</v>
+      </c>
+      <c r="DI80">
+        <v>1</v>
+      </c>
+      <c r="DJ80">
+        <v>1</v>
+      </c>
+      <c r="DK80">
+        <v>5</v>
+      </c>
+      <c r="DL80">
+        <v>5</v>
+      </c>
+      <c r="DM80">
+        <v>5</v>
+      </c>
+      <c r="DN80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>3</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
+      </c>
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>3</v>
+      </c>
+      <c r="AB81">
+        <v>4</v>
+      </c>
+      <c r="AC81">
+        <v>2</v>
+      </c>
+      <c r="AD81">
+        <v>3</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>3</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+      <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>5</v>
+      </c>
+      <c r="AL81">
+        <v>5</v>
+      </c>
+      <c r="AM81">
+        <v>3</v>
+      </c>
+      <c r="AN81">
+        <v>5</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1</v>
+      </c>
+      <c r="AS81">
+        <v>5</v>
+      </c>
+      <c r="AT81">
+        <v>3</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>1</v>
+      </c>
+      <c r="AZ81">
+        <v>1</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>2</v>
+      </c>
+      <c r="BD81">
+        <v>5</v>
+      </c>
+      <c r="BE81">
+        <v>5</v>
+      </c>
+      <c r="BF81">
+        <v>3</v>
+      </c>
+      <c r="BG81">
+        <v>5</v>
+      </c>
+      <c r="BH81">
+        <v>1</v>
+      </c>
+      <c r="BI81">
+        <v>1</v>
+      </c>
+      <c r="BJ81">
+        <v>2</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>2</v>
+      </c>
+      <c r="BO81">
+        <v>1</v>
+      </c>
+      <c r="BP81">
+        <v>3</v>
+      </c>
+      <c r="BQ81">
+        <v>4</v>
+      </c>
+      <c r="BR81">
+        <v>3</v>
+      </c>
+      <c r="BS81">
+        <v>3</v>
+      </c>
+      <c r="BT81">
+        <v>4</v>
+      </c>
+      <c r="BU81">
+        <v>4</v>
+      </c>
+      <c r="BV81">
+        <v>1</v>
+      </c>
+      <c r="BW81">
+        <v>1</v>
+      </c>
+      <c r="BX81">
+        <v>1</v>
+      </c>
+      <c r="BY81">
+        <v>3</v>
+      </c>
+      <c r="BZ81">
+        <v>1</v>
+      </c>
+      <c r="CA81">
+        <v>3</v>
+      </c>
+      <c r="CB81">
+        <v>4</v>
+      </c>
+      <c r="CC81">
+        <v>5</v>
+      </c>
+      <c r="CD81">
+        <v>3</v>
+      </c>
+      <c r="CE81">
+        <v>2</v>
+      </c>
+      <c r="CF81">
+        <v>3</v>
+      </c>
+      <c r="CG81">
+        <v>3</v>
+      </c>
+      <c r="CH81" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI81">
+        <v>1</v>
+      </c>
+      <c r="CJ81">
+        <v>1</v>
+      </c>
+      <c r="CK81">
+        <v>1</v>
+      </c>
+      <c r="CL81">
+        <v>1</v>
+      </c>
+      <c r="CM81">
+        <v>5</v>
+      </c>
+      <c r="CN81">
+        <v>5</v>
+      </c>
+      <c r="CO81">
+        <v>5</v>
+      </c>
+      <c r="CP81">
+        <v>1</v>
+      </c>
+      <c r="CQ81">
+        <v>2</v>
+      </c>
+      <c r="CR81">
+        <v>1</v>
+      </c>
+      <c r="CS81">
+        <v>1</v>
+      </c>
+      <c r="CT81">
+        <v>3</v>
+      </c>
+      <c r="CU81">
+        <v>3</v>
+      </c>
+      <c r="CV81">
+        <v>5</v>
+      </c>
+      <c r="CW81">
+        <v>5</v>
+      </c>
+      <c r="CX81">
+        <v>4</v>
+      </c>
+      <c r="CY81">
+        <v>1</v>
+      </c>
+      <c r="CZ81">
+        <v>1</v>
+      </c>
+      <c r="DA81">
+        <v>1</v>
+      </c>
+      <c r="DB81">
+        <v>3</v>
+      </c>
+      <c r="DC81">
+        <v>5</v>
+      </c>
+      <c r="DD81">
+        <v>4</v>
+      </c>
+      <c r="DE81">
+        <v>4</v>
+      </c>
+      <c r="DF81">
+        <v>3</v>
+      </c>
+      <c r="DG81">
+        <v>1</v>
+      </c>
+      <c r="DH81">
+        <v>1</v>
+      </c>
+      <c r="DI81">
+        <v>1</v>
+      </c>
+      <c r="DJ81">
+        <v>1</v>
+      </c>
+      <c r="DK81">
+        <v>4</v>
+      </c>
+      <c r="DL81">
+        <v>4</v>
+      </c>
+      <c r="DM81">
+        <v>5</v>
+      </c>
+      <c r="DN81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>4</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>4</v>
+      </c>
+      <c r="X82">
+        <v>4</v>
+      </c>
+      <c r="Y82">
+        <v>2</v>
+      </c>
+      <c r="Z82">
+        <v>2</v>
+      </c>
+      <c r="AA82">
+        <v>4</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+      <c r="AC82">
+        <v>4</v>
+      </c>
+      <c r="AD82">
+        <v>4</v>
+      </c>
+      <c r="AE82">
+        <v>4</v>
+      </c>
+      <c r="AF82">
+        <v>4</v>
+      </c>
+      <c r="AG82">
+        <v>3</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>5</v>
+      </c>
+      <c r="AL82">
+        <v>4</v>
+      </c>
+      <c r="AM82">
+        <v>4</v>
+      </c>
+      <c r="AN82">
+        <v>5</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AS82">
+        <v>5</v>
+      </c>
+      <c r="AT82">
+        <v>1</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>4</v>
+      </c>
+      <c r="AZ82">
+        <v>2</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>2</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>4</v>
+      </c>
+      <c r="BE82">
+        <v>4</v>
+      </c>
+      <c r="BF82">
+        <v>4</v>
+      </c>
+      <c r="BG82">
+        <v>4</v>
+      </c>
+      <c r="BH82">
+        <v>4</v>
+      </c>
+      <c r="BI82">
+        <v>2</v>
+      </c>
+      <c r="BJ82">
+        <v>2</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>2</v>
+      </c>
+      <c r="BM82">
+        <v>2</v>
+      </c>
+      <c r="BN82">
+        <v>2</v>
+      </c>
+      <c r="BO82">
+        <v>2</v>
+      </c>
+      <c r="BP82">
+        <v>2</v>
+      </c>
+      <c r="BQ82">
+        <v>2</v>
+      </c>
+      <c r="BR82">
+        <v>4</v>
+      </c>
+      <c r="BS82">
+        <v>2</v>
+      </c>
+      <c r="BT82">
+        <v>2</v>
+      </c>
+      <c r="BU82">
+        <v>4</v>
+      </c>
+      <c r="BV82">
+        <v>2</v>
+      </c>
+      <c r="BW82">
+        <v>2</v>
+      </c>
+      <c r="BX82">
+        <v>2</v>
+      </c>
+      <c r="BY82">
+        <v>2</v>
+      </c>
+      <c r="BZ82">
+        <v>2</v>
+      </c>
+      <c r="CA82">
+        <v>2</v>
+      </c>
+      <c r="CB82">
+        <v>4</v>
+      </c>
+      <c r="CC82">
+        <v>4</v>
+      </c>
+      <c r="CD82">
+        <v>4</v>
+      </c>
+      <c r="CE82">
+        <v>4</v>
+      </c>
+      <c r="CF82">
+        <v>4</v>
+      </c>
+      <c r="CG82">
+        <v>4</v>
+      </c>
+      <c r="CH82" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI82">
+        <v>2</v>
+      </c>
+      <c r="CJ82">
+        <v>4</v>
+      </c>
+      <c r="CK82">
+        <v>2</v>
+      </c>
+      <c r="CL82">
+        <v>2</v>
+      </c>
+      <c r="CM82">
+        <v>4</v>
+      </c>
+      <c r="CN82">
+        <v>3</v>
+      </c>
+      <c r="CO82">
+        <v>4</v>
+      </c>
+      <c r="CP82">
+        <v>4</v>
+      </c>
+      <c r="CQ82">
+        <v>2</v>
+      </c>
+      <c r="CR82">
+        <v>2</v>
+      </c>
+      <c r="CS82">
+        <v>2</v>
+      </c>
+      <c r="CT82">
+        <v>2</v>
+      </c>
+      <c r="CU82">
+        <v>4</v>
+      </c>
+      <c r="CV82">
+        <v>4</v>
+      </c>
+      <c r="CW82">
+        <v>4</v>
+      </c>
+      <c r="CX82">
+        <v>4</v>
+      </c>
+      <c r="CY82">
+        <v>4</v>
+      </c>
+      <c r="CZ82">
+        <v>4</v>
+      </c>
+      <c r="DA82">
+        <v>4</v>
+      </c>
+      <c r="DB82">
+        <v>2</v>
+      </c>
+      <c r="DC82">
+        <v>4</v>
+      </c>
+      <c r="DD82">
+        <v>4</v>
+      </c>
+      <c r="DE82">
+        <v>4</v>
+      </c>
+      <c r="DF82">
+        <v>4</v>
+      </c>
+      <c r="DG82">
+        <v>2</v>
+      </c>
+      <c r="DH82">
+        <v>2</v>
+      </c>
+      <c r="DI82">
+        <v>2</v>
+      </c>
+      <c r="DJ82">
+        <v>2</v>
+      </c>
+      <c r="DK82">
+        <v>4</v>
+      </c>
+      <c r="DL82">
+        <v>4</v>
+      </c>
+      <c r="DM82">
+        <v>4</v>
+      </c>
+      <c r="DN82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>3</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>4</v>
+      </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
+      <c r="W83">
+        <v>4</v>
+      </c>
+      <c r="X83">
+        <v>4</v>
+      </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
+      <c r="Z83">
+        <v>2</v>
+      </c>
+      <c r="AA83">
+        <v>4</v>
+      </c>
+      <c r="AB83">
+        <v>3</v>
+      </c>
+      <c r="AC83">
+        <v>4</v>
+      </c>
+      <c r="AD83">
+        <v>3</v>
+      </c>
+      <c r="AE83">
+        <v>4</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
+        <v>2</v>
+      </c>
+      <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>5</v>
+      </c>
+      <c r="AL83">
+        <v>4</v>
+      </c>
+      <c r="AM83">
+        <v>4</v>
+      </c>
+      <c r="AN83">
+        <v>5</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>2</v>
+      </c>
+      <c r="AS83">
+        <v>5</v>
+      </c>
+      <c r="AT83">
+        <v>1</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>1</v>
+      </c>
+      <c r="AY83">
+        <v>2</v>
+      </c>
+      <c r="AZ83">
+        <v>2</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>1</v>
+      </c>
+      <c r="BD83">
+        <v>5</v>
+      </c>
+      <c r="BE83">
+        <v>4</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>4</v>
+      </c>
+      <c r="BI83">
+        <v>3</v>
+      </c>
+      <c r="BJ83">
+        <v>3</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>3</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>2</v>
+      </c>
+      <c r="BO83">
+        <v>2</v>
+      </c>
+      <c r="BP83">
+        <v>2</v>
+      </c>
+      <c r="BQ83">
+        <v>4</v>
+      </c>
+      <c r="BR83">
+        <v>3</v>
+      </c>
+      <c r="BS83">
+        <v>2</v>
+      </c>
+      <c r="BT83">
+        <v>4</v>
+      </c>
+      <c r="BU83">
+        <v>4</v>
+      </c>
+      <c r="BV83">
+        <v>2</v>
+      </c>
+      <c r="BW83">
+        <v>2</v>
+      </c>
+      <c r="BX83">
+        <v>2</v>
+      </c>
+      <c r="BY83">
+        <v>2</v>
+      </c>
+      <c r="BZ83">
+        <v>1</v>
+      </c>
+      <c r="CA83">
+        <v>4</v>
+      </c>
+      <c r="CB83">
+        <v>5</v>
+      </c>
+      <c r="CC83">
+        <v>4</v>
+      </c>
+      <c r="CD83">
+        <v>4</v>
+      </c>
+      <c r="CE83">
+        <v>4</v>
+      </c>
+      <c r="CF83">
+        <v>4</v>
+      </c>
+      <c r="CG83">
+        <v>3</v>
+      </c>
+      <c r="CH83" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI83">
+        <v>2</v>
+      </c>
+      <c r="CJ83">
+        <v>2</v>
+      </c>
+      <c r="CK83">
+        <v>1</v>
+      </c>
+      <c r="CL83">
+        <v>1</v>
+      </c>
+      <c r="CM83">
+        <v>5</v>
+      </c>
+      <c r="CN83">
+        <v>4</v>
+      </c>
+      <c r="CO83">
+        <v>5</v>
+      </c>
+      <c r="CP83">
+        <v>5</v>
+      </c>
+      <c r="CQ83">
+        <v>2</v>
+      </c>
+      <c r="CR83">
+        <v>1</v>
+      </c>
+      <c r="CS83">
+        <v>1</v>
+      </c>
+      <c r="CT83">
+        <v>1</v>
+      </c>
+      <c r="CU83">
+        <v>4</v>
+      </c>
+      <c r="CV83">
+        <v>5</v>
+      </c>
+      <c r="CW83">
+        <v>5</v>
+      </c>
+      <c r="CX83">
+        <v>4</v>
+      </c>
+      <c r="CY83">
+        <v>3</v>
+      </c>
+      <c r="CZ83">
+        <v>2</v>
+      </c>
+      <c r="DA83">
+        <v>3</v>
+      </c>
+      <c r="DB83">
+        <v>2</v>
+      </c>
+      <c r="DC83">
+        <v>3</v>
+      </c>
+      <c r="DD83">
+        <v>3</v>
+      </c>
+      <c r="DE83">
+        <v>4</v>
+      </c>
+      <c r="DF83">
+        <v>4</v>
+      </c>
+      <c r="DG83">
+        <v>2</v>
+      </c>
+      <c r="DH83">
+        <v>1</v>
+      </c>
+      <c r="DI83">
+        <v>1</v>
+      </c>
+      <c r="DJ83">
+        <v>1</v>
+      </c>
+      <c r="DK83">
+        <v>5</v>
+      </c>
+      <c r="DL83">
+        <v>5</v>
+      </c>
+      <c r="DM83">
+        <v>5</v>
+      </c>
+      <c r="DN83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>4</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>4</v>
+      </c>
+      <c r="W84">
+        <v>3</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>2</v>
+      </c>
+      <c r="Z84">
+        <v>2</v>
+      </c>
+      <c r="AA84">
+        <v>5</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>3</v>
+      </c>
+      <c r="AD84">
+        <v>4</v>
+      </c>
+      <c r="AE84">
+        <v>4</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+      <c r="AG84">
+        <v>3</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>3</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>3</v>
+      </c>
+      <c r="AL84">
+        <v>3</v>
+      </c>
+      <c r="AM84">
+        <v>4</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>2</v>
+      </c>
+      <c r="AQ84">
+        <v>2</v>
+      </c>
+      <c r="AR84">
+        <v>3</v>
+      </c>
+      <c r="AS84">
+        <v>5</v>
+      </c>
+      <c r="AT84">
+        <v>2</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>2</v>
+      </c>
+      <c r="AZ84">
+        <v>3</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>2</v>
+      </c>
+      <c r="BD84">
+        <v>3</v>
+      </c>
+      <c r="BE84">
+        <v>3</v>
+      </c>
+      <c r="BF84">
+        <v>3</v>
+      </c>
+      <c r="BG84">
+        <v>4</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>2</v>
+      </c>
+      <c r="BJ84">
+        <v>2</v>
+      </c>
+      <c r="BK84">
+        <v>2</v>
+      </c>
+      <c r="BL84">
+        <v>2</v>
+      </c>
+      <c r="BM84">
+        <v>2</v>
+      </c>
+      <c r="BN84">
+        <v>3</v>
+      </c>
+      <c r="BO84">
+        <v>3</v>
+      </c>
+      <c r="BP84">
+        <v>3</v>
+      </c>
+      <c r="BQ84">
+        <v>3</v>
+      </c>
+      <c r="BR84">
+        <v>4</v>
+      </c>
+      <c r="BS84">
+        <v>3</v>
+      </c>
+      <c r="BT84">
+        <v>3</v>
+      </c>
+      <c r="BU84">
+        <v>4</v>
+      </c>
+      <c r="BV84">
+        <v>1</v>
+      </c>
+      <c r="BW84">
+        <v>2</v>
+      </c>
+      <c r="BX84">
+        <v>2</v>
+      </c>
+      <c r="BY84">
+        <v>3</v>
+      </c>
+      <c r="BZ84">
+        <v>3</v>
+      </c>
+      <c r="CA84">
+        <v>3</v>
+      </c>
+      <c r="CB84">
+        <v>3</v>
+      </c>
+      <c r="CC84">
+        <v>4</v>
+      </c>
+      <c r="CD84">
+        <v>3</v>
+      </c>
+      <c r="CE84">
+        <v>3</v>
+      </c>
+      <c r="CF84">
+        <v>3</v>
+      </c>
+      <c r="CG84">
+        <v>3</v>
+      </c>
+      <c r="CH84" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI84">
+        <v>2</v>
+      </c>
+      <c r="CJ84">
+        <v>3</v>
+      </c>
+      <c r="CK84">
+        <v>2</v>
+      </c>
+      <c r="CL84">
+        <v>2</v>
+      </c>
+      <c r="CM84">
+        <v>4</v>
+      </c>
+      <c r="CN84">
+        <v>3</v>
+      </c>
+      <c r="CO84">
+        <v>4</v>
+      </c>
+      <c r="CP84">
+        <v>3</v>
+      </c>
+      <c r="CQ84">
+        <v>2</v>
+      </c>
+      <c r="CR84">
+        <v>2</v>
+      </c>
+      <c r="CS84">
+        <v>2</v>
+      </c>
+      <c r="CT84">
+        <v>3</v>
+      </c>
+      <c r="CU84">
+        <v>4</v>
+      </c>
+      <c r="CV84">
+        <v>4</v>
+      </c>
+      <c r="CW84">
+        <v>4</v>
+      </c>
+      <c r="CX84">
+        <v>3</v>
+      </c>
+      <c r="CY84">
+        <v>3</v>
+      </c>
+      <c r="CZ84">
+        <v>3</v>
+      </c>
+      <c r="DA84">
+        <v>3</v>
+      </c>
+      <c r="DB84">
+        <v>3</v>
+      </c>
+      <c r="DC84">
+        <v>3</v>
+      </c>
+      <c r="DD84">
+        <v>3</v>
+      </c>
+      <c r="DE84">
+        <v>3</v>
+      </c>
+      <c r="DF84">
+        <v>3</v>
+      </c>
+      <c r="DG84">
+        <v>2</v>
+      </c>
+      <c r="DH84">
+        <v>2</v>
+      </c>
+      <c r="DI84">
+        <v>2</v>
+      </c>
+      <c r="DJ84">
+        <v>2</v>
+      </c>
+      <c r="DK84">
+        <v>3</v>
+      </c>
+      <c r="DL84">
+        <v>4</v>
+      </c>
+      <c r="DM84">
+        <v>4</v>
+      </c>
+      <c r="DN84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>4</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
+      <c r="X85">
+        <v>4</v>
+      </c>
+      <c r="Y85">
+        <v>2</v>
+      </c>
+      <c r="Z85">
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <v>5</v>
+      </c>
+      <c r="AB85">
+        <v>2</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
+      <c r="AD85">
+        <v>4</v>
+      </c>
+      <c r="AE85">
+        <v>4</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>2</v>
+      </c>
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85">
+        <v>3</v>
+      </c>
+      <c r="AL85">
+        <v>4</v>
+      </c>
+      <c r="AM85">
+        <v>4</v>
+      </c>
+      <c r="AN85">
+        <v>5</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>2</v>
+      </c>
+      <c r="AS85">
+        <v>4</v>
+      </c>
+      <c r="AT85">
+        <v>1</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>2</v>
+      </c>
+      <c r="AZ85">
+        <v>2</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>3</v>
+      </c>
+      <c r="BD85">
+        <v>3</v>
+      </c>
+      <c r="BE85">
+        <v>4</v>
+      </c>
+      <c r="BF85">
+        <v>4</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>2</v>
+      </c>
+      <c r="BJ85">
+        <v>2</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>2</v>
+      </c>
+      <c r="BM85">
+        <v>2</v>
+      </c>
+      <c r="BN85">
+        <v>3</v>
+      </c>
+      <c r="BO85">
+        <v>2</v>
+      </c>
+      <c r="BP85">
+        <v>2</v>
+      </c>
+      <c r="BQ85">
+        <v>2</v>
+      </c>
+      <c r="BR85">
+        <v>5</v>
+      </c>
+      <c r="BS85">
+        <v>2</v>
+      </c>
+      <c r="BT85">
+        <v>5</v>
+      </c>
+      <c r="BU85">
+        <v>4</v>
+      </c>
+      <c r="BV85">
+        <v>2</v>
+      </c>
+      <c r="BW85">
+        <v>2</v>
+      </c>
+      <c r="BX85">
+        <v>2</v>
+      </c>
+      <c r="BY85">
+        <v>2</v>
+      </c>
+      <c r="BZ85">
+        <v>2</v>
+      </c>
+      <c r="CA85">
+        <v>2</v>
+      </c>
+      <c r="CB85">
+        <v>4</v>
+      </c>
+      <c r="CC85">
+        <v>4</v>
+      </c>
+      <c r="CD85">
+        <v>5</v>
+      </c>
+      <c r="CE85">
+        <v>1</v>
+      </c>
+      <c r="CF85">
+        <v>4</v>
+      </c>
+      <c r="CG85">
+        <v>4</v>
+      </c>
+      <c r="CH85" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI85">
+        <v>2</v>
+      </c>
+      <c r="CJ85">
+        <v>2</v>
+      </c>
+      <c r="CK85">
+        <v>2</v>
+      </c>
+      <c r="CL85">
+        <v>2</v>
+      </c>
+      <c r="CM85">
+        <v>4</v>
+      </c>
+      <c r="CN85">
+        <v>4</v>
+      </c>
+      <c r="CO85">
+        <v>4</v>
+      </c>
+      <c r="CP85">
+        <v>4</v>
+      </c>
+      <c r="CQ85">
+        <v>2</v>
+      </c>
+      <c r="CR85">
+        <v>2</v>
+      </c>
+      <c r="CS85">
+        <v>2</v>
+      </c>
+      <c r="CT85">
+        <v>2</v>
+      </c>
+      <c r="CU85">
+        <v>4</v>
+      </c>
+      <c r="CV85">
+        <v>4</v>
+      </c>
+      <c r="CW85">
+        <v>4</v>
+      </c>
+      <c r="CX85">
+        <v>4</v>
+      </c>
+      <c r="CY85">
+        <v>4</v>
+      </c>
+      <c r="CZ85">
+        <v>4</v>
+      </c>
+      <c r="DA85">
+        <v>4</v>
+      </c>
+      <c r="DB85">
+        <v>2</v>
+      </c>
+      <c r="DC85">
+        <v>4</v>
+      </c>
+      <c r="DD85">
+        <v>4</v>
+      </c>
+      <c r="DE85">
+        <v>4</v>
+      </c>
+      <c r="DF85">
+        <v>1</v>
+      </c>
+      <c r="DG85">
+        <v>2</v>
+      </c>
+      <c r="DH85">
+        <v>2</v>
+      </c>
+      <c r="DI85">
+        <v>2</v>
+      </c>
+      <c r="DJ85">
+        <v>2</v>
+      </c>
+      <c r="DK85">
+        <v>4</v>
+      </c>
+      <c r="DL85">
+        <v>4</v>
+      </c>
+      <c r="DM85">
+        <v>4</v>
+      </c>
+      <c r="DN85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>4</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>4</v>
+      </c>
+      <c r="V86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>4</v>
+      </c>
+      <c r="X86">
+        <v>4</v>
+      </c>
+      <c r="Y86">
+        <v>2</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>4</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>4</v>
+      </c>
+      <c r="AD86">
+        <v>4</v>
+      </c>
+      <c r="AE86">
+        <v>4</v>
+      </c>
+      <c r="AF86">
+        <v>4</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>2</v>
+      </c>
+      <c r="AI86">
+        <v>2</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>5</v>
+      </c>
+      <c r="AL86">
+        <v>4</v>
+      </c>
+      <c r="AM86">
+        <v>4</v>
+      </c>
+      <c r="AN86">
+        <v>5</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AS86">
+        <v>5</v>
+      </c>
+      <c r="AT86">
+        <v>3</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>2</v>
+      </c>
+      <c r="AZ86">
+        <v>2</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>2</v>
+      </c>
+      <c r="BD86">
+        <v>4</v>
+      </c>
+      <c r="BE86">
+        <v>4</v>
+      </c>
+      <c r="BF86">
+        <v>4</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>4</v>
+      </c>
+      <c r="BJ86">
+        <v>2</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>2</v>
+      </c>
+      <c r="BM86">
+        <v>2</v>
+      </c>
+      <c r="BN86">
+        <v>2</v>
+      </c>
+      <c r="BO86">
+        <v>2</v>
+      </c>
+      <c r="BP86">
+        <v>2</v>
+      </c>
+      <c r="BQ86">
+        <v>2</v>
+      </c>
+      <c r="BR86">
+        <v>4</v>
+      </c>
+      <c r="BS86">
+        <v>2</v>
+      </c>
+      <c r="BT86">
+        <v>2</v>
+      </c>
+      <c r="BU86">
+        <v>4</v>
+      </c>
+      <c r="BV86">
+        <v>2</v>
+      </c>
+      <c r="BW86">
+        <v>2</v>
+      </c>
+      <c r="BX86">
+        <v>2</v>
+      </c>
+      <c r="BY86">
+        <v>2</v>
+      </c>
+      <c r="BZ86">
+        <v>2</v>
+      </c>
+      <c r="CA86">
+        <v>2</v>
+      </c>
+      <c r="CB86">
+        <v>4</v>
+      </c>
+      <c r="CC86">
+        <v>4</v>
+      </c>
+      <c r="CD86">
+        <v>4</v>
+      </c>
+      <c r="CE86">
+        <v>4</v>
+      </c>
+      <c r="CF86">
+        <v>4</v>
+      </c>
+      <c r="CG86">
+        <v>4</v>
+      </c>
+      <c r="CH86" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI86">
+        <v>2</v>
+      </c>
+      <c r="CJ86">
+        <v>4</v>
+      </c>
+      <c r="CK86">
+        <v>2</v>
+      </c>
+      <c r="CL86">
+        <v>2</v>
+      </c>
+      <c r="CM86">
+        <v>4</v>
+      </c>
+      <c r="CN86">
+        <v>4</v>
+      </c>
+      <c r="CO86">
+        <v>4</v>
+      </c>
+      <c r="CP86">
+        <v>4</v>
+      </c>
+      <c r="CQ86">
+        <v>2</v>
+      </c>
+      <c r="CR86">
+        <v>2</v>
+      </c>
+      <c r="CS86">
+        <v>2</v>
+      </c>
+      <c r="CT86">
+        <v>2</v>
+      </c>
+      <c r="CU86">
+        <v>4</v>
+      </c>
+      <c r="CV86">
+        <v>4</v>
+      </c>
+      <c r="CW86">
+        <v>4</v>
+      </c>
+      <c r="CX86">
+        <v>4</v>
+      </c>
+      <c r="CY86">
+        <v>4</v>
+      </c>
+      <c r="CZ86">
+        <v>4</v>
+      </c>
+      <c r="DA86">
+        <v>4</v>
+      </c>
+      <c r="DB86">
+        <v>2</v>
+      </c>
+      <c r="DC86">
+        <v>4</v>
+      </c>
+      <c r="DD86">
+        <v>4</v>
+      </c>
+      <c r="DE86">
+        <v>4</v>
+      </c>
+      <c r="DF86">
+        <v>4</v>
+      </c>
+      <c r="DG86">
+        <v>2</v>
+      </c>
+      <c r="DH86">
+        <v>2</v>
+      </c>
+      <c r="DI86">
+        <v>2</v>
+      </c>
+      <c r="DJ86">
+        <v>2</v>
+      </c>
+      <c r="DK86">
+        <v>4</v>
+      </c>
+      <c r="DL86">
+        <v>4</v>
+      </c>
+      <c r="DM86">
+        <v>4</v>
+      </c>
+      <c r="DN86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>4</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>2</v>
+      </c>
+      <c r="X87">
+        <v>2</v>
+      </c>
+      <c r="Y87">
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>4</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>4</v>
+      </c>
+      <c r="AD87">
+        <v>4</v>
+      </c>
+      <c r="AE87">
+        <v>4</v>
+      </c>
+      <c r="AF87">
+        <v>4</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>4</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>5</v>
+      </c>
+      <c r="AL87">
+        <v>4</v>
+      </c>
+      <c r="AM87">
+        <v>4</v>
+      </c>
+      <c r="AN87">
+        <v>4</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>4</v>
+      </c>
+      <c r="AS87">
+        <v>5</v>
+      </c>
+      <c r="AT87">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>4</v>
+      </c>
+      <c r="AZ87">
+        <v>3</v>
+      </c>
+      <c r="BA87">
+        <v>2</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>4</v>
+      </c>
+      <c r="BD87">
+        <v>3</v>
+      </c>
+      <c r="BE87">
+        <v>3</v>
+      </c>
+      <c r="BF87">
+        <v>4</v>
+      </c>
+      <c r="BG87">
+        <v>4</v>
+      </c>
+      <c r="BH87">
+        <v>2</v>
+      </c>
+      <c r="BI87">
+        <v>2</v>
+      </c>
+      <c r="BJ87">
+        <v>4</v>
+      </c>
+      <c r="BK87">
+        <v>4</v>
+      </c>
+      <c r="BL87">
+        <v>4</v>
+      </c>
+      <c r="BM87">
+        <v>4</v>
+      </c>
+      <c r="BN87">
+        <v>4</v>
+      </c>
+      <c r="BO87">
+        <v>4</v>
+      </c>
+      <c r="BP87">
+        <v>3</v>
+      </c>
+      <c r="BQ87">
+        <v>2</v>
+      </c>
+      <c r="BR87">
+        <v>2</v>
+      </c>
+      <c r="BS87">
+        <v>2</v>
+      </c>
+      <c r="BT87">
+        <v>2</v>
+      </c>
+      <c r="BU87">
+        <v>4</v>
+      </c>
+      <c r="BV87">
+        <v>1</v>
+      </c>
+      <c r="BW87">
+        <v>2</v>
+      </c>
+      <c r="BX87">
+        <v>2</v>
+      </c>
+      <c r="BY87">
+        <v>3</v>
+      </c>
+      <c r="BZ87">
+        <v>2</v>
+      </c>
+      <c r="CA87">
+        <v>4</v>
+      </c>
+      <c r="CB87">
+        <v>4</v>
+      </c>
+      <c r="CC87">
+        <v>4</v>
+      </c>
+      <c r="CD87">
+        <v>4</v>
+      </c>
+      <c r="CE87">
+        <v>4</v>
+      </c>
+      <c r="CF87">
+        <v>4</v>
+      </c>
+      <c r="CG87">
+        <v>2</v>
+      </c>
+      <c r="CH87" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI87">
+        <v>2</v>
+      </c>
+      <c r="CJ87">
+        <v>2</v>
+      </c>
+      <c r="CK87">
+        <v>2</v>
+      </c>
+      <c r="CL87">
+        <v>2</v>
+      </c>
+      <c r="CM87">
+        <v>4</v>
+      </c>
+      <c r="CN87">
+        <v>4</v>
+      </c>
+      <c r="CO87">
+        <v>4</v>
+      </c>
+      <c r="CP87">
+        <v>2</v>
+      </c>
+      <c r="CQ87">
+        <v>2</v>
+      </c>
+      <c r="CR87">
+        <v>2</v>
+      </c>
+      <c r="CS87">
+        <v>4</v>
+      </c>
+      <c r="CT87">
+        <v>2</v>
+      </c>
+      <c r="CU87">
+        <v>4</v>
+      </c>
+      <c r="CV87">
+        <v>4</v>
+      </c>
+      <c r="CW87">
+        <v>4</v>
+      </c>
+      <c r="CX87">
+        <v>4</v>
+      </c>
+      <c r="CY87">
+        <v>4</v>
+      </c>
+      <c r="CZ87">
+        <v>4</v>
+      </c>
+      <c r="DA87">
+        <v>4</v>
+      </c>
+      <c r="DB87">
+        <v>4</v>
+      </c>
+      <c r="DC87">
+        <v>4</v>
+      </c>
+      <c r="DD87">
+        <v>4</v>
+      </c>
+      <c r="DE87">
+        <v>4</v>
+      </c>
+      <c r="DF87">
+        <v>2</v>
+      </c>
+      <c r="DG87">
+        <v>2</v>
+      </c>
+      <c r="DH87">
+        <v>2</v>
+      </c>
+      <c r="DI87">
+        <v>2</v>
+      </c>
+      <c r="DJ87">
+        <v>2</v>
+      </c>
+      <c r="DK87">
+        <v>4</v>
+      </c>
+      <c r="DL87">
+        <v>4</v>
+      </c>
+      <c r="DM87">
+        <v>4</v>
+      </c>
+      <c r="DN87">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
